--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA16C93-30BB-4F6D-B41B-C7756B3C207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE48486F-A6E4-4DB5-84A4-E5983F70C39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13332" yWindow="8256" windowWidth="7632" windowHeight="3696" tabRatio="922" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -1639,9 +1639,6 @@
     <t>What is the amount of non-need-based state and other self-help work study awarded to students?</t>
   </si>
   <si>
-    <t xml:space="preserve">The amount of [need_non_need_base_aid] (xor [self-help_aid] {[financial_aid_type] scholarship or grants} (xor {tuition [*waiver]} (xor [*parent] [*student]) loan)) </t>
-  </si>
-  <si>
     <t>The number of degree-seeking undergraduate (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
   </si>
   <si>
@@ -2007,6 +2004,9 @@
   </si>
   <si>
     <t>What is Rose-Hulman's tuition for undergraduate students?</t>
+  </si>
+  <si>
+    <t>The amount of [need_non_need_base_aid] (xor [self-help_aid] {[financial_aid_type] scholarship or grants} (xor {tuition [*waiver]} (xor [*parent] [*student]) loan)))</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2687,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2864,7 +2864,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +2996,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3173,7 +3173,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,7 +3184,7 @@
         <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3268,7 +3268,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3289,7 +3289,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3494,7 +3494,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3628,7 +3628,7 @@
         <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3697,7 +3697,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -3835,7 +3835,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3967,7 +3967,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4140,7 +4140,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>159</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>318</v>
@@ -4702,7 +4702,7 @@
         <v>266</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5235,7 +5235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -5255,206 +5255,206 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B3" s="6">
         <v>45017</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>588</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>590</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>592</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>594</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>597</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B14" s="6">
         <v>1500</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B15" s="6">
         <v>1500</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>603</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>605</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>607</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>610</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5467,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5672,7 +5672,7 @@
         <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>521</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5717,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6222,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6475,7 +6475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -6499,10 +6499,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -6510,10 +6510,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -6521,10 +6521,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C4" t="s">
         <v>196</v>
@@ -6532,10 +6532,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C5" t="s">
         <v>196</v>
@@ -6543,10 +6543,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="C6" t="s">
         <v>196</v>
@@ -6554,57 +6554,57 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>626</v>
-      </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -6838,7 +6838,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6878,7 +6878,7 @@
         <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -7526,79 +7526,79 @@
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>552</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>554</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>556</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>562</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -7655,7 +7655,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -7719,7 +7719,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7954,7 +7954,7 @@
         <v>266</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8023,7 +8023,7 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -8144,10 +8144,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -8171,7 +8171,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8236,7 +8236,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8341,7 +8341,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE48486F-A6E4-4DB5-84A4-E5983F70C39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D66353-55EC-436F-BD6C-77BA703BDE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="27" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="646">
   <si>
     <t>Answer</t>
   </si>
@@ -1539,9 +1539,6 @@
   </si>
   <si>
     <t>What is the average need-based loan for students who were awarded any need-based self-help aid?</t>
-  </si>
-  <si>
-    <t>The total number of [enrollment_status] instructional faculty who are [gender] is &lt;value&gt;</t>
   </si>
   <si>
     <t>The total number of [enrollment_status] instructional faculty who have a [degree_level] degree is &lt;value&gt;</t>
@@ -1717,49 +1714,25 @@
     <t>What other units are recommended for admission?</t>
   </si>
   <si>
-    <t>How many Computer and information scienses degrees are conferred?</t>
-  </si>
-  <si>
-    <t>There are 15.7% bachelor's degrees conferred are Computer and information scienses, CIP is 11</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>How many Engineering degrees are conferred?</t>
   </si>
   <si>
-    <t>There are 73.1% bachelor's degrees conferred are Engineering , CIP is 14</t>
-  </si>
-  <si>
     <t>How many Biological/life sciences degrees are conferred?</t>
   </si>
   <si>
-    <t>There are 2.2% bachelor's degrees conferred are  Biological/life sciences , CIP is 26</t>
-  </si>
-  <si>
     <t>How many Mathematics and statistics degrees are conferred?</t>
   </si>
   <si>
-    <t>There are 5.2% bachelor's degrees conferred are Mathematics and statistics, CIP is 27</t>
-  </si>
-  <si>
     <t>How many Interdisciplinary studies degrees are conferred?</t>
   </si>
   <si>
-    <t>There are 0.7% bachelor's degrees conferred are Interdisciplinary studies, CIP is 30</t>
-  </si>
-  <si>
     <t>How many Physical sciences degrees are conferred?</t>
   </si>
   <si>
-    <t>There are 3.0% bachelor's degrees conferred are Physical sciences, CIP is 40</t>
-  </si>
-  <si>
     <t>How many Social sciences degrees are conferred?</t>
-  </si>
-  <si>
-    <t>There are 0.2% bachelor's degrees conferred are Social sciences, CIP is 45</t>
   </si>
   <si>
     <t>Of previous units, how many lab units are recommended for admission?</t>
@@ -2007,6 +1980,39 @@
   </si>
   <si>
     <t>The amount of [need_non_need_base_aid] (xor [self-help_aid] {[financial_aid_type] scholarship or grants} (xor {tuition [*waiver]} (xor [*parent] [*student]) loan)))</t>
+  </si>
+  <si>
+    <t>What majors does Rose-Hulman offer?</t>
+  </si>
+  <si>
+    <t>15.7% bachelor's degrees conferred are Computer and information science</t>
+  </si>
+  <si>
+    <t>73.1% bachelor's degrees conferred are Engineering</t>
+  </si>
+  <si>
+    <t>2.2% bachelor's degrees conferred are  Biological/life sciences.</t>
+  </si>
+  <si>
+    <t>5.2% bachelor's degrees conferred are Mathematics and statistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7% bachelor's degrees conferred are Interdisciplinary studies.</t>
+  </si>
+  <si>
+    <t>3.0% bachelor's degrees conferred are Physical sciences</t>
+  </si>
+  <si>
+    <t>0.2% bachelor's degrees conferred are Social sciences</t>
+  </si>
+  <si>
+    <t>How many Computer and information degrees are conferred?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman offers deree in  Computer science,  engineering degrees, biological/life sciences,  physical sciences and social sciences</t>
+  </si>
+  <si>
+    <t>The total number of [enrollment_status] instructional faculty {who are [gender]} is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2384,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2687,7 +2693,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2864,7 +2870,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +3002,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3173,7 +3179,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,7 +3190,7 @@
         <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3268,7 +3274,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3289,7 +3295,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3494,7 +3500,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3628,7 +3634,7 @@
         <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3697,7 +3703,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -3835,7 +3841,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3967,7 +3973,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4140,7 +4146,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>159</v>
@@ -4151,7 +4157,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>318</v>
@@ -4702,7 +4708,7 @@
         <v>266</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5255,206 +5261,206 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B3" s="6">
         <v>45017</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B14" s="6">
         <v>1500</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B15" s="6">
         <v>1500</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -5559,7 +5565,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>387</v>
@@ -5567,7 +5573,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>388</v>
@@ -5575,7 +5581,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>389</v>
@@ -5583,7 +5589,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>381</v>
@@ -5591,7 +5597,7 @@
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>381</v>
@@ -5599,7 +5605,7 @@
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>381</v>
@@ -5672,7 +5678,7 @@
         <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6499,10 +6505,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -6510,10 +6516,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -6521,10 +6527,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="C4" t="s">
         <v>196</v>
@@ -6532,10 +6538,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C5" t="s">
         <v>196</v>
@@ -6543,10 +6549,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C6" t="s">
         <v>196</v>
@@ -6554,57 +6560,57 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>635</v>
-      </c>
       <c r="C8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>637</v>
-      </c>
       <c r="C10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6636,7 +6642,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -6644,7 +6650,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6652,7 +6658,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -6660,7 +6666,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6685,7 +6691,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6838,7 +6844,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6878,7 +6884,7 @@
         <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -6890,8 +6896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6959,7 +6965,7 @@
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>489</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7003,7 +7009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -7104,7 +7110,7 @@
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7172,10 +7178,10 @@
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -7186,7 +7192,7 @@
         <v>442</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
         <v>196</v>
@@ -7270,15 +7276,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -7286,7 +7292,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -7294,7 +7300,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -7302,7 +7308,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -7310,7 +7316,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7318,7 +7324,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7326,7 +7332,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7407,7 +7413,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -7415,7 +7421,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -7423,7 +7429,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -7431,7 +7437,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -7439,7 +7445,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7447,7 +7453,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7455,7 +7461,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7500,16 +7506,16 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A321CDB-4432-42F8-8542-C3389F944EAE}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7524,81 +7530,89 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>547</v>
+        <v>643</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>548</v>
+        <v>636</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>561</v>
+        <v>642</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -7631,7 +7645,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -7639,7 +7653,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -7647,7 +7661,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -7655,7 +7669,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -7663,7 +7677,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7671,7 +7685,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -7679,7 +7693,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7687,7 +7701,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -7695,7 +7709,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -7719,7 +7733,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7954,7 +7968,7 @@
         <v>266</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8023,7 +8037,7 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -8034,7 +8048,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -8045,7 +8059,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -8056,7 +8070,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -8067,7 +8081,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -8078,7 +8092,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -8089,7 +8103,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -8100,7 +8114,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -8111,7 +8125,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -8122,7 +8136,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -8133,7 +8147,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -8144,10 +8158,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -8171,7 +8185,7 @@
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8236,7 +8250,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8244,7 +8258,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -8252,7 +8266,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -8260,7 +8274,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8268,7 +8282,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8276,7 +8290,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8284,7 +8298,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8292,7 +8306,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -8300,7 +8314,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8308,7 +8322,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8316,7 +8330,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8341,7 +8355,7 @@
         <v>266</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D66353-55EC-436F-BD6C-77BA703BDE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0DF98-D6A9-4FC8-B098-BEA66FCF3C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="27" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -41,9 +41,9 @@
     <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId26"/>
     <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId27"/>
     <sheet name="Financial Aid_Type" sheetId="36" r:id="rId28"/>
-    <sheet name="Faculty And Class Size_Race" sheetId="30" r:id="rId29"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId30"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId31"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId29"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId30"/>
+    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId31"/>
     <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId32"/>
     <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId33"/>
     <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId34"/>
@@ -6619,17 +6619,17 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="84.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -6640,33 +6640,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="B2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6686,12 +6686,12 @@
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>494</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6728,7 +6728,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6893,124 +6892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="84.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7147,6 +7033,120 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7596,7 +7596,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>552</v>
       </c>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0DF98-D6A9-4FC8-B098-BEA66FCF3C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B74778-CF9E-404E-A7B9-82B8649174E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="938" windowWidth="16200" windowHeight="9982" tabRatio="922" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -21,33 +21,34 @@
     <sheet name="High School Units_Required" sheetId="29" r:id="rId6"/>
     <sheet name="High School Units_Recommended" sheetId="28" r:id="rId7"/>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId8"/>
-    <sheet name="Admission Policies" sheetId="9" r:id="rId9"/>
-    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId10"/>
-    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId11"/>
-    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId12"/>
-    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId13"/>
-    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId14"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId15"/>
-    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId16"/>
-    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId17"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId18"/>
-    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId19"/>
-    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId20"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId21"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId22"/>
-    <sheet name="Annual Expense" sheetId="35" r:id="rId23"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId24"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId25"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId26"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId27"/>
-    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId28"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId29"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId30"/>
-    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId31"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId32"/>
-    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId33"/>
-    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId34"/>
-    <sheet name="Degree Conferred" sheetId="33" r:id="rId35"/>
+    <sheet name="Admission" sheetId="37" r:id="rId9"/>
+    <sheet name="Admission Policies" sheetId="9" r:id="rId10"/>
+    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId11"/>
+    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId12"/>
+    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId13"/>
+    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId14"/>
+    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId15"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId16"/>
+    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId17"/>
+    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId18"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId19"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId20"/>
+    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId21"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId22"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId23"/>
+    <sheet name="Annual Expense" sheetId="35" r:id="rId24"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId25"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId26"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId27"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId28"/>
+    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId29"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId30"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId31"/>
+    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId32"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId33"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId34"/>
+    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId35"/>
+    <sheet name="Degree Conferred" sheetId="33" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="661">
   <si>
     <t>Answer</t>
   </si>
@@ -2013,6 +2014,51 @@
   </si>
   <si>
     <t>The total number of [enrollment_status] instructional faculty {who are [gender]} is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Total first-time, first-year (freshman) men who applied?</t>
+  </si>
+  <si>
+    <t>Total first-time, first-year (freshman) women who applied</t>
+  </si>
+  <si>
+    <t>Total first-time, first-year (freshman) men who were admitted</t>
+  </si>
+  <si>
+    <t>Total first-time, first-year (freshman) women who were admitted</t>
+  </si>
+  <si>
+    <t>Total full-time, first-time, first-year (freshman) men who enrolled</t>
+  </si>
+  <si>
+    <t>Total part-time, first-time, first-year (freshman) men who enrolled</t>
+  </si>
+  <si>
+    <t>Total full-time, first-time, first-year (freshman) women who enrolled</t>
+  </si>
+  <si>
+    <t>Total part-time, first-time, first-year (freshman) women who enrolled</t>
+  </si>
+  <si>
+    <t>Do you have a policy of placing students on a waiting list?</t>
+  </si>
+  <si>
+    <t>yes, the number of qualified applicants offered a place on waiting list is 119, the number of accepting a place on the waiting list is 43, the number of wait-listed students admitted 14</t>
+  </si>
+  <si>
+    <t>Is your waiting list ranked?</t>
+  </si>
+  <si>
+    <t>What is your high school completion requirement for degree-seeking entering students?</t>
+  </si>
+  <si>
+    <t>High school diploma is required and GED is not accepted</t>
+  </si>
+  <si>
+    <t>Does your institution require or recommend a general college-preparatory program for degree-seeking students?</t>
+  </si>
+  <si>
+    <t>Require</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2107,6 +2153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2394,14 +2441,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="78.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.1328125" style="6" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2412,7 +2459,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>419</v>
       </c>
@@ -2423,7 +2470,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>451</v>
       </c>
@@ -2434,7 +2481,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>421</v>
       </c>
@@ -2445,7 +2492,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>420</v>
       </c>
@@ -2456,7 +2503,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>422</v>
       </c>
@@ -2467,7 +2514,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>423</v>
       </c>
@@ -2478,7 +2525,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>424</v>
       </c>
@@ -2489,7 +2536,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>458</v>
       </c>
@@ -2500,7 +2547,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>425</v>
       </c>
@@ -2511,7 +2558,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>426</v>
       </c>
@@ -2522,7 +2569,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>427</v>
       </c>
@@ -2533,7 +2580,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>428</v>
       </c>
@@ -2544,7 +2591,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>429</v>
       </c>
@@ -2555,7 +2602,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>272</v>
       </c>
@@ -2563,12 +2610,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
@@ -2576,7 +2623,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -2584,7 +2631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -2592,7 +2639,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -2606,6 +2653,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="58.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="58.86328125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2613,13 +2825,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="95.21875" customWidth="1"/>
-    <col min="2" max="2" width="67.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="95.19921875" customWidth="1"/>
+    <col min="2" max="2" width="67.19921875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2627,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -2635,7 +2847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -2643,7 +2855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2651,7 +2863,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -2659,7 +2871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2667,7 +2879,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2675,7 +2887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
@@ -2683,12 +2895,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>266</v>
       </c>
@@ -2696,7 +2908,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>268</v>
       </c>
@@ -2704,7 +2916,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>269</v>
       </c>
@@ -2712,7 +2924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -2720,7 +2932,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -2733,7 +2945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -2741,13 +2953,13 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="114.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.86328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2755,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -2763,7 +2975,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -2771,7 +2983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -2779,7 +2991,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -2787,7 +2999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -2795,7 +3007,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2803,7 +3015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -2811,7 +3023,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -2819,7 +3031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2827,7 +3039,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,7 +3047,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -2843,7 +3055,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -2851,7 +3063,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>272</v>
       </c>
@@ -2859,13 +3071,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>266</v>
       </c>
@@ -2873,7 +3085,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
@@ -2881,7 +3093,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -2889,7 +3101,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -2897,7 +3109,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -2914,7 +3126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2922,13 +3134,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="75" style="5" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2936,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
@@ -2944,7 +3156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>84</v>
       </c>
@@ -2952,7 +3164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>87</v>
       </c>
@@ -2960,7 +3172,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
@@ -2968,7 +3180,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>92</v>
       </c>
@@ -2976,7 +3188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>95</v>
       </c>
@@ -2984,7 +3196,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
@@ -2992,12 +3204,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>266</v>
       </c>
@@ -3005,7 +3217,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>268</v>
       </c>
@@ -3013,7 +3225,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>269</v>
       </c>
@@ -3021,7 +3233,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -3029,7 +3241,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -3042,7 +3254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -3050,13 +3262,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="91.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3064,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -3072,7 +3284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -3080,7 +3292,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,7 +3300,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -3096,7 +3308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3104,7 +3316,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -3112,7 +3324,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -3120,7 +3332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>210</v>
       </c>
@@ -3128,7 +3340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -3136,7 +3348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -3144,7 +3356,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -3152,7 +3364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -3160,7 +3372,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>272</v>
       </c>
@@ -3168,13 +3380,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>266</v>
       </c>
@@ -3182,7 +3394,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
@@ -3193,7 +3405,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -3201,7 +3413,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -3209,7 +3421,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -3223,7 +3435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6B56-71DD-4A78-89DB-D3F23672C01B}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -3231,13 +3443,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3245,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>468</v>
       </c>
@@ -3253,7 +3465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>469</v>
       </c>
@@ -3261,7 +3473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>466</v>
       </c>
@@ -3269,7 +3481,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>467</v>
       </c>
@@ -3277,7 +3489,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>272</v>
       </c>
@@ -3285,12 +3497,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>266</v>
       </c>
@@ -3298,7 +3510,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>268</v>
       </c>
@@ -3306,7 +3518,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>269</v>
       </c>
@@ -3314,7 +3526,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>273</v>
       </c>
@@ -3322,7 +3534,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>271</v>
       </c>
@@ -3336,7 +3548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -3344,14 +3556,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="85.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="81.19921875" customWidth="1"/>
+    <col min="2" max="2" width="85.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3359,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -3367,7 +3579,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -3375,7 +3587,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -3383,7 +3595,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3391,7 +3603,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -3399,7 +3611,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -3407,7 +3619,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -3415,7 +3627,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -3423,7 +3635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -3431,7 +3643,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -3439,7 +3651,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -3447,7 +3659,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -3455,7 +3667,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -3463,7 +3675,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3471,7 +3683,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -3479,7 +3691,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -3487,7 +3699,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3495,7 +3707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -3503,7 +3715,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3511,7 +3723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3519,7 +3731,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -3527,7 +3739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -3535,7 +3747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -3543,7 +3755,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -3551,7 +3763,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -3559,7 +3771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3567,7 +3779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3575,7 +3787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3583,7 +3795,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -3591,7 +3803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -3599,7 +3811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -3607,7 +3819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,7 +3827,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>272</v>
       </c>
@@ -3623,13 +3835,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>266</v>
       </c>
@@ -3637,7 +3849,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>268</v>
       </c>
@@ -3645,7 +3857,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>269</v>
       </c>
@@ -3653,7 +3865,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>273</v>
       </c>
@@ -3661,7 +3873,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>271</v>
       </c>
@@ -3675,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -3683,14 +3895,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="87.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3701,7 +3913,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>606</v>
       </c>
@@ -3712,7 +3924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>470</v>
       </c>
@@ -3723,7 +3935,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>471</v>
       </c>
@@ -3734,7 +3946,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>472</v>
       </c>
@@ -3745,7 +3957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>473</v>
       </c>
@@ -3756,7 +3968,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>474</v>
       </c>
@@ -3767,7 +3979,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>475</v>
       </c>
@@ -3778,7 +3990,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>476</v>
       </c>
@@ -3789,7 +4001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>477</v>
       </c>
@@ -3800,7 +4012,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>478</v>
       </c>
@@ -3811,7 +4023,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>479</v>
       </c>
@@ -3822,7 +4034,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>272</v>
       </c>
@@ -3830,13 +4042,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>266</v>
       </c>
@@ -3844,7 +4056,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>268</v>
       </c>
@@ -3852,7 +4064,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>269</v>
       </c>
@@ -3860,7 +4072,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>273</v>
       </c>
@@ -3868,7 +4080,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>271</v>
       </c>
@@ -3876,7 +4088,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="5"/>
     </row>
   </sheetData>
@@ -3885,7 +4097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBFCBD-BE53-4EBE-BC28-AF1024B4BD2D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3893,13 +4105,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="70.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="70.1328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.53125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3907,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>480</v>
       </c>
@@ -3915,7 +4127,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>481</v>
       </c>
@@ -3923,7 +4135,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>482</v>
       </c>
@@ -3931,7 +4143,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>483</v>
       </c>
@@ -3939,7 +4151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>484</v>
       </c>
@@ -3947,7 +4159,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>485</v>
       </c>
@@ -3955,7 +4167,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
@@ -3963,12 +4175,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>266</v>
       </c>
@@ -3976,7 +4188,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>268</v>
       </c>
@@ -3984,7 +4196,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>269</v>
       </c>
@@ -3992,7 +4204,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>273</v>
       </c>
@@ -4000,314 +4212,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>271</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="131" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4317,125 +4226,300 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="61.44140625" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="1" max="1" width="131" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B28" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4452,13 +4536,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="97.53125" customWidth="1"/>
+    <col min="2" max="2" width="66.1328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4466,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>275</v>
       </c>
@@ -4474,7 +4558,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>276</v>
       </c>
@@ -4482,7 +4566,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>277</v>
       </c>
@@ -4490,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>278</v>
       </c>
@@ -4498,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>279</v>
       </c>
@@ -4506,7 +4590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>280</v>
       </c>
@@ -4514,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>281</v>
       </c>
@@ -4522,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>282</v>
       </c>
@@ -4530,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>283</v>
       </c>
@@ -4538,7 +4622,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>284</v>
       </c>
@@ -4546,7 +4630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>285</v>
       </c>
@@ -4554,7 +4638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>286</v>
       </c>
@@ -4562,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>287</v>
       </c>
@@ -4570,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>288</v>
       </c>
@@ -4578,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>289</v>
       </c>
@@ -4586,7 +4670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>290</v>
       </c>
@@ -4594,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>291</v>
       </c>
@@ -4602,7 +4686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>292</v>
       </c>
@@ -4610,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>293</v>
       </c>
@@ -4618,7 +4702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>294</v>
       </c>
@@ -4626,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>295</v>
       </c>
@@ -4634,7 +4718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>296</v>
       </c>
@@ -4642,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>297</v>
       </c>
@@ -4650,7 +4734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>298</v>
       </c>
@@ -4658,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>299</v>
       </c>
@@ -4666,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>300</v>
       </c>
@@ -4674,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>301</v>
       </c>
@@ -4682,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>302</v>
       </c>
@@ -4690,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>272</v>
       </c>
@@ -4698,12 +4782,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>266</v>
       </c>
@@ -4711,7 +4795,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -4719,7 +4803,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -4727,7 +4811,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>273</v>
       </c>
@@ -4735,7 +4819,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>271</v>
       </c>
@@ -4750,6 +4834,134 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="61.46484375" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -4757,14 +4969,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="74.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="74.86328125" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4775,7 +4987,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>444</v>
       </c>
@@ -4786,7 +4998,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>445</v>
       </c>
@@ -4797,7 +5009,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>272</v>
       </c>
@@ -4805,13 +5017,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>268</v>
       </c>
@@ -4819,7 +5031,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>269</v>
       </c>
@@ -4827,7 +5039,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>273</v>
       </c>
@@ -4835,7 +5047,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>271</v>
       </c>
@@ -4843,7 +5055,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10"/>
     </row>
   </sheetData>
@@ -4852,7 +5064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -4860,14 +5072,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="131.44140625" customWidth="1"/>
+    <col min="1" max="1" width="131.46484375" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4878,7 +5090,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -4889,7 +5101,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>170</v>
       </c>
@@ -4900,7 +5112,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
@@ -4911,7 +5123,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -4922,7 +5134,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>173</v>
       </c>
@@ -4933,7 +5145,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>174</v>
       </c>
@@ -4944,7 +5156,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
@@ -4955,7 +5167,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
@@ -4966,7 +5178,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
@@ -4977,7 +5189,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
@@ -4988,7 +5200,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>189</v>
       </c>
@@ -4999,7 +5211,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>192</v>
       </c>
@@ -5010,7 +5222,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
@@ -5021,7 +5233,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -5032,7 +5244,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -5043,7 +5255,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>195</v>
       </c>
@@ -5054,7 +5266,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>272</v>
       </c>
@@ -5062,13 +5274,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
@@ -5076,7 +5288,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -5084,7 +5296,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -5092,7 +5304,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>271</v>
       </c>
@@ -5105,7 +5317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5113,14 +5325,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="83.21875" customWidth="1"/>
+    <col min="1" max="1" width="83.19921875" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5131,7 +5343,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
@@ -5142,7 +5354,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>202</v>
       </c>
@@ -5153,7 +5365,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>203</v>
       </c>
@@ -5164,7 +5376,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
@@ -5175,7 +5387,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>211</v>
       </c>
@@ -5186,7 +5398,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>272</v>
       </c>
@@ -5194,13 +5406,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
@@ -5208,7 +5420,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>269</v>
       </c>
@@ -5216,7 +5428,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>273</v>
       </c>
@@ -5224,7 +5436,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -5237,7 +5449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -5245,13 +5457,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="40.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.53125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5259,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>572</v>
       </c>
@@ -5270,7 +5482,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>631</v>
       </c>
@@ -5281,7 +5493,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>632</v>
       </c>
@@ -5292,13 +5504,13 @@
         <v>574</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>633</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>577</v>
       </c>
@@ -5309,7 +5521,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>579</v>
       </c>
@@ -5320,7 +5532,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>581</v>
       </c>
@@ -5331,7 +5543,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>583</v>
       </c>
@@ -5342,7 +5554,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>585</v>
       </c>
@@ -5353,7 +5565,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>586</v>
       </c>
@@ -5364,7 +5576,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>588</v>
       </c>
@@ -5375,7 +5587,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>589</v>
       </c>
@@ -5386,7 +5598,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>590</v>
       </c>
@@ -5397,7 +5609,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>591</v>
       </c>
@@ -5408,7 +5620,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>592</v>
       </c>
@@ -5419,7 +5631,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>594</v>
       </c>
@@ -5430,7 +5642,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>596</v>
       </c>
@@ -5441,7 +5653,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>598</v>
       </c>
@@ -5452,7 +5664,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>599</v>
       </c>
@@ -5469,7 +5681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -5477,13 +5689,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="83.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="62.1328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5491,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>323</v>
       </c>
@@ -5499,7 +5711,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>324</v>
       </c>
@@ -5507,7 +5719,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>325</v>
       </c>
@@ -5515,7 +5727,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>326</v>
       </c>
@@ -5523,7 +5735,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>327</v>
       </c>
@@ -5531,7 +5743,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>328</v>
       </c>
@@ -5539,7 +5751,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>329</v>
       </c>
@@ -5547,7 +5759,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>330</v>
       </c>
@@ -5555,7 +5767,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>331</v>
       </c>
@@ -5563,7 +5775,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>514</v>
       </c>
@@ -5571,7 +5783,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>515</v>
       </c>
@@ -5579,7 +5791,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>516</v>
       </c>
@@ -5587,7 +5799,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>517</v>
       </c>
@@ -5595,7 +5807,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>518</v>
       </c>
@@ -5603,7 +5815,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>519</v>
       </c>
@@ -5611,7 +5823,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>332</v>
       </c>
@@ -5619,7 +5831,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>333</v>
       </c>
@@ -5627,7 +5839,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>390</v>
       </c>
@@ -5635,7 +5847,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>391</v>
       </c>
@@ -5643,7 +5855,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>392</v>
       </c>
@@ -5651,7 +5863,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>393</v>
       </c>
@@ -5659,7 +5871,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>272</v>
       </c>
@@ -5667,13 +5879,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>266</v>
       </c>
@@ -5681,7 +5893,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>268</v>
       </c>
@@ -5689,7 +5901,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>269</v>
       </c>
@@ -5697,7 +5909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
         <v>273</v>
       </c>
@@ -5705,7 +5917,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>271</v>
       </c>
@@ -5719,7 +5931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5727,14 +5939,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="99.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5745,7 +5957,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>443</v>
       </c>
@@ -5756,7 +5968,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>334</v>
       </c>
@@ -5767,7 +5979,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>335</v>
       </c>
@@ -5778,7 +5990,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>336</v>
       </c>
@@ -5789,7 +6001,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>337</v>
       </c>
@@ -5800,7 +6012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>338</v>
       </c>
@@ -5811,7 +6023,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>339</v>
       </c>
@@ -5822,7 +6034,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>340</v>
       </c>
@@ -5833,7 +6045,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>341</v>
       </c>
@@ -5844,7 +6056,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>342</v>
       </c>
@@ -5855,7 +6067,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>343</v>
       </c>
@@ -5866,7 +6078,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>349</v>
       </c>
@@ -5877,7 +6089,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>345</v>
       </c>
@@ -5888,7 +6100,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>348</v>
       </c>
@@ -5899,7 +6111,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>346</v>
       </c>
@@ -5910,7 +6122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>347</v>
       </c>
@@ -5921,7 +6133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>272</v>
       </c>
@@ -5929,12 +6141,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
@@ -5942,7 +6154,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -5950,7 +6162,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -5958,7 +6170,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>271</v>
       </c>
@@ -5971,7 +6183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5979,14 +6191,14 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="85.86328125" style="5" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5997,7 +6209,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>350</v>
       </c>
@@ -6008,7 +6220,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>351</v>
       </c>
@@ -6019,7 +6231,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>352</v>
       </c>
@@ -6030,7 +6242,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>353</v>
       </c>
@@ -6041,7 +6253,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>354</v>
       </c>
@@ -6052,7 +6264,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>355</v>
       </c>
@@ -6063,7 +6275,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>356</v>
       </c>
@@ -6074,7 +6286,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>357</v>
       </c>
@@ -6085,7 +6297,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>358</v>
       </c>
@@ -6096,7 +6308,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>359</v>
       </c>
@@ -6107,7 +6319,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>360</v>
       </c>
@@ -6118,7 +6330,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>488</v>
       </c>
@@ -6129,7 +6341,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>361</v>
       </c>
@@ -6140,7 +6352,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>362</v>
       </c>
@@ -6151,7 +6363,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>363</v>
       </c>
@@ -6162,7 +6374,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>364</v>
       </c>
@@ -6173,7 +6385,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>272</v>
       </c>
@@ -6181,13 +6393,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
@@ -6195,7 +6407,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -6203,7 +6415,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -6211,7 +6423,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>271</v>
       </c>
@@ -6224,7 +6436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -6232,14 +6444,14 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="78.86328125" style="5" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6250,7 +6462,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>365</v>
       </c>
@@ -6261,7 +6473,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>366</v>
       </c>
@@ -6272,7 +6484,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>367</v>
       </c>
@@ -6283,7 +6495,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>368</v>
       </c>
@@ -6294,7 +6506,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>369</v>
       </c>
@@ -6305,7 +6517,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>370</v>
       </c>
@@ -6316,7 +6528,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>371</v>
       </c>
@@ -6327,7 +6539,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>372</v>
       </c>
@@ -6338,7 +6550,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>373</v>
       </c>
@@ -6349,7 +6561,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>374</v>
       </c>
@@ -6360,7 +6572,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>375</v>
       </c>
@@ -6371,7 +6583,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>344</v>
       </c>
@@ -6382,7 +6594,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>376</v>
       </c>
@@ -6393,7 +6605,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>377</v>
       </c>
@@ -6404,7 +6616,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>378</v>
       </c>
@@ -6415,7 +6627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>379</v>
       </c>
@@ -6426,7 +6638,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>272</v>
       </c>
@@ -6434,13 +6646,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
@@ -6448,7 +6660,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -6456,7 +6668,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -6464,7 +6676,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>271</v>
       </c>
@@ -6477,7 +6689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -6485,14 +6697,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6503,7 +6715,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>610</v>
       </c>
@@ -6514,7 +6726,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>612</v>
       </c>
@@ -6525,7 +6737,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>613</v>
       </c>
@@ -6536,7 +6748,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>623</v>
       </c>
@@ -6547,7 +6759,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>624</v>
       </c>
@@ -6558,7 +6770,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>615</v>
       </c>
@@ -6569,7 +6781,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>617</v>
       </c>
@@ -6580,7 +6792,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>618</v>
       </c>
@@ -6591,7 +6803,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>619</v>
       </c>
@@ -6602,7 +6814,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>620</v>
       </c>
@@ -6611,119 +6823,6 @@
       </c>
       <c r="C11" t="s">
         <v>546</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="84.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6739,13 +6838,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.77734375" customWidth="1"/>
+    <col min="1" max="1" width="82.46484375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6753,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>303</v>
       </c>
@@ -6761,7 +6860,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>304</v>
       </c>
@@ -6769,7 +6868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
@@ -6777,7 +6876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>306</v>
       </c>
@@ -6785,7 +6884,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>307</v>
       </c>
@@ -6793,7 +6892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>308</v>
       </c>
@@ -6801,7 +6900,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>309</v>
       </c>
@@ -6809,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>310</v>
       </c>
@@ -6817,7 +6916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>311</v>
       </c>
@@ -6825,7 +6924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>272</v>
       </c>
@@ -6833,12 +6932,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>266</v>
       </c>
@@ -6846,7 +6945,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>268</v>
       </c>
@@ -6854,7 +6953,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>269</v>
       </c>
@@ -6862,7 +6961,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>273</v>
       </c>
@@ -6870,7 +6969,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>271</v>
       </c>
@@ -6878,7 +6977,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>314</v>
       </c>
@@ -6892,6 +6991,119 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="84.1328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -6899,13 +7111,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="53.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6913,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>434</v>
       </c>
@@ -6921,7 +7133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>435</v>
       </c>
@@ -6929,7 +7141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>436</v>
       </c>
@@ -6937,7 +7149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>437</v>
       </c>
@@ -6945,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>438</v>
       </c>
@@ -6953,7 +7165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>439</v>
       </c>
@@ -6961,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>440</v>
       </c>
@@ -6969,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>441</v>
       </c>
@@ -6977,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>272</v>
       </c>
@@ -6985,13 +7197,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>266</v>
       </c>
@@ -6999,7 +7211,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>268</v>
       </c>
@@ -7007,7 +7219,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>269</v>
       </c>
@@ -7015,7 +7227,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>273</v>
       </c>
@@ -7023,7 +7235,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>271</v>
       </c>
@@ -7036,21 +7248,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.46484375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7058,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>490</v>
       </c>
@@ -7066,7 +7278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>491</v>
       </c>
@@ -7074,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>492</v>
       </c>
@@ -7082,7 +7294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>493</v>
       </c>
@@ -7090,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>272</v>
       </c>
@@ -7098,13 +7310,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>266</v>
       </c>
@@ -7112,7 +7324,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
@@ -7120,7 +7332,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>269</v>
       </c>
@@ -7128,7 +7340,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>273</v>
       </c>
@@ -7136,7 +7348,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -7150,7 +7362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7158,14 +7370,14 @@
       <selection activeCell="K17" sqref="K16:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.53125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7176,7 +7388,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>496</v>
       </c>
@@ -7187,7 +7399,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>442</v>
       </c>
@@ -7198,7 +7410,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>272</v>
       </c>
@@ -7209,13 +7421,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>268</v>
       </c>
@@ -7223,7 +7435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>269</v>
       </c>
@@ -7231,7 +7443,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>273</v>
       </c>
@@ -7239,7 +7451,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>271</v>
       </c>
@@ -7252,7 +7464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -7260,13 +7472,13 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="61.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="61.86328125" customWidth="1"/>
+    <col min="2" max="2" width="37.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7274,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>498</v>
       </c>
@@ -7282,7 +7494,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>499</v>
       </c>
@@ -7290,7 +7502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>500</v>
       </c>
@@ -7298,7 +7510,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>501</v>
       </c>
@@ -7306,7 +7518,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>502</v>
       </c>
@@ -7314,7 +7526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>503</v>
       </c>
@@ -7322,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>504</v>
       </c>
@@ -7330,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>505</v>
       </c>
@@ -7338,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>272</v>
       </c>
@@ -7346,13 +7558,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>268</v>
       </c>
@@ -7360,7 +7572,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>269</v>
       </c>
@@ -7368,7 +7580,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>273</v>
       </c>
@@ -7376,7 +7588,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>271</v>
       </c>
@@ -7389,7 +7601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7397,13 +7609,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="28.19921875" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7411,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>507</v>
       </c>
@@ -7419,7 +7631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>508</v>
       </c>
@@ -7427,7 +7639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>509</v>
       </c>
@@ -7435,7 +7647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>510</v>
       </c>
@@ -7443,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>511</v>
       </c>
@@ -7451,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>512</v>
       </c>
@@ -7459,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>513</v>
       </c>
@@ -7467,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
@@ -7475,7 +7687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>269</v>
       </c>
@@ -7483,7 +7695,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>273</v>
       </c>
@@ -7491,7 +7703,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -7504,7 +7716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A321CDB-4432-42F8-8542-C3389F944EAE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7512,14 +7724,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7530,7 +7742,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>643</v>
       </c>
@@ -7541,7 +7753,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>547</v>
       </c>
@@ -7552,7 +7764,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>548</v>
       </c>
@@ -7563,7 +7775,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>549</v>
       </c>
@@ -7574,7 +7786,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>550</v>
       </c>
@@ -7585,7 +7797,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>551</v>
       </c>
@@ -7596,7 +7808,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>552</v>
       </c>
@@ -7607,7 +7819,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>635</v>
       </c>
@@ -7628,14 +7840,14 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="97.77734375" customWidth="1"/>
-    <col min="2" max="2" width="93.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="97.796875" customWidth="1"/>
+    <col min="2" max="2" width="93.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7643,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>559</v>
       </c>
@@ -7651,7 +7863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>560</v>
       </c>
@@ -7659,7 +7871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>561</v>
       </c>
@@ -7667,7 +7879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>562</v>
       </c>
@@ -7675,7 +7887,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>568</v>
       </c>
@@ -7683,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>563</v>
       </c>
@@ -7691,7 +7903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>564</v>
       </c>
@@ -7699,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>565</v>
       </c>
@@ -7707,7 +7919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>566</v>
       </c>
@@ -7715,7 +7927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>272</v>
       </c>
@@ -7723,12 +7935,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>266</v>
       </c>
@@ -7736,7 +7948,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>268</v>
       </c>
@@ -7744,7 +7956,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>269</v>
       </c>
@@ -7752,7 +7964,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>273</v>
       </c>
@@ -7760,7 +7972,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>271</v>
       </c>
@@ -7768,7 +7980,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>314</v>
       </c>
@@ -7789,13 +8001,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="78.33203125" customWidth="1"/>
     <col min="2" max="2" width="72.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7803,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -7811,7 +8023,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>237</v>
       </c>
@@ -7819,7 +8031,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>239</v>
       </c>
@@ -7827,7 +8039,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>241</v>
       </c>
@@ -7835,7 +8047,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>315</v>
       </c>
@@ -7843,7 +8055,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>243</v>
       </c>
@@ -7851,7 +8063,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>245</v>
       </c>
@@ -7859,7 +8071,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>246</v>
       </c>
@@ -7867,7 +8079,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>247</v>
       </c>
@@ -7875,7 +8087,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>249</v>
       </c>
@@ -7883,7 +8095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>251</v>
       </c>
@@ -7891,7 +8103,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>253</v>
       </c>
@@ -7899,7 +8111,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
@@ -7907,7 +8119,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>257</v>
       </c>
@@ -7915,7 +8127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>259</v>
       </c>
@@ -7923,7 +8135,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>261</v>
       </c>
@@ -7931,7 +8143,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>262</v>
       </c>
@@ -7939,7 +8151,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>264</v>
       </c>
@@ -7947,7 +8159,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>272</v>
       </c>
@@ -7955,7 +8167,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>267</v>
       </c>
@@ -7963,7 +8175,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>266</v>
       </c>
@@ -7971,7 +8183,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>268</v>
       </c>
@@ -7979,7 +8191,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>269</v>
       </c>
@@ -7987,7 +8199,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>273</v>
       </c>
@@ -7995,7 +8207,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>271</v>
       </c>
@@ -8013,18 +8225,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.796875" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8035,7 +8247,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>532</v>
       </c>
@@ -8046,7 +8258,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>533</v>
       </c>
@@ -8057,7 +8269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>534</v>
       </c>
@@ -8068,7 +8280,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>535</v>
       </c>
@@ -8079,7 +8291,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>525</v>
       </c>
@@ -8090,7 +8302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>526</v>
       </c>
@@ -8101,7 +8313,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>527</v>
       </c>
@@ -8112,7 +8324,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>528</v>
       </c>
@@ -8123,7 +8335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>529</v>
       </c>
@@ -8134,7 +8346,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>530</v>
       </c>
@@ -8145,7 +8357,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>531</v>
       </c>
@@ -8156,7 +8368,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>554</v>
       </c>
@@ -8167,7 +8379,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>272</v>
       </c>
@@ -8175,12 +8387,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>266</v>
       </c>
@@ -8188,7 +8400,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
@@ -8196,7 +8408,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -8204,7 +8416,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -8212,7 +8424,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -8234,13 +8446,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.86328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8248,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>536</v>
       </c>
@@ -8256,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>537</v>
       </c>
@@ -8264,7 +8476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>538</v>
       </c>
@@ -8272,7 +8484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>553</v>
       </c>
@@ -8280,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>539</v>
       </c>
@@ -8288,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>540</v>
       </c>
@@ -8296,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>541</v>
       </c>
@@ -8304,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>542</v>
       </c>
@@ -8312,7 +8524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>543</v>
       </c>
@@ -8320,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>544</v>
       </c>
@@ -8328,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>545</v>
       </c>
@@ -8336,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>272</v>
       </c>
@@ -8344,13 +8556,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>266</v>
       </c>
@@ -8358,7 +8570,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>268</v>
       </c>
@@ -8366,7 +8578,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>269</v>
       </c>
@@ -8374,7 +8586,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>273</v>
       </c>
@@ -8382,7 +8594,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>271</v>
       </c>
@@ -8399,17 +8611,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="81.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.53125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8417,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8425,7 +8637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8433,7 +8645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8441,7 +8653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -8449,7 +8661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -8457,7 +8669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -8465,7 +8677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -8473,7 +8685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -8481,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -8489,7 +8701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -8497,7 +8709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -8505,7 +8717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -8513,7 +8725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -8521,7 +8733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -8529,7 +8741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -8537,7 +8749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -8545,7 +8757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -8553,7 +8765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -8561,7 +8773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -8569,7 +8781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>272</v>
       </c>
@@ -8577,7 +8789,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>267</v>
       </c>
@@ -8585,7 +8797,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>266</v>
       </c>
@@ -8600,166 +8812,124 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8EC24-050E-45A2-BA78-4310BE4389C1}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="58.88671875" style="5"/>
+    <col min="1" max="1" width="55.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B2">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>659</v>
+      </c>
+      <c r="B13" t="s">
+        <v>660</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B74778-CF9E-404E-A7B9-82B8649174E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3286C89-CC0B-442F-9632-EDC3D5FEA4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="938" windowWidth="16200" windowHeight="9982" tabRatio="922" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="High School Units_Required" sheetId="29" r:id="rId6"/>
     <sheet name="High School Units_Recommended" sheetId="28" r:id="rId7"/>
     <sheet name="Basis For Selection" sheetId="1" r:id="rId8"/>
-    <sheet name="Admission" sheetId="37" r:id="rId9"/>
-    <sheet name="Admission Policies" sheetId="9" r:id="rId10"/>
+    <sheet name="Admission_general" sheetId="37" r:id="rId9"/>
+    <sheet name="Admission_Policies" sheetId="9" r:id="rId10"/>
     <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId11"/>
     <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId12"/>
     <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId13"/>
@@ -1778,9 +1778,6 @@
     <t>How many degree-seeking first-time first-year students of unknown race are enrolled?</t>
   </si>
   <si>
-    <t>The number of degree-seeking first-time first-year  (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>How many degree-seeking first-time first-year american indians are enrolled?</t>
   </si>
   <si>
@@ -2059,6 +2056,9 @@
   </si>
   <si>
     <t>Require</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time first-year  (xor [race] {nonresident alien}) students enrolled is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2437,18 +2437,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.1328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>419</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>451</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>421</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>420</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>422</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>423</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>424</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>458</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>425</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>426</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>427</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>428</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>429</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>272</v>
       </c>
@@ -2610,12 +2610,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -2656,16 +2656,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="58.86328125" style="5"/>
+    <col min="1" max="16384" width="58.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>212</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>214</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>216</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>218</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>220</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>222</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>224</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>226</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>228</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>230</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>232</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>272</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>267</v>
       </c>
@@ -2825,13 +2825,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.19921875" customWidth="1"/>
-    <col min="2" max="2" width="67.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="95.21875" customWidth="1"/>
+    <col min="2" max="2" width="67.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
@@ -2895,20 +2895,20 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>268</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>269</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -2953,13 +2953,13 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="114.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.86328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="114.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>272</v>
       </c>
@@ -3071,21 +3071,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -3134,13 +3134,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75" style="5" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>84</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>87</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>92</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>95</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
@@ -3204,20 +3204,20 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>268</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>269</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -3258,17 +3258,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="91.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>210</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>272</v>
       </c>
@@ -3380,21 +3380,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
@@ -3402,10 +3402,10 @@
         <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -3440,16 +3440,16 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>468</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>469</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>466</v>
       </c>
@@ -3481,15 +3481,15 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>467</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>272</v>
       </c>
@@ -3497,20 +3497,20 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>266</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>268</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>269</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>273</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>271</v>
       </c>
@@ -3556,14 +3556,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.19921875" customWidth="1"/>
-    <col min="2" max="2" width="85.86328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="1" max="1" width="81.21875" customWidth="1"/>
+    <col min="2" max="2" width="85.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3707,15 +3707,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>272</v>
       </c>
@@ -3835,21 +3835,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>268</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>269</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>273</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>271</v>
       </c>
@@ -3895,14 +3895,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.796875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
+    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3913,9 +3913,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -3924,7 +3924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>470</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>471</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>472</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>473</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>474</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>475</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>476</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>477</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>478</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>479</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>272</v>
       </c>
@@ -4042,21 +4042,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>268</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>269</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>273</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>271</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
     </row>
   </sheetData>
@@ -4105,13 +4105,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.1328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.53125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="70.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>480</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>481</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>482</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>483</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>484</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>485</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
@@ -4175,20 +4175,20 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>266</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>268</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>269</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>273</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>271</v>
       </c>
@@ -4231,14 +4231,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="131" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>127</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>135</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>152</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>136</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>137</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>138</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>139</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>140</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>141</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>523</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>524</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>142</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>143</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>144</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>145</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>164</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>165</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>272</v>
       </c>
@@ -4485,13 +4485,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>268</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>269</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>273</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>271</v>
       </c>
@@ -4532,17 +4532,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97.53125" customWidth="1"/>
-    <col min="2" max="2" width="66.1328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="97.5546875" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>275</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>276</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>277</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>278</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>279</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>280</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>281</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>282</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>283</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>284</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>285</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>286</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>287</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>288</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>289</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>290</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>291</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>292</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>293</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>294</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>295</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>296</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>297</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>298</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>299</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>300</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>301</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>302</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>272</v>
       </c>
@@ -4782,12 +4782,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>266</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>273</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>271</v>
       </c>
@@ -4841,13 +4841,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.46484375" customWidth="1"/>
+    <col min="1" max="1" width="61.44140625" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>130</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>131</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>132</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>133</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>134</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
@@ -4911,12 +4911,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>266</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>268</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>269</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -4969,14 +4969,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.86328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="74.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="171" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>444</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>445</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>272</v>
       </c>
@@ -5017,13 +5017,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>268</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>269</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>273</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>271</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10"/>
     </row>
   </sheetData>
@@ -5072,14 +5072,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="131.46484375" customWidth="1"/>
+    <col min="1" max="1" width="131.44140625" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>170</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>173</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>174</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>189</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>192</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>195</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>272</v>
       </c>
@@ -5274,13 +5274,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>271</v>
       </c>
@@ -5325,14 +5325,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.19921875" customWidth="1"/>
+    <col min="1" max="1" width="83.21875" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.46484375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>202</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>203</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>211</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>272</v>
       </c>
@@ -5406,13 +5406,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>269</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>273</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -5457,13 +5457,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.19921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.53125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5471,208 +5471,208 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B3" s="6">
         <v>45017</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>590</v>
       </c>
       <c r="B14" s="6">
         <v>1500</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B15" s="6">
         <v>1500</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>600</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5689,13 +5689,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="62.1328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>323</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>324</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>325</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>326</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>327</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>328</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>329</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>330</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>331</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>514</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>515</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>516</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>517</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>518</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>519</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>332</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>333</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>390</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>391</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>392</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>393</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>272</v>
       </c>
@@ -5879,21 +5879,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>268</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>269</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>273</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>271</v>
       </c>
@@ -5939,14 +5939,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="99.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="67.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>443</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>334</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>335</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>336</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>337</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>338</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>339</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>340</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>341</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>342</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>343</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>349</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>345</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>348</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>346</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>347</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>272</v>
       </c>
@@ -6141,12 +6141,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>271</v>
       </c>
@@ -6191,14 +6191,14 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.86328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="85.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>350</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>351</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>352</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>353</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>354</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>355</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>356</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>357</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>358</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>359</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>360</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>488</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>361</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>362</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>363</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>364</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>272</v>
       </c>
@@ -6393,13 +6393,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>271</v>
       </c>
@@ -6444,14 +6444,14 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.86328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>365</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>366</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>367</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>368</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>369</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>370</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>371</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>372</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>373</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>374</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>375</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>344</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>376</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>377</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>378</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>379</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>272</v>
       </c>
@@ -6646,13 +6646,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>271</v>
       </c>
@@ -6697,14 +6697,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.46484375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6715,111 +6715,111 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="C7" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C8" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C9" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C10" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C11" t="s">
         <v>546</v>
@@ -6835,16 +6835,16 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.46484375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.796875" customWidth="1"/>
+    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>303</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>304</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>306</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>307</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>308</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>309</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>310</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>311</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>272</v>
       </c>
@@ -6932,12 +6932,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>266</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>268</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>269</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>273</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>271</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>314</v>
       </c>
@@ -6998,13 +6998,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.1328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.46484375" customWidth="1"/>
+    <col min="1" max="1" width="84.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>430</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>431</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>432</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>433</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>272</v>
       </c>
@@ -7052,21 +7052,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>269</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>273</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -7111,13 +7111,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>434</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>435</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>436</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>437</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>438</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>439</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>440</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>441</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>272</v>
       </c>
@@ -7197,13 +7197,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>266</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>268</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>269</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>273</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>271</v>
       </c>
@@ -7256,13 +7256,13 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.46484375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.53125" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>490</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>491</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>492</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>493</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>272</v>
       </c>
@@ -7310,13 +7310,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>266</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>269</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>273</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -7370,14 +7370,14 @@
       <selection activeCell="K17" sqref="K16:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.53125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.86328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>496</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>442</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>272</v>
       </c>
@@ -7421,13 +7421,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>268</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>269</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>273</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>271</v>
       </c>
@@ -7472,13 +7472,13 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.86328125" customWidth="1"/>
-    <col min="2" max="2" width="37.86328125" customWidth="1"/>
+    <col min="1" max="1" width="61.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>498</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>499</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>500</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>501</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>502</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>503</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>504</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>505</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>272</v>
       </c>
@@ -7558,13 +7558,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>268</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>269</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>273</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>271</v>
       </c>
@@ -7609,13 +7609,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>507</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>508</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>509</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>510</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>511</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>512</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>513</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>269</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>273</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>271</v>
       </c>
@@ -7724,14 +7724,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.53125" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7742,89 +7742,89 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>549</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>550</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>551</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>552</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -7837,17 +7837,17 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97.796875" customWidth="1"/>
-    <col min="2" max="2" width="93.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" customWidth="1"/>
+    <col min="1" max="1" width="97.77734375" customWidth="1"/>
+    <col min="2" max="2" width="93.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>559</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>560</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>561</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>562</v>
       </c>
@@ -7887,15 +7887,15 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>563</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>564</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>565</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>566</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>272</v>
       </c>
@@ -7935,20 +7935,20 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>268</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>269</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>273</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>271</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>314</v>
       </c>
@@ -7997,17 +7997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.33203125" customWidth="1"/>
     <col min="2" max="2" width="72.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>237</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>239</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>241</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>315</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>243</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>245</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>246</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>247</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>249</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>251</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>253</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>257</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>259</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>261</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>262</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>264</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>272</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>267</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>266</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>268</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>269</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>273</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>271</v>
       </c>
@@ -8225,18 +8225,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>532</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>533</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>534</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>535</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>525</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>526</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>527</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>528</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>529</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>530</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>531</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>554</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>272</v>
       </c>
@@ -8387,12 +8387,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>266</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>268</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>269</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>273</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>271</v>
       </c>
@@ -8446,13 +8446,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.86328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>536</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>537</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>538</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>553</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>539</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>540</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>541</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>542</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>543</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>544</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>545</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>272</v>
       </c>
@@ -8556,13 +8556,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>266</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>268</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>269</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>273</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>271</v>
       </c>
@@ -8615,13 +8615,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.53125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>272</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>267</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>266</v>
       </c>
@@ -8815,121 +8815,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8EC24-050E-45A2-BA78-4310BE4389C1}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="145.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="145.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>646</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>645</v>
       </c>
       <c r="B2">
         <v>3338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>647</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>648</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>647</v>
       </c>
       <c r="B4" s="13">
         <v>2502</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>649</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>648</v>
       </c>
       <c r="B5">
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>650</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>649</v>
       </c>
       <c r="B6">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>651</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>650</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>652</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>651</v>
       </c>
       <c r="B8">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>653</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>652</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B10" t="s">
         <v>654</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>657</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>659</v>
-      </c>
-      <c r="B13" t="s">
-        <v>660</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3286C89-CC0B-442F-9632-EDC3D5FEA4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B876C38-2B79-40ED-98B2-46A895C7B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -18,37 +18,40 @@
     <sheet name="Enrollment_Race Undergraduate" sheetId="16" r:id="rId3"/>
     <sheet name="Enrollment_Race First time year" sheetId="13" r:id="rId4"/>
     <sheet name="Cohort" sheetId="10" r:id="rId5"/>
-    <sheet name="High School Units_Required" sheetId="29" r:id="rId6"/>
-    <sheet name="High School Units_Recommended" sheetId="28" r:id="rId7"/>
-    <sheet name="Basis For Selection" sheetId="1" r:id="rId8"/>
-    <sheet name="Admission_general" sheetId="37" r:id="rId9"/>
-    <sheet name="Admission_Policies" sheetId="9" r:id="rId10"/>
-    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId11"/>
-    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId12"/>
-    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId13"/>
-    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId14"/>
-    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId15"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId16"/>
-    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId17"/>
-    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId18"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId19"/>
-    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId20"/>
-    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId21"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId22"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId23"/>
-    <sheet name="Annual Expense" sheetId="35" r:id="rId24"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId25"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId26"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId27"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId28"/>
-    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId29"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId30"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId31"/>
-    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId32"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId33"/>
-    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId34"/>
-    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId35"/>
-    <sheet name="Degree Conferred" sheetId="33" r:id="rId36"/>
+    <sheet name="Basis For Selection" sheetId="1" r:id="rId6"/>
+    <sheet name="Admission_Applied" sheetId="40" r:id="rId7"/>
+    <sheet name="Admission_Admitted" sheetId="39" r:id="rId8"/>
+    <sheet name="Admission_Enrolled" sheetId="37" r:id="rId9"/>
+    <sheet name="Admission_Condition" sheetId="38" r:id="rId10"/>
+    <sheet name="Admission_High School Required" sheetId="29" r:id="rId11"/>
+    <sheet name="Admission_High School Recommend" sheetId="28" r:id="rId12"/>
+    <sheet name="Admission_Policies" sheetId="9" r:id="rId13"/>
+    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId14"/>
+    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId15"/>
+    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId16"/>
+    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId17"/>
+    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId18"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId19"/>
+    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId20"/>
+    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId21"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId22"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId23"/>
+    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId24"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId25"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId26"/>
+    <sheet name="Annual Expense" sheetId="35" r:id="rId27"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId28"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId29"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId30"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId31"/>
+    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId32"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId33"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId34"/>
+    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId35"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId36"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId37"/>
+    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId38"/>
+    <sheet name="Degree Conferred" sheetId="33" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="678">
   <si>
     <t>Answer</t>
   </si>
@@ -134,27 +137,6 @@
   </si>
   <si>
     <t>What is the importance of the level of applicant’s interest in admission decisions?</t>
-  </si>
-  <si>
-    <t>considered</t>
-  </si>
-  <si>
-    <t>very important</t>
-  </si>
-  <si>
-    <t xml:space="preserve">considerd    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">very important  </t>
-  </si>
-  <si>
-    <t>considerd</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>not considerd</t>
   </si>
   <si>
     <t>What is the 25th percentile score for ACT composite</t>
@@ -1745,12 +1727,6 @@
     <t>No other additional units are required for admission</t>
   </si>
   <si>
-    <t>The number of [subject] units required to be taken by students during high school for admission to Rose-Hulman  is &lt;value&gt;</t>
-  </si>
-  <si>
-    <t>The number of [subject] units recommended to be taken by students during high school for admission to Rose-Hulman  is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate students are enrolled?</t>
   </si>
   <si>
@@ -2019,12 +1995,6 @@
     <t>Total first-time, first-year (freshman) women who applied</t>
   </si>
   <si>
-    <t>Total first-time, first-year (freshman) men who were admitted</t>
-  </si>
-  <si>
-    <t>Total first-time, first-year (freshman) women who were admitted</t>
-  </si>
-  <si>
     <t>Total full-time, first-time, first-year (freshman) men who enrolled</t>
   </si>
   <si>
@@ -2040,9 +2010,6 @@
     <t>Do you have a policy of placing students on a waiting list?</t>
   </si>
   <si>
-    <t>yes, the number of qualified applicants offered a place on waiting list is 119, the number of accepting a place on the waiting list is 43, the number of wait-listed students admitted 14</t>
-  </si>
-  <si>
     <t>Is your waiting list ranked?</t>
   </si>
   <si>
@@ -2055,10 +2022,97 @@
     <t>Does your institution require or recommend a general college-preparatory program for degree-seeking students?</t>
   </si>
   <si>
-    <t>Require</t>
-  </si>
-  <si>
     <t>The number of degree-seeking first-time first-year  (xor [race] {nonresident alien}) students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>A general college-preparatory program for degree-seeking students is required</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's waitlist is not ranked</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of [enrollment_status] first-time, first-year [gender] freshman who enrolled at Rose-Hulman is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of first-time, first-year [gender] freshmen who were admitted to Rose-Hulman is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of first-time, first-year [gender] freshmen who applied to Rose-Hulman is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t>Rose-Hulman have a policu of placing student on the waiting list. The number of qualified applicants offered a place on waiting list is 119, the number of accepting a place on the waiting list is 43, the number of wait-listed students admitted 14</t>
+  </si>
+  <si>
+    <t>The number of [^subject] units recommended to be taken by students during high school for admission to Rose-Hulman  is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The number of [^subject] units required to be taken by students during high school for admission to Rose-Hulman  is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Rigor of secondary school record is very important in admission decisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class rank is important in admission decisions </t>
+  </si>
+  <si>
+    <t>Academic gpa is very important  in admission decisions.</t>
+  </si>
+  <si>
+    <t>Standardized test score is not as important but considered in admission decisions</t>
+  </si>
+  <si>
+    <t>Recommendation letters is important in admission decisions.</t>
+  </si>
+  <si>
+    <t>Application essay is considered in admission decisions.</t>
+  </si>
+  <si>
+    <t>Interviews are considered in admission decisions</t>
+  </si>
+  <si>
+    <t>Extracirricular activities are considered in admission decisions</t>
+  </si>
+  <si>
+    <t>Talent/ability of the applicant is considered in admission decisions</t>
+  </si>
+  <si>
+    <t>Character or personal qualities is considered in admission decisions</t>
+  </si>
+  <si>
+    <t>The applicant being a first generation student is considered in admission decisions</t>
+  </si>
+  <si>
+    <t>Alumni/ae relation is considered in admission decisions.</t>
+  </si>
+  <si>
+    <t>Geographical residence is considered in admission decisions.</t>
+  </si>
+  <si>
+    <t>State residency is not considered in admission decisions.</t>
+  </si>
+  <si>
+    <t>Religious affiliation and commitment is not considerd in admission decisions.</t>
+  </si>
+  <si>
+    <t>Racial/ethnic status is considered in admission decisions.</t>
+  </si>
+  <si>
+    <t>Volunteer work is considered in admission decisions</t>
+  </si>
+  <si>
+    <t>Work experience is considered in admission decisions.</t>
+  </si>
+  <si>
+    <t>The level of applicant's interest is considered in admission decisions.</t>
+  </si>
+  <si>
+    <t>What is the total first-time, first-year (freshman) male who were admitted</t>
+  </si>
+  <si>
+    <t>What is the total first-time, first-year (freshman)  female who were admitted</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2207,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2437,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,195 +2512,195 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2653,11 +2709,472 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3551768-8BC9-4E69-8C86-830DF8B3DA69}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2673,141 +3190,141 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B14" s="6"/>
     </row>
@@ -2817,7 +3334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2841,103 +3358,103 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -2969,152 +3486,152 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3150,103 +3667,103 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3254,7 +3771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -3278,155 +3795,155 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3435,7 +3952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6B56-71DD-4A78-89DB-D3F23672C01B}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -3459,23 +3976,23 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -3483,63 +4000,63 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +4065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -3573,7 +4090,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4">
         <v>1270</v>
@@ -3581,7 +4098,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>610</v>
@@ -3589,7 +4106,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
         <v>650</v>
@@ -3597,15 +4114,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4">
         <v>1355</v>
@@ -3613,7 +4130,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4">
         <v>650</v>
@@ -3621,7 +4138,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4">
         <v>700</v>
@@ -3629,15 +4146,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4">
         <v>1440</v>
@@ -3645,7 +4162,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4">
         <v>700</v>
@@ -3653,7 +4170,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4">
         <v>760</v>
@@ -3661,7 +4178,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
         <v>1352</v>
@@ -3669,7 +4186,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4">
         <v>1352</v>
@@ -3677,7 +4194,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4">
         <v>652</v>
@@ -3685,7 +4202,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4">
         <v>700</v>
@@ -3693,15 +4210,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4">
         <v>27</v>
@@ -3709,15 +4226,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4">
         <v>26</v>
@@ -3725,15 +4242,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4">
         <v>31</v>
@@ -3741,7 +4258,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4">
         <v>31</v>
@@ -3749,7 +4266,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4">
         <v>31.5</v>
@@ -3757,15 +4274,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4">
         <v>33</v>
@@ -3773,7 +4290,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4">
         <v>34</v>
@@ -3781,7 +4298,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4">
         <v>35</v>
@@ -3789,15 +4306,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4">
         <v>30</v>
@@ -3805,7 +4322,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4">
         <v>30</v>
@@ -3813,7 +4330,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B32" s="4">
         <v>30</v>
@@ -3821,64 +4338,64 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +4404,312 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="97.5546875" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -3910,182 +4732,182 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4097,7 +4919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBFCBD-BE53-4EBE-BC28-AF1024B4BD2D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -4121,103 +4943,103 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +5047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -4246,281 +5068,281 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4528,312 +5350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="5">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="5">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="5">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -4857,7 +5374,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -4865,7 +5382,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -4873,7 +5390,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -4881,7 +5398,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -4889,7 +5406,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -4897,7 +5414,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -4905,55 +5422,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4961,7 +5478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -4984,75 +5501,75 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5064,7 +5581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5087,229 +5604,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5317,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5340,108 +5857,108 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5449,12 +5966,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5473,206 +5990,206 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B3" s="6">
         <v>45017</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B14" s="6">
         <v>1500</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B15" s="6">
         <v>1500</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5681,7 +6198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -5705,224 +6222,224 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5931,7 +6448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5954,228 +6471,228 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B2" s="6">
         <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B3" s="6">
         <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B4" s="6">
         <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B5" s="6">
         <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B6" s="6">
         <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B7" s="6">
         <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B8" s="6">
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6183,7 +6700,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -6206,229 +6884,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B3" s="4">
         <v>1151</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B4" s="4">
         <v>1150</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B5" s="4">
         <v>1144</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B6" s="4">
         <v>829</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B7" s="4">
         <v>1009</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B8" s="4">
         <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6436,7 +7114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -6459,229 +7137,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6689,7 +7367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -6712,117 +7390,117 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>620</v>
-      </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>621</v>
-      </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>625</v>
-      </c>
       <c r="C8" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>627</v>
-      </c>
       <c r="C10" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C11" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -6830,167 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" t="s">
-        <v>558</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7014,7 +7532,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -7022,7 +7540,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7030,7 +7548,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B4">
         <v>137</v>
@@ -7038,7 +7556,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7046,56 +7564,56 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7103,7 +7621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -7127,7 +7645,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B2">
         <v>182</v>
@@ -7135,7 +7653,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7143,7 +7661,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7151,7 +7669,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7159,7 +7677,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7167,7 +7685,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7175,7 +7693,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7183,7 +7701,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7191,56 +7709,56 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7248,7 +7766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7272,7 +7790,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -7280,7 +7798,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7288,7 +7806,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -7296,7 +7814,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7304,56 +7822,56 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7362,7 +7880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7385,78 +7903,78 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7464,7 +7982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -7488,15 +8006,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -7504,7 +8022,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -7512,7 +8030,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -7520,7 +8038,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -7528,7 +8046,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7536,7 +8054,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7544,7 +8062,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7552,48 +8070,48 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7601,7 +8119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7625,7 +8143,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -7633,7 +8151,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -7641,7 +8159,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -7649,7 +8167,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -7657,7 +8175,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7665,7 +8183,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7673,7 +8191,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7681,34 +8199,34 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7716,7 +8234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A321CDB-4432-42F8-8542-C3389F944EAE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7739,92 +8257,92 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -7837,7 +8355,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7857,7 +8375,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -7865,7 +8383,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -7873,7 +8391,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -7881,7 +8399,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -7889,7 +8407,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7897,7 +8415,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -7905,7 +8423,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7913,7 +8431,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -7921,7 +8439,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -7929,63 +8447,63 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7997,8 +8515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8017,202 +8535,202 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -8222,397 +8740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="5">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A12" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8629,12 +8761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8642,7 +8774,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>23</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8650,15 +8782,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8666,15 +8798,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>26</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8682,39 +8814,39 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8722,15 +8854,15 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>21</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8738,15 +8870,15 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>27</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8754,7 +8886,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8762,7 +8894,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>21</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8770,39 +8902,39 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>266</v>
+      <c r="A23" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8811,18 +8943,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F6232-9681-4454-AEAB-44094C0C14CF}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DAF86C-B225-4BA6-A035-2334E730C14A}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3" s="5">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8EC24-050E-45A2-BA78-4310BE4389C1}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="145.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -8835,98 +9161,87 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="B2">
-        <v>3338</v>
+        <v>638</v>
+      </c>
+      <c r="B2" s="5">
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1038</v>
+        <v>639</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2502</v>
+        <v>640</v>
+      </c>
+      <c r="B4" s="5">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="B5">
-        <v>851</v>
+        <v>641</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="B6">
-        <v>401</v>
+        <v>265</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A7" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="B8">
-        <v>145</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="A9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="B10" t="s">
-        <v>654</v>
+      <c r="A10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="B11" t="s">
-        <v>234</v>
+      <c r="A11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B12" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="B13" t="s">
-        <v>659</v>
+      <c r="A12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B876C38-2B79-40ED-98B2-46A895C7B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A364D1D3-24AB-4EEB-B9B5-C48E85B0B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -442,24 +442,6 @@
     <t>Does Rose-Hulman enroll transfer students</t>
   </si>
   <si>
-    <t>How many male transfer applicants applied?</t>
-  </si>
-  <si>
-    <t>How many male transfer applicants are admitted</t>
-  </si>
-  <si>
-    <t>How many male transfer applicants are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female transfer applicants applied?</t>
-  </si>
-  <si>
-    <t>How many female transfer applicants are admitted</t>
-  </si>
-  <si>
-    <t>How many female transfer applicants are enrolled?</t>
-  </si>
-  <si>
     <t>At which term may transfer students enroll</t>
   </si>
   <si>
@@ -881,18 +863,6 @@
     <t>Basis of selection is about the importance of different factors in admission decisions. For basis of selection you can ask about the importance of the following for admission decisions: rigor of secondary school records, class rank, gpa, standardized test scores, recommendation letter, interview, extracirricular activities, talent/ability, character/personal qualities, first generation student, alumni relation, geographic residence, religious affiliation/commitment, racial/ethnic status, volunteer work, work experience, level of applicant's interest.</t>
   </si>
   <si>
-    <t>How many male full-time undergraduate degree-seeking first-time freshmen are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female full-time undergraduate degree-seeking first-time freshmen are enrolled?</t>
-  </si>
-  <si>
-    <t>How many male part-time undergraduate degree-seeking first-time freshmen are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female part-time undergraduate degree-seeking first-time freshmen are enrolled?</t>
-  </si>
-  <si>
     <t>How many male full-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
   </si>
   <si>
@@ -905,18 +875,6 @@
     <t>How many female part-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
   </si>
   <si>
-    <t>How many male full-time undergraduate degree-seeking non-freshmen are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female full-time undergraduate degree-seeking non-freshmen are enrolled?</t>
-  </si>
-  <si>
-    <t>How many male part-time undergraduate degree-seeking non-freshmen are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female part-time undergraduate degree-seeking non-freshmen are enrolled?</t>
-  </si>
-  <si>
     <t>How many male full-time undergraduate non-degree-seeking students are enrolled?</t>
   </si>
   <si>
@@ -965,25 +923,7 @@
     <t>How many female part-time graduate non-degree-seeking students are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking undergraduate nonresident aliens are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking undergraduate hispanics are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking undergraduate african americans are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate white students are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking undergraduate american indians are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking undergraduate asians are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking undergraduate pacific islanders are enrolled?</t>
   </si>
   <si>
     <t>How many degree-seeking undergraduate students of two or more races are enrolled?</t>
@@ -1619,9 +1559,6 @@
     <t>What is the amount of non-need-based state and other self-help work study awarded to students?</t>
   </si>
   <si>
-    <t>The number of degree-seeking undergraduate (xor [race] {nonresidence alien}) students enrolled is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>The number of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
   </si>
   <si>
@@ -1730,31 +1667,13 @@
     <t>How many degree-seeking undergraduate students are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year nonresident aliens are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year hispanics are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year african americans are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking first-time first-year white students are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking first-time first-year asians are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year pacific islanders are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking first-time first-year students of two or more races are enrolled?</t>
   </si>
   <si>
     <t>How many degree-seeking first-time first-year students of unknown race are enrolled?</t>
-  </si>
-  <si>
-    <t>How many degree-seeking first-time first-year american indians are enrolled?</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1983,9 +1902,6 @@
     <t>How many Computer and information degrees are conferred?</t>
   </si>
   <si>
-    <t>Rose-Hulman offers deree in  Computer science,  engineering degrees, biological/life sciences,  physical sciences and social sciences</t>
-  </si>
-  <si>
     <t>The total number of [enrollment_status] instructional faculty {who are [gender]} is &lt;value&gt;</t>
   </si>
   <si>
@@ -2022,9 +1938,6 @@
     <t>Does your institution require or recommend a general college-preparatory program for degree-seeking students?</t>
   </si>
   <si>
-    <t>The number of degree-seeking first-time first-year  (xor [race] {nonresident alien}) students enrolled is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>A general college-preparatory program for degree-seeking students is required</t>
   </si>
   <si>
@@ -2113,6 +2026,93 @@
   </si>
   <si>
     <t>What is the total first-time, first-year (freshman)  female who were admitted</t>
+  </si>
+  <si>
+    <t>Rose-Hulman offers degree in  Computer science,  engineering degrees, biological/life sciences,  physical sciences and social sciences</t>
+  </si>
+  <si>
+    <t>How many male part-time undergraduate degree-seeking first-time freshmen students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time undergraduate degree-seeking first-time freshmen students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time undergraduate degree-seeking first-time freshmen students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time undergraduate degree-seeking non-freshmen students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time undergraduate degree-seeking non-freshmen students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time undergraduate degree-seeking non-freshmen student are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time undergraduate degree-seeking non-freshmen student are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female part-time undergraduate degree-seeking first-time freshmen students are enrolled?</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking undergraduate students enrolled    (xor {of [^*unknown] race} (xor {who are [^race]} {nonresidence alien})) is  &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate african americans students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate american indians students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate asians students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate pacific islanders students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate hispanics students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate nonresident aliens students are enrolled?</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time first-year students enrolled (xor {of [^*unknown] race} (xor {who are [^race]} {nonresidence alien})) is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year hispanics students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year nonresident aliens students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year african americans students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year american indians students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year asians students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many degree-seeking first-time first-year pacific islanders students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female transfer students applied?</t>
+  </si>
+  <si>
+    <t>How many female transfer students are admitted</t>
+  </si>
+  <si>
+    <t>How many female transfer students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male transfer students/applicants students applied?</t>
+  </si>
+  <si>
+    <t>How many male transfer students/applicants are admitted</t>
+  </si>
+  <si>
+    <t>How many male transfer students//applicants are enrolled?</t>
   </si>
 </sst>
 </file>
@@ -2493,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2512,195 +2512,195 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2731,51 +2731,51 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>648</v>
+        <v>619</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2806,192 +2806,192 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3112,56 +3112,56 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3190,141 +3190,141 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B14" s="6"/>
     </row>
@@ -3406,55 +3406,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3582,56 +3582,56 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3715,55 +3715,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3838,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3851,7 +3851,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>102</v>
@@ -3891,59 +3891,59 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>54</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -4000,63 +4000,63 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4117,7 +4117,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4213,7 +4213,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4229,7 +4229,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4245,7 +4245,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4277,7 +4277,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4309,7 +4309,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4341,61 +4341,61 @@
         <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4408,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>652</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>651</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>657</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>276</v>
+        <v>653</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>277</v>
+        <v>654</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>655</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>279</v>
+        <v>656</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B22" s="5">
         <v>6</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
@@ -4652,55 +4652,55 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4732,182 +4732,182 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4943,7 +4943,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>115</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>116</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>117</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>118</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>119</v>
@@ -4991,55 +4991,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +5051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5068,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5076,10 +5078,10 @@
         <v>121</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5087,262 +5089,262 @@
         <v>120</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5354,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5374,7 +5376,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>122</v>
+        <v>675</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5382,7 +5384,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>123</v>
+        <v>676</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5390,7 +5392,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>124</v>
+        <v>677</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5398,7 +5400,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>125</v>
+        <v>672</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5406,7 +5408,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>126</v>
+        <v>673</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5414,7 +5416,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>127</v>
+        <v>674</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5422,55 +5424,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5501,75 +5503,75 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5604,229 +5606,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5857,108 +5859,108 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5990,206 +5992,206 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="B3" s="6">
         <v>45017</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="B14" s="6">
         <v>1500</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="B15" s="6">
         <v>1500</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -6222,224 +6224,224 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6471,228 +6473,228 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B2" s="6">
         <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B3" s="6">
         <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B4" s="6">
         <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B5" s="6">
         <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B6" s="6">
         <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B7" s="6">
         <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B8" s="6">
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6705,154 +6707,154 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2">
+        <v>664</v>
+      </c>
+      <c r="B2" s="5">
         <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3">
+        <v>663</v>
+      </c>
+      <c r="B3" s="5">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4">
+        <v>659</v>
+      </c>
+      <c r="B4" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5">
+        <v>282</v>
+      </c>
+      <c r="B5" s="5">
         <v>1295</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6">
+        <v>660</v>
+      </c>
+      <c r="B6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7">
+        <v>661</v>
+      </c>
+      <c r="B7" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8">
+        <v>662</v>
+      </c>
+      <c r="B8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9">
+        <v>283</v>
+      </c>
+      <c r="B9" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10">
+        <v>284</v>
+      </c>
+      <c r="B10" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" t="s">
-        <v>513</v>
+        <v>253</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" t="s">
-        <v>227</v>
+        <v>255</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" t="s">
-        <v>227</v>
+        <v>256</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" t="s">
-        <v>227</v>
+        <v>260</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" t="s">
-        <v>549</v>
+        <v>287</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -6884,229 +6886,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B3" s="4">
         <v>1151</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B4" s="4">
         <v>1150</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B5" s="4">
         <v>1144</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B6" s="4">
         <v>829</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B7" s="4">
         <v>1009</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B8" s="4">
         <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7137,229 +7139,229 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7390,117 +7392,117 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="C7" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="C8" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="C9" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="C10" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="C11" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7532,7 +7534,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -7540,7 +7542,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7548,7 +7550,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B4">
         <v>137</v>
@@ -7556,7 +7558,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7564,56 +7566,56 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7645,7 +7647,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="B2">
         <v>182</v>
@@ -7653,7 +7655,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7661,7 +7663,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7669,7 +7671,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7677,7 +7679,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7685,7 +7687,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7693,7 +7695,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7701,7 +7703,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7709,56 +7711,56 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7790,7 +7792,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -7798,7 +7800,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7806,7 +7808,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -7814,7 +7816,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7822,56 +7824,56 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7903,78 +7905,78 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -8006,15 +8008,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -8022,7 +8024,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -8030,7 +8032,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -8038,7 +8040,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -8046,7 +8048,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8054,7 +8056,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8062,7 +8064,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8070,48 +8072,48 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -8143,7 +8145,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -8151,7 +8153,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -8159,7 +8161,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8167,7 +8169,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -8175,7 +8177,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8183,7 +8185,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8191,7 +8193,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8199,34 +8201,34 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -8239,7 +8241,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8257,92 +8259,92 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -8355,7 +8357,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8375,7 +8377,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8383,7 +8385,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>551</v>
+        <v>666</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8391,7 +8393,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>552</v>
+        <v>668</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8399,7 +8401,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -8407,7 +8409,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>558</v>
+        <v>669</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8415,7 +8417,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>554</v>
+        <v>670</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8423,7 +8425,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>555</v>
+        <v>671</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8431,7 +8433,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -8439,7 +8441,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8447,63 +8449,63 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" t="s">
-        <v>647</v>
+        <v>253</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -8515,8 +8517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7606B2B-8397-4A8E-AF38-C293D77D8867}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8535,202 +8537,202 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8744,7 +8746,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8766,7 +8768,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8774,7 +8776,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8782,7 +8784,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8790,7 +8792,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8798,7 +8800,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8806,7 +8808,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8814,7 +8816,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8822,7 +8824,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8830,7 +8832,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8838,7 +8840,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8846,7 +8848,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8854,7 +8856,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8862,7 +8864,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8870,7 +8872,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8878,7 +8880,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8886,7 +8888,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8894,7 +8896,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8902,7 +8904,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8910,31 +8912,31 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -8967,7 +8969,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -8975,7 +8977,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -8983,56 +8985,56 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -9044,8 +9046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DAF86C-B225-4BA6-A035-2334E730C14A}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9064,7 +9066,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9072,7 +9074,7 @@
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9080,56 +9082,56 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -9161,7 +9163,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9169,7 +9171,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -9177,7 +9179,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -9185,7 +9187,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -9193,55 +9195,55 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A364D1D3-24AB-4EEB-B9B5-C48E85B0B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D58973C-7844-44AC-B0B7-10399FFDCCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="678">
   <si>
     <t>Answer</t>
   </si>
@@ -1559,9 +1559,6 @@
     <t>What is the amount of non-need-based state and other self-help work study awarded to students?</t>
   </si>
   <si>
-    <t>The number of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>The (xor [*percentage] number) of students {who graduated (xor {[range] [number] years and [number] years} {[range] [number] years}) in the [initial_final] [year] cohort is &lt;value&gt;</t>
   </si>
   <si>
@@ -1875,9 +1872,6 @@
     <t>The amount of [need_non_need_base_aid] (xor [self-help_aid] {[financial_aid_type] scholarship or grants} (xor {tuition [*waiver]} (xor [*parent] [*student]) loan)))</t>
   </si>
   <si>
-    <t>What majors does Rose-Hulman offer?</t>
-  </si>
-  <si>
     <t>15.7% bachelor's degrees conferred are Computer and information science</t>
   </si>
   <si>
@@ -1905,24 +1899,6 @@
     <t>The total number of [enrollment_status] instructional faculty {who are [gender]} is &lt;value&gt;</t>
   </si>
   <si>
-    <t>Total first-time, first-year (freshman) men who applied?</t>
-  </si>
-  <si>
-    <t>Total first-time, first-year (freshman) women who applied</t>
-  </si>
-  <si>
-    <t>Total full-time, first-time, first-year (freshman) men who enrolled</t>
-  </si>
-  <si>
-    <t>Total part-time, first-time, first-year (freshman) men who enrolled</t>
-  </si>
-  <si>
-    <t>Total full-time, first-time, first-year (freshman) women who enrolled</t>
-  </si>
-  <si>
-    <t>Total part-time, first-time, first-year (freshman) women who enrolled</t>
-  </si>
-  <si>
     <t>Do you have a policy of placing students on a waiting list?</t>
   </si>
   <si>
@@ -2022,12 +1998,6 @@
     <t>The level of applicant's interest is considered in admission decisions.</t>
   </si>
   <si>
-    <t>What is the total first-time, first-year (freshman) male who were admitted</t>
-  </si>
-  <si>
-    <t>What is the total first-time, first-year (freshman)  female who were admitted</t>
-  </si>
-  <si>
     <t>Rose-Hulman offers degree in  Computer science,  engineering degrees, biological/life sciences,  physical sciences and social sciences</t>
   </si>
   <si>
@@ -2113,6 +2083,36 @@
   </si>
   <si>
     <t>How many male transfer students//applicants are enrolled?</t>
+  </si>
+  <si>
+    <t>What majors does Rose-Hulman award?</t>
+  </si>
+  <si>
+    <t>The number of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [enrollment_status] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Total first-time, first-year (freshman) female students who applied</t>
+  </si>
+  <si>
+    <t>Total first-time, first-year (freshman) male students who applied?</t>
+  </si>
+  <si>
+    <t>What is the total first-time, first-year (freshman) male students  who were admitted</t>
+  </si>
+  <si>
+    <t>What is the total first-time, first-year (freshman)  female students who were admitted</t>
+  </si>
+  <si>
+    <t>Total full-time, first-time, first-year (freshman) male students who enrolled</t>
+  </si>
+  <si>
+    <t>Total part-time, first-time, first-year (freshman) male students who enrolled</t>
+  </si>
+  <si>
+    <t>Total full-time, first-time, first-year (freshman) female students who enrolled</t>
+  </si>
+  <si>
+    <t>Total part-time, first-time, first-year (freshman) female students who enrolled</t>
   </si>
 </sst>
 </file>
@@ -2712,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3551768-8BC9-4E69-8C86-830DF8B3DA69}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C5" t="s">
         <v>183</v>
@@ -2787,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="74" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="C13" t="s">
         <v>183</v>
@@ -2959,7 +2959,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3024,7 +3024,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>253</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3173,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3422,7 +3422,7 @@
         <v>253</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3731,7 +3731,7 @@
         <v>253</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3908,7 +3908,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3919,7 +3919,7 @@
         <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4003,7 +4003,7 @@
         <v>440</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4024,7 +4024,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4229,7 +4229,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4363,7 +4363,7 @@
         <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4408,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4668,7 +4668,7 @@
         <v>253</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>493</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4737,7 +4737,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
@@ -4875,7 +4875,7 @@
         <v>253</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5007,7 +5007,7 @@
         <v>253</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5182,7 +5182,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>146</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>291</v>
@@ -5356,7 +5356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5992,206 +5992,206 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B3" s="6">
         <v>45017</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>541</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>543</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>545</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>547</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>550</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B14" s="6">
         <v>1500</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B15" s="6">
         <v>1500</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>556</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>558</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>560</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>563</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6409,7 +6409,7 @@
         <v>253</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6726,7 +6726,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6849,12 +6849,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -7397,10 +7397,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>574</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -7408,10 +7408,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -7419,10 +7419,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
@@ -7430,10 +7430,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
         <v>183</v>
@@ -7441,10 +7441,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>588</v>
       </c>
       <c r="C6" t="s">
         <v>183</v>
@@ -7452,57 +7452,57 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -7583,7 +7583,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8241,7 +8241,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8264,87 +8264,90 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>649</v>
+        <v>639</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -8377,7 +8380,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8385,7 +8388,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8393,7 +8396,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8401,7 +8404,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -8409,7 +8412,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8417,7 +8420,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8425,7 +8428,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8433,7 +8436,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -8441,7 +8444,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8465,7 +8468,7 @@
         <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8700,7 +8703,7 @@
         <v>253</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8768,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8776,7 +8779,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8784,7 +8787,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8792,7 +8795,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8800,7 +8803,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8808,7 +8811,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8816,7 +8819,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8824,7 +8827,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8832,7 +8835,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8840,7 +8843,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8848,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8856,7 +8859,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8864,7 +8867,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8872,7 +8875,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8880,7 +8883,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8888,7 +8891,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8896,7 +8899,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8904,7 +8907,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8912,7 +8915,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8950,7 +8953,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8969,7 +8972,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>608</v>
+        <v>671</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -8977,7 +8980,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>609</v>
+        <v>670</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -8988,7 +8991,7 @@
         <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9002,7 +9005,7 @@
         <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9047,7 +9050,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9066,15 +9069,15 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9085,7 +9088,7 @@
         <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9099,7 +9102,7 @@
         <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9144,7 +9147,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9163,7 +9166,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>610</v>
+        <v>674</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9171,7 +9174,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>611</v>
+        <v>675</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -9179,7 +9182,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>612</v>
+        <v>676</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>613</v>
+        <v>677</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -9198,7 +9201,7 @@
         <v>259</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9211,7 +9214,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D58973C-7844-44AC-B0B7-10399FFDCCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C214895-07A6-4C1D-A73C-F3706FCFF42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId21"/>
     <sheet name="Transfer Admission_General" sheetId="5" r:id="rId22"/>
     <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId23"/>
-    <sheet name="Academic Offering Policy" sheetId="27" r:id="rId24"/>
+    <sheet name="Academic Offering and Policy" sheetId="27" r:id="rId24"/>
     <sheet name="Student Life_Categories" sheetId="7" r:id="rId25"/>
     <sheet name="Student Life_Offered" sheetId="8" r:id="rId26"/>
     <sheet name="Annual Expense" sheetId="35" r:id="rId27"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="679">
   <si>
     <t>Answer</t>
   </si>
@@ -1932,9 +1932,6 @@
     <t xml:space="preserve">The number of first-time, first-year [gender] freshmen who applied to Rose-Hulman is &lt;value&gt; </t>
   </si>
   <si>
-    <t>Rose-Hulman have a policu of placing student on the waiting list. The number of qualified applicants offered a place on waiting list is 119, the number of accepting a place on the waiting list is 43, the number of wait-listed students admitted 14</t>
-  </si>
-  <si>
     <t>The number of [^subject] units recommended to be taken by students during high school for admission to Rose-Hulman  is &lt;value&gt;</t>
   </si>
   <si>
@@ -2113,6 +2110,12 @@
   </si>
   <si>
     <t>Total part-time, first-time, first-year (freshman) female students who enrolled</t>
+  </si>
+  <si>
+    <t>Special study programs offered at Rose-Hulman, and disciplinary areas students are required to complete coursework in</t>
+  </si>
+  <si>
+    <t>Rose-Hulman have a policy of placing student on the waiting list. The number of qualified applicants offered a place on waiting list is 119, the number of accepting a place on the waiting list is 43, the number of wait-listed students admitted 14</t>
   </si>
 </sst>
 </file>
@@ -2494,7 +2497,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3551768-8BC9-4E69-8C86-830DF8B3DA69}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2739,7 +2742,7 @@
         <v>606</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>617</v>
+        <v>678</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -2787,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="74" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2959,7 +2962,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3129,7 +3132,7 @@
         <v>253</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4428,7 +4431,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4436,7 +4439,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4444,7 +4447,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4452,7 +4455,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4492,7 +4495,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4500,7 +4503,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4516,7 +4519,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4668,7 +4671,7 @@
         <v>253</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5357,7 +5360,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5376,7 +5379,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5384,7 +5387,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5392,7 +5395,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5400,7 +5403,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5408,7 +5411,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5416,7 +5419,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5484,8 +5487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5536,11 +5539,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -6726,7 +6731,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6734,7 +6739,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6742,7 +6747,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6758,7 +6763,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6766,7 +6771,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6774,7 +6779,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6814,7 +6819,7 @@
         <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8341,10 +8346,10 @@
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>517</v>
@@ -8380,7 +8385,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8388,7 +8393,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8396,7 +8401,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8412,7 +8417,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8420,7 +8425,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8428,7 +8433,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8468,7 +8473,7 @@
         <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8771,7 +8776,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8779,7 +8784,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8787,7 +8792,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8795,7 +8800,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8803,7 +8808,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8811,7 +8816,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8819,7 +8824,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8827,7 +8832,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8835,7 +8840,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8843,7 +8848,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8851,7 +8856,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8859,7 +8864,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8867,7 +8872,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8875,7 +8880,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8883,7 +8888,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8891,7 +8896,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8899,7 +8904,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8907,7 +8912,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8915,7 +8920,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8972,7 +8977,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -8980,7 +8985,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9069,7 +9074,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9077,7 +9082,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9166,7 +9171,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9174,7 +9179,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -9182,7 +9187,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -9190,7 +9195,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,50 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C214895-07A6-4C1D-A73C-F3706FCFF42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0DA0AD-9F30-4190-8484-4F53B9119915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
     <sheet name="Enrollment_General" sheetId="12" r:id="rId2"/>
     <sheet name="Enrollment_Race Undergraduate" sheetId="16" r:id="rId3"/>
     <sheet name="Enrollment_Race First time year" sheetId="13" r:id="rId4"/>
-    <sheet name="Cohort" sheetId="10" r:id="rId5"/>
-    <sheet name="Basis For Selection" sheetId="1" r:id="rId6"/>
-    <sheet name="Admission_Applied" sheetId="40" r:id="rId7"/>
-    <sheet name="Admission_Admitted" sheetId="39" r:id="rId8"/>
-    <sheet name="Admission_Enrolled" sheetId="37" r:id="rId9"/>
-    <sheet name="Admission_Condition" sheetId="38" r:id="rId10"/>
-    <sheet name="Admission_High School Required" sheetId="29" r:id="rId11"/>
-    <sheet name="Admission_High School Recommend" sheetId="28" r:id="rId12"/>
-    <sheet name="Admission_Policies" sheetId="9" r:id="rId13"/>
-    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId14"/>
-    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId15"/>
-    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId16"/>
-    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId17"/>
-    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId18"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId19"/>
-    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId20"/>
-    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId21"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId22"/>
-    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId23"/>
-    <sheet name="Academic Offering and Policy" sheetId="27" r:id="rId24"/>
-    <sheet name="Student Life_Categories" sheetId="7" r:id="rId25"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId26"/>
-    <sheet name="Annual Expense" sheetId="35" r:id="rId27"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId28"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId29"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId30"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId31"/>
-    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId32"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId33"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId34"/>
-    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId35"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId36"/>
-    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId37"/>
-    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId38"/>
-    <sheet name="Degree Conferred" sheetId="33" r:id="rId39"/>
+    <sheet name="Cohort_2014" sheetId="10" r:id="rId5"/>
+    <sheet name="Cohort_Retention 2019" sheetId="41" r:id="rId6"/>
+    <sheet name="Basis For Selection" sheetId="1" r:id="rId7"/>
+    <sheet name="Admission_Applied" sheetId="40" r:id="rId8"/>
+    <sheet name="Admission_Admitted" sheetId="39" r:id="rId9"/>
+    <sheet name="Admission_Enrolled" sheetId="37" r:id="rId10"/>
+    <sheet name="Admission_Condition" sheetId="38" r:id="rId11"/>
+    <sheet name="Admission_High School Required" sheetId="29" r:id="rId12"/>
+    <sheet name="Admission_High School Recommend" sheetId="28" r:id="rId13"/>
+    <sheet name="Admission_Policies" sheetId="9" r:id="rId14"/>
+    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId15"/>
+    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId16"/>
+    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId17"/>
+    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId18"/>
+    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId19"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId20"/>
+    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId21"/>
+    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId22"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId23"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId24"/>
+    <sheet name="Academic Offering and Policy" sheetId="27" r:id="rId25"/>
+    <sheet name="Student Life_Categories" sheetId="7" r:id="rId26"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId27"/>
+    <sheet name="Annual Expense" sheetId="35" r:id="rId28"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId29"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId30"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId31"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId32"/>
+    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId33"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId34"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId35"/>
+    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId36"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId37"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId38"/>
+    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId39"/>
+    <sheet name="Degree Conferred" sheetId="33" r:id="rId40"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="685">
   <si>
     <t>Answer</t>
   </si>
@@ -863,18 +864,6 @@
     <t>Basis of selection is about the importance of different factors in admission decisions. For basis of selection you can ask about the importance of the following for admission decisions: rigor of secondary school records, class rank, gpa, standardized test scores, recommendation letter, interview, extracirricular activities, talent/ability, character/personal qualities, first generation student, alumni relation, geographic residence, religious affiliation/commitment, racial/ethnic status, volunteer work, work experience, level of applicant's interest.</t>
   </si>
   <si>
-    <t>How many male full-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female full-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
-  </si>
-  <si>
-    <t>How many male part-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
-  </si>
-  <si>
-    <t>How many female part-time undergraduate non-first-time-freshman first-year students are enrolled?</t>
-  </si>
-  <si>
     <t>How many male full-time undergraduate non-degree-seeking students are enrolled?</t>
   </si>
   <si>
@@ -923,9 +912,6 @@
     <t>How many female part-time graduate non-degree-seeking students are enrolled?</t>
   </si>
   <si>
-    <t>How many degree-seeking undergraduate white students are enrolled?</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate students of two or more races are enrolled?</t>
   </si>
   <si>
@@ -933,9 +919,6 @@
   </si>
   <si>
     <t>How many degree-seeking first-time first-year students are enrolled?</t>
-  </si>
-  <si>
-    <t>For student cohorts, you can ask about students exemptions from a cohort year, number of students who graduated within four, five, or six year and graduation rate for those years. You can also ask all of the things paired with financial aid in terms of student who received pell-grant, student who received stafford loan but not pell grant and student who received neither.</t>
   </si>
   <si>
     <t>Denominator-Question</t>
@@ -1559,9 +1542,6 @@
     <t>What is the amount of non-need-based state and other self-help work study awarded to students?</t>
   </si>
   <si>
-    <t>The (xor [*percentage] number) of students {who graduated (xor {[range] [number] years and [number] years} {[range] [number] years}) in the [initial_final] [year] cohort is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>What is the minimum high school grade point average required for transfer admission?</t>
   </si>
   <si>
@@ -2022,9 +2002,6 @@
     <t>How many female part-time undergraduate degree-seeking first-time freshmen students are enrolled?</t>
   </si>
   <si>
-    <t>The number of degree-seeking undergraduate students enrolled    (xor {of [^*unknown] race} (xor {who are [^race]} {nonresidence alien})) is  &lt;value&gt;</t>
-  </si>
-  <si>
     <t>How many degree-seeking undergraduate african americans students are enrolled?</t>
   </si>
   <si>
@@ -2043,9 +2020,6 @@
     <t>How many degree-seeking undergraduate nonresident aliens students are enrolled?</t>
   </si>
   <si>
-    <t>The number of degree-seeking first-time first-year students enrolled (xor {of [^*unknown] race} (xor {who are [^race]} {nonresidence alien})) is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>How many degree-seeking first-time first-year hispanics students are enrolled?</t>
   </si>
   <si>
@@ -2116,6 +2090,52 @@
   </si>
   <si>
     <t>Rose-Hulman have a policy of placing student on the waiting list. The number of qualified applicants offered a place on waiting list is 119, the number of accepting a place on the waiting list is 43, the number of wait-listed students admitted 14</t>
+  </si>
+  <si>
+    <t>What is the retention rate for 2019 cohort?</t>
+  </si>
+  <si>
+    <t>The number of students who enrolled at Rose-Hulman in 2014, and graduated within four, five, or six year and graduation rate for those years. You can also ask all of the things paired with financial aid in terms of student who received pell-grant, student who received stafford loan but not pell grant and student who received neither.</t>
+  </si>
+  <si>
+    <t>89.7% (445/496)</t>
+  </si>
+  <si>
+    <t>The retention rate of full-time bachelor’s (or equivalent) degree-seeking undergraduate students who entered Rose-Hulman as
+freshmen in Fall 2019</t>
+  </si>
+  <si>
+    <t>General information about Rose-Hulman, such as phone number, website, college type, degrees offered, academic calendar system.</t>
+  </si>
+  <si>
+    <t>How many female part-time undergraduate non-first-time freshman first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male part-time undergraduate non-first-time freshman first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many female full-time undergraduate non-first-time freshman first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>How many male full-time undergraduate non-first-time freshman first-year students are enrolled?</t>
+  </si>
+  <si>
+    <t>Number of students enrolled. This can vary from male or female students, undergraduate or graduate, degree-seeking or non-degree-seeking, full-time and part-time, first-year or non-first-year, and first-time and non-first-time, and freshman and non-freshman and combinations of these variations.</t>
+  </si>
+  <si>
+    <t>How many degree-seeking undergraduate caucasian students are enrolled?</t>
+  </si>
+  <si>
+    <t>The number of undergraduate degree-seeking students enrolled by race and immigration status. This includes students enrolled who are either Hispanics, African American, Caucasian, or Pacific Islander, have two or more races or whose race is unknown.</t>
+  </si>
+  <si>
+    <t>The (xor [*percent] number) of students {who graduated (xor {[range] [number] years and [number] years} {[range] [number] years}) in the [initial_final] [year] cohort is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The (xor [*percent] number) of degree-seeking first-time first-year students enrolled (xor {of [^*unknown] race} (xor {who are [^race]} {nonresidence alien})) is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The  (xor [*percent] number) of degree-seeking undergraduate students enrolled    (xor {of [^*unknown] race} (xor {who are [^race]} {nonresidence alien})) is  &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2496,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2515,15 +2535,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -2531,10 +2551,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -2542,10 +2562,10 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
@@ -2553,10 +2573,10 @@
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
         <v>183</v>
@@ -2564,10 +2584,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
         <v>183</v>
@@ -2575,10 +2595,10 @@
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C7" t="s">
         <v>183</v>
@@ -2586,10 +2606,10 @@
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C8" t="s">
         <v>183</v>
@@ -2597,10 +2617,10 @@
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C9" t="s">
         <v>183</v>
@@ -2608,10 +2628,10 @@
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
         <v>183</v>
@@ -2619,10 +2639,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
         <v>183</v>
@@ -2630,10 +2650,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C12" t="s">
         <v>183</v>
@@ -2641,10 +2661,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C13" t="s">
         <v>183</v>
@@ -2652,10 +2672,10 @@
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C14" t="s">
         <v>183</v>
@@ -2669,9 +2689,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>254</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2712,11 +2735,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8EC24-050E-45A2-BA78-4310BE4389C1}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" s="5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3551768-8BC9-4E69-8C86-830DF8B3DA69}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2734,15 +2870,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -2750,10 +2886,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -2761,10 +2897,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
@@ -2772,10 +2908,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C5" t="s">
         <v>183</v>
@@ -2786,7 +2922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -2809,12 +2945,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -2825,7 +2961,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -2836,7 +2972,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -2847,7 +2983,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -2858,7 +2994,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -2869,7 +3005,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -2880,7 +3016,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -2891,7 +3027,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -2902,7 +3038,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -2913,7 +3049,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -2924,7 +3060,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -2935,10 +3071,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C13" t="s">
         <v>183</v>
@@ -2962,7 +3098,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3003,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3027,7 +3163,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3035,7 +3171,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3043,7 +3179,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3051,7 +3187,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3059,7 +3195,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3067,7 +3203,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3075,7 +3211,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3083,7 +3219,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3091,7 +3227,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3099,7 +3235,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3107,7 +3243,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3132,7 +3268,7 @@
         <v>253</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3172,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3193,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3337,7 +3473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3425,7 +3561,7 @@
         <v>253</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3465,7 +3601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -3602,7 +3738,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3646,7 +3782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3734,7 +3870,7 @@
         <v>253</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3774,7 +3910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -3841,7 +3977,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3911,7 +4047,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3922,7 +4058,7 @@
         <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3955,7 +4091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6B56-71DD-4A78-89DB-D3F23672C01B}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -3979,7 +4115,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
@@ -3987,7 +4123,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>54</v>
@@ -3995,7 +4131,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -4003,10 +4139,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4027,7 +4163,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4068,7 +4204,315 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="97.5546875" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2" s="5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B6" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B11" s="5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B12" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -4120,7 +4564,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4216,7 +4660,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4232,7 +4676,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4248,7 +4692,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4280,7 +4724,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4312,7 +4756,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4344,7 +4788,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4366,7 +4810,7 @@
         <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4407,312 +4851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F776689-DE3B-468A-9224-18F5400CC444}">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="97.5546875" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B2" s="5">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B3" s="5">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B11" s="5">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B12" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B22" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -4735,12 +4874,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
@@ -4751,7 +4890,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>92</v>
@@ -4762,7 +4901,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>93</v>
@@ -4773,7 +4912,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>94</v>
@@ -4784,7 +4923,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>95</v>
@@ -4795,7 +4934,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>96</v>
@@ -4806,7 +4945,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>102</v>
@@ -4817,7 +4956,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>102</v>
@@ -4828,7 +4967,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>102</v>
@@ -4839,10 +4978,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
         <v>183</v>
@@ -4850,10 +4989,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C12" t="s">
         <v>183</v>
@@ -4878,7 +5017,7 @@
         <v>253</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4922,7 +5061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBFCBD-BE53-4EBE-BC28-AF1024B4BD2D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -4946,7 +5085,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>115</v>
@@ -4954,7 +5093,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>116</v>
@@ -4962,7 +5101,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>117</v>
@@ -4970,7 +5109,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>118</v>
@@ -4978,7 +5117,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
@@ -4986,7 +5125,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>119</v>
@@ -5010,7 +5149,7 @@
         <v>253</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5050,7 +5189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -5073,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5185,7 +5324,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>146</v>
@@ -5196,10 +5335,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
         <v>183</v>
@@ -5254,7 +5393,7 @@
         <v>151</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
         <v>183</v>
@@ -5265,7 +5404,7 @@
         <v>152</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
         <v>183</v>
@@ -5287,7 +5426,7 @@
         <v>134</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C21" t="s">
         <v>183</v>
@@ -5355,7 +5494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -5379,7 +5518,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5387,7 +5526,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5395,7 +5534,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5403,7 +5542,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5411,7 +5550,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5419,7 +5558,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5443,7 +5582,7 @@
         <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5483,7 +5622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5506,15 +5645,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -5522,10 +5661,10 @@
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -5544,7 +5683,7 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5588,7 +5727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -5611,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5841,7 +5980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5864,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5973,7 +6112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -5997,206 +6136,206 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B3" s="6">
         <v>45017</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B14" s="6">
         <v>1500</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B15" s="6">
         <v>1500</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -6205,7 +6344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -6229,170 +6368,170 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6414,7 +6553,7 @@
         <v>253</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6455,7 +6594,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B3" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B4" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B7" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -6478,12 +6781,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B2" s="6">
         <v>466</v>
@@ -6494,7 +6797,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B3" s="6">
         <v>360</v>
@@ -6505,7 +6808,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B4" s="6">
         <v>360</v>
@@ -6516,7 +6819,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B5" s="6">
         <v>357</v>
@@ -6527,7 +6830,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B6" s="6">
         <v>236</v>
@@ -6538,7 +6841,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B7" s="6">
         <v>168</v>
@@ -6549,7 +6852,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B8" s="6">
         <v>124</v>
@@ -6560,10 +6863,10 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
         <v>183</v>
@@ -6571,10 +6874,10 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
         <v>183</v>
@@ -6582,10 +6885,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
         <v>183</v>
@@ -6593,10 +6896,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
         <v>183</v>
@@ -6604,10 +6907,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
         <v>183</v>
@@ -6615,10 +6918,10 @@
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C14" t="s">
         <v>183</v>
@@ -6626,10 +6929,10 @@
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
         <v>183</v>
@@ -6637,10 +6940,10 @@
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -6648,10 +6951,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C17" t="s">
         <v>183</v>
@@ -6707,168 +7010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="B2" s="5">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B3" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B4" s="5">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B7" s="5">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>527</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -6891,15 +7033,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -6907,7 +7049,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B3" s="4">
         <v>1151</v>
@@ -6918,7 +7060,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B4" s="4">
         <v>1150</v>
@@ -6929,7 +7071,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B5" s="4">
         <v>1144</v>
@@ -6940,7 +7082,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B6" s="4">
         <v>829</v>
@@ -6951,7 +7093,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B7" s="4">
         <v>1009</v>
@@ -6962,7 +7104,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B8" s="4">
         <v>284</v>
@@ -6973,7 +7115,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>53</v>
@@ -6984,10 +7126,10 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
         <v>183</v>
@@ -6995,10 +7137,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C11" t="s">
         <v>183</v>
@@ -7006,10 +7148,10 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C12" t="s">
         <v>183</v>
@@ -7017,10 +7159,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
         <v>183</v>
@@ -7028,10 +7170,10 @@
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
         <v>183</v>
@@ -7039,10 +7181,10 @@
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
         <v>183</v>
@@ -7050,10 +7192,10 @@
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -7061,10 +7203,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C17" t="s">
         <v>183</v>
@@ -7121,7 +7263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -7144,12 +7286,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
@@ -7160,7 +7302,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
@@ -7171,7 +7313,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>250</v>
@@ -7182,7 +7324,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>250</v>
@@ -7193,7 +7335,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -7204,7 +7346,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
@@ -7215,7 +7357,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -7226,10 +7368,10 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
         <v>183</v>
@@ -7237,10 +7379,10 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
         <v>183</v>
@@ -7248,10 +7390,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
         <v>183</v>
@@ -7259,10 +7401,10 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
         <v>183</v>
@@ -7270,10 +7412,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>183</v>
@@ -7281,10 +7423,10 @@
     </row>
     <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
         <v>183</v>
@@ -7292,10 +7434,10 @@
     </row>
     <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
         <v>183</v>
@@ -7303,10 +7445,10 @@
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -7314,10 +7456,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C17" t="s">
         <v>183</v>
@@ -7374,7 +7516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -7397,15 +7539,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -7413,10 +7555,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -7424,10 +7566,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
@@ -7435,10 +7577,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C5" t="s">
         <v>183</v>
@@ -7446,10 +7588,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C6" t="s">
         <v>183</v>
@@ -7457,57 +7599,57 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C9" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C10" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>589</v>
-      </c>
       <c r="C11" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7515,7 +7657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7539,7 +7681,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -7547,7 +7689,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7555,7 +7697,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B4">
         <v>137</v>
@@ -7563,7 +7705,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7588,7 +7730,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7628,7 +7770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -7652,7 +7794,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B2">
         <v>182</v>
@@ -7660,7 +7802,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7668,7 +7810,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7676,7 +7818,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7684,7 +7826,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7692,7 +7834,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7700,7 +7842,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7708,7 +7850,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7733,7 +7875,7 @@
         <v>253</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7773,7 +7915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -7797,7 +7939,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -7805,7 +7947,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7813,7 +7955,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -7821,7 +7963,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7846,7 +7988,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7887,7 +8029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7910,15 +8052,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -7926,10 +8068,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -7989,7 +8131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -8013,15 +8155,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -8029,7 +8171,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -8037,7 +8179,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -8045,7 +8187,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -8053,7 +8195,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8061,7 +8203,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8069,7 +8211,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8126,11 +8268,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -8150,7 +8292,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -8158,7 +8300,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -8166,7 +8308,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8174,7 +8316,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -8182,7 +8324,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8190,7 +8332,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8198,7 +8340,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8241,7 +8383,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED044F-2B62-42B7-A288-F87892E20B00}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="97.77734375" customWidth="1"/>
+    <col min="2" max="2" width="93.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A321CDB-4432-42F8-8542-C3389F944EAE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -8264,256 +8567,95 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED044F-2B62-42B7-A288-F87892E20B00}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="97.77734375" customWidth="1"/>
-    <col min="2" max="2" width="93.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B5">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B18" t="s">
-        <v>285</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -8526,7 +8668,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8577,7 +8719,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>229</v>
@@ -8695,12 +8837,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>286</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8708,7 +8850,7 @@
         <v>253</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>493</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8750,11 +8892,63 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45AC6AA-908C-41CC-B7C1-A904CC3B6462}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8776,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8784,7 +8978,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8792,7 +8986,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8800,7 +8994,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8808,7 +9002,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8816,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8824,7 +9018,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8832,7 +9026,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8840,7 +9034,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8848,7 +9042,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8856,7 +9050,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8864,7 +9058,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8872,7 +9066,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8880,7 +9074,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8888,7 +9082,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8896,7 +9090,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8904,7 +9098,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8912,7 +9106,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -8920,7 +9114,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8944,7 +9138,7 @@
         <v>253</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -8953,7 +9147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F6232-9681-4454-AEAB-44094C0C14CF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -8977,7 +9171,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -8985,7 +9179,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -8996,7 +9190,7 @@
         <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9010,7 +9204,7 @@
         <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9050,7 +9244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DAF86C-B225-4BA6-A035-2334E730C14A}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -9074,7 +9268,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9082,7 +9276,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9093,7 +9287,7 @@
         <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9107,7 +9301,7 @@
         <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9145,117 +9339,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8EC24-050E-45A2-BA78-4310BE4389C1}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B2" s="5">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B4" s="5">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0DA0AD-9F30-4190-8484-4F53B9119915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D016F-1B8F-4E90-B166-8D2F9A2293F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -35,8 +35,8 @@
     <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId20"/>
     <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId21"/>
     <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId22"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId23"/>
-    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId24"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId23"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId24"/>
     <sheet name="Academic Offering and Policy" sheetId="27" r:id="rId25"/>
     <sheet name="Student Life_Categories" sheetId="7" r:id="rId26"/>
     <sheet name="Student Life_Offered" sheetId="8" r:id="rId27"/>
@@ -3775,7 +3775,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B8" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4087,7 +4087,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4200,7 +4200,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5190,6 +5190,134 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.44140625" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B5" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B6" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -5486,134 +5614,6 @@
         <v>258</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="61.44140625" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="B3" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="B4" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="B5" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="B6" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6598,7 +6598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354727B8-DF4A-4CB3-BBB4-023F92A30B71}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -6754,7 +6754,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8939,7 +8939,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9143,7 +9143,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E80ED-9E72-418F-AD77-F1C2A8497DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B637AC-02DE-4D46-9238-D236CF824FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -19,43 +19,44 @@
     <sheet name="Enrollment_Race First time year" sheetId="13" r:id="rId4"/>
     <sheet name="Cohort_2014" sheetId="10" r:id="rId5"/>
     <sheet name="Cohort_Retention 2019" sheetId="41" r:id="rId6"/>
-    <sheet name="Basis For Selection" sheetId="1" r:id="rId7"/>
-    <sheet name="Admission_Applied" sheetId="40" r:id="rId8"/>
-    <sheet name="Admission_Admitted" sheetId="39" r:id="rId9"/>
-    <sheet name="Admission_Enrolled" sheetId="37" r:id="rId10"/>
-    <sheet name="Admission_Condition" sheetId="38" r:id="rId11"/>
-    <sheet name="Admission_High School Required" sheetId="29" r:id="rId12"/>
-    <sheet name="Admission_High School Recommend" sheetId="28" r:id="rId13"/>
-    <sheet name="Admission_Policies" sheetId="9" r:id="rId14"/>
-    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId15"/>
-    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId16"/>
-    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId17"/>
-    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId18"/>
-    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId19"/>
-    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId20"/>
-    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId21"/>
-    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId22"/>
-    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId23"/>
-    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId24"/>
-    <sheet name="Academic Offering and Policy" sheetId="27" r:id="rId25"/>
-    <sheet name="Student Life_CategoryFreshman" sheetId="7" r:id="rId26"/>
-    <sheet name="Student Life_CategoryUndergrad" sheetId="44" r:id="rId27"/>
-    <sheet name="Student Life_Offered" sheetId="8" r:id="rId28"/>
-    <sheet name="Annual Expense_General" sheetId="35" r:id="rId29"/>
-    <sheet name="Annual Expense_CommuterResident" sheetId="43" r:id="rId30"/>
-    <sheet name="Annual Expense_Policy" sheetId="42" r:id="rId31"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId32"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId33"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId34"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId35"/>
-    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId36"/>
-    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId37"/>
-    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId38"/>
-    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId39"/>
-    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId40"/>
-    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId41"/>
-    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId42"/>
-    <sheet name="Degree Conferred" sheetId="33" r:id="rId43"/>
+    <sheet name="Admission_Applied" sheetId="40" r:id="rId7"/>
+    <sheet name="Admission_Admitted" sheetId="39" r:id="rId8"/>
+    <sheet name="Admission_Enrolled" sheetId="37" r:id="rId9"/>
+    <sheet name="Admission_Condition" sheetId="38" r:id="rId10"/>
+    <sheet name="Admission_High School Required" sheetId="29" r:id="rId11"/>
+    <sheet name="Admission_High School Recommend" sheetId="28" r:id="rId12"/>
+    <sheet name="Admission_Policies" sheetId="9" r:id="rId13"/>
+    <sheet name="Basis For Selection" sheetId="1" r:id="rId14"/>
+    <sheet name="SAT ACT Policy" sheetId="45" r:id="rId15"/>
+    <sheet name="Freshman Profile_SAT comp range" sheetId="14" r:id="rId16"/>
+    <sheet name="Freshman Profile_SAT sub range " sheetId="3" r:id="rId17"/>
+    <sheet name="Freshman Profile_ACT comp range" sheetId="15" r:id="rId18"/>
+    <sheet name="Freshman Profile_ACT sub range" sheetId="11" r:id="rId19"/>
+    <sheet name="Freshman Profile_Submit" sheetId="34" r:id="rId20"/>
+    <sheet name="Freshman Profile_Percentile" sheetId="2" r:id="rId21"/>
+    <sheet name="Freshman Profile_GPA" sheetId="4" r:id="rId22"/>
+    <sheet name="Freshman Profile_Class Rank" sheetId="18" r:id="rId23"/>
+    <sheet name="Transfer Admission_Statistic" sheetId="17" r:id="rId24"/>
+    <sheet name="Transfer Admission_General" sheetId="5" r:id="rId25"/>
+    <sheet name="Academic Offering and Policy" sheetId="27" r:id="rId26"/>
+    <sheet name="Student Life_CategoryFreshman" sheetId="7" r:id="rId27"/>
+    <sheet name="Student Life_CategoryUndergrad" sheetId="44" r:id="rId28"/>
+    <sheet name="Student Life_Offered" sheetId="8" r:id="rId29"/>
+    <sheet name="Annual Expense_General" sheetId="35" r:id="rId30"/>
+    <sheet name="Annual Expense_CommuterResident" sheetId="43" r:id="rId31"/>
+    <sheet name="Annual Expense_Policy" sheetId="42" r:id="rId32"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId33"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId34"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId35"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId36"/>
+    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId37"/>
+    <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId38"/>
+    <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId39"/>
+    <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId40"/>
+    <sheet name="Faculty And Class Size_Other" sheetId="26" r:id="rId41"/>
+    <sheet name="Faculty And Class Size_Section" sheetId="31" r:id="rId42"/>
+    <sheet name="Faculty And Class Size_Subsec" sheetId="32" r:id="rId43"/>
+    <sheet name="Degree Conferred" sheetId="33" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="741">
   <si>
     <t>Answer</t>
   </si>
@@ -1702,9 +1703,6 @@
     <t xml:space="preserve">Priority date for filing required financial aid forms: March 10. </t>
   </si>
   <si>
-    <t>what is the notificationdate for first-year students apply for financial-aid ?</t>
-  </si>
-  <si>
     <t>Students notified on or about (date): January 15 (early action) - March 15 (regular decision). Students notified on a rolling basis: No</t>
   </si>
   <si>
@@ -2238,6 +2236,79 @@
   </si>
   <si>
     <t>Percentage of full-time and part-time first-year freshman students who are from out of state, who joined fraternities, or sororities, live in college-owned housing, live off campus, or are 25 years or older. The average age of full-time and part-time freshman students</t>
+  </si>
+  <si>
+    <t>Same as the previous description, but for part-time degree-seeking undergraduate students.</t>
+  </si>
+  <si>
+    <t>Same as the previous description, but for full-time degree-seeking undergraduate students.</t>
+  </si>
+  <si>
+    <t>what is the notification date for first-year students apply for financial-aid ?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's policy regarding institutional scholarship and grant aid for undergraduate degree-seeking nonresident
+aliens. Financial aid forms required to be submitted by domestic or non-resident alien financial aid applicants. Deadline for financial applications. Priority date, Reply date and notification date for financial aid. The type of financial aid loan and scholarship or grants available to undergraduate students. The criteria used in awarding institutional aid.</t>
+  </si>
+  <si>
+    <t>The total number of full-time instructional faculty in general, or by gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total number of full-time or part-time(or both) instructional faculty whose highest degree is a doctorate, or master's or bachelor, or whose highest degree is unknown. </t>
+  </si>
+  <si>
+    <t>the total number of full-time or part-time(or both) instructional faculty who are members of minority groups, or nonresident aliens.</t>
+  </si>
+  <si>
+    <t>The total number of full-time and part-time instructional faculty in stand-alone graduate/professional programs in which faculty teach only graduate level students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majors offered by Rose-Hulman. The percentage of degrees conferred/awarded for the following disciplinary areas: engineering, biological/life sciences, mathematics and statistics, interdisciplinary studies, physical sciences, and social sciences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of class subsections with number of students (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t>Number of class subsections with a number of students within an arbitrary number or more than that number or in an arbitrary range.</t>
+  </si>
+  <si>
+    <t>The average class size at Rose-Hulman. The number of class sections with a number of students more than or within a arbitrary number or in a arbitrary range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of class sections with number of students (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman make use of ACT and SAT or ACT and SAT subject test in admission decisions for first-time first-year degree-seeking applicants? If yes, please state how the tests will be used.</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman use ACT or SAT test scores for academic advising?</t>
+  </si>
+  <si>
+    <t>What date by which SAT or ACT scores must be received for fall term admission?</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman use the following tests for placement: SAT, ACT, SAT subject test, AP test, CLEP test, and institutional exam?</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does not use SAT or ACT test scores for academic advising.</t>
+  </si>
+  <si>
+    <t>ACT and SAT scores are considered in admission decisions if submitted. ACT and SAT scores without essay component are accepted.</t>
+  </si>
+  <si>
+    <t>The latest date by which SAT and ACT score must be received for fall term admission is February 1st</t>
+  </si>
+  <si>
+    <t>Test scores are optional this year due to COVID-19</t>
+  </si>
+  <si>
+    <t>Rose-Hulman uses AP and institutional exams for placement.</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's SAT and ACT policies. If Rose-Hulman makes use of ACT and SAT or ACT and SAT subject test in admission decisions for first-time first-year degree-seeking applicants. If Rose-Hulman uses ACT or SAT test scores for academic advising. The latest date SAT and ACT scores must be received for fall term admission. ACT and SAT test policies -  if tests are optional are not. The tests Rose-Hulman uses for placement.</t>
+  </si>
+  <si>
+    <t>What are Rose-Hulman's SAT and ACT test policies – Are tests recommended for some students, or if tests are not required to be submitted for some students or are they optional?</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2867,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2837,122 +2908,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8EC24-050E-45A2-BA78-4310BE4389C1}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B2" s="5">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B4" s="5">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3551768-8BC9-4E69-8C86-830DF8B3DA69}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2980,10 +2935,10 @@
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -2991,10 +2946,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -3002,10 +2957,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -3013,10 +2968,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>573</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -3027,7 +2982,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3035,7 +2990,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -3043,7 +2998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -3214,7 +3169,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3222,7 +3177,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3263,7 +3218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3386,7 +3341,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -3394,7 +3349,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3434,12 +3389,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0908D19-61E8-460E-9695-3943D19E115C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3592,7 +3547,211 @@
         <v>236</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3602,11 +3761,95 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A416E3-1A6E-44C4-BE5C-83B841156A96}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF2A7F2-CEC5-4907-876C-DED9EAEEDD17}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3684,7 +3927,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3732,12 +3975,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C307D05E-B833-4D75-9855-8E27A1B5E2C9}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3863,7 +4106,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -3915,12 +4158,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3682DD5-C270-454D-A655-BE30A9BBE78A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3998,7 +4241,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4046,7 +4289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057133-7837-4203-86B9-F46D32350538}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -4177,7 +4420,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -4220,122 +4463,6 @@
         <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6B56-71DD-4A78-89DB-D3F23672C01B}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4369,7 +4496,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4377,7 +4504,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4385,7 +4512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4393,7 +4520,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4401,7 +4528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4409,7 +4536,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4417,7 +4544,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4425,7 +4552,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4433,7 +4560,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4441,7 +4568,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4449,7 +4576,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4457,7 +4584,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4604,7 +4731,7 @@
         <v>236</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4612,7 +4739,7 @@
         <v>235</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4654,6 +4781,122 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998E6B56-71DD-4A78-89DB-D3F23672C01B}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -4946,7 +5189,7 @@
         <v>236</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4995,7 +5238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB852AE-A4C7-4284-9FBD-1CEEB9311916}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -5155,7 +5398,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5207,7 +5450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBFCBD-BE53-4EBE-BC28-AF1024B4BD2D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -5290,7 +5533,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -5338,7 +5581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -5363,7 +5606,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5371,7 +5614,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5379,7 +5622,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5387,7 +5630,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5395,7 +5638,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5403,7 +5646,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5422,7 +5665,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5470,7 +5713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -5520,7 +5763,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>130</v>
@@ -5539,10 +5782,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>695</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -5550,10 +5793,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -5561,10 +5804,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -5572,10 +5815,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -5583,7 +5826,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>132</v>
@@ -5594,7 +5837,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>133</v>
@@ -5605,10 +5848,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -5616,7 +5859,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>266</v>
@@ -5649,7 +5892,7 @@
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>136</v>
@@ -5737,7 +5980,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5777,7 +6020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ABA4F2-212D-4CBD-893A-EB2683BB9A32}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5838,7 +6081,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5882,7 +6125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECD6F-4371-4391-B58E-E510CF964736}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5913,7 +6156,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -5924,7 +6167,7 @@
         <v>146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -5935,7 +6178,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -6009,7 +6252,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6049,12 +6292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1BC2B9-A383-49AB-870B-3568000F0DBB}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6077,7 +6320,7 @@
         <v>144</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6085,7 +6328,7 @@
         <v>145</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6093,7 +6336,7 @@
         <v>148</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
@@ -6149,7 +6392,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6190,7 +6433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4CE82-100F-475B-B66F-A9CBAA32385B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -6284,7 +6527,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6321,149 +6564,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>678</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6491,7 +6591,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6499,7 +6599,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6507,7 +6607,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6515,7 +6615,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="5">
         <v>1295</v>
@@ -6523,7 +6623,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6531,7 +6631,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6539,7 +6639,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6574,7 +6674,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -6582,7 +6682,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6632,6 +6732,149 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81AE8E2-FE18-482C-A19C-560E4F8CFDBF}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6656,10 +6899,10 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>507</v>
@@ -6670,7 +6913,7 @@
         <v>521</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>507</v>
@@ -6681,7 +6924,7 @@
         <v>522</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>507</v>
@@ -6692,7 +6935,7 @@
         <v>523</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>507</v>
@@ -6700,10 +6943,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>507</v>
@@ -6711,10 +6954,10 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>507</v>
@@ -6725,7 +6968,7 @@
         <v>524</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>507</v>
@@ -6744,7 +6987,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -6752,7 +6995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0EB70-B1AD-40A9-9CC0-12B91CFD2E06}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6780,7 +7023,7 @@
         <v>518</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>507</v>
@@ -6791,7 +7034,7 @@
         <v>519</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>507</v>
@@ -6802,7 +7045,7 @@
         <v>520</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>507</v>
@@ -6821,7 +7064,7 @@
         <v>236</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -6829,12 +7072,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7032,7 +7275,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -7040,7 +7283,7 @@
         <v>235</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7081,12 +7324,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7230,7 +7473,7 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>349</v>
@@ -7296,7 +7539,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7336,12 +7579,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7546,11 +7789,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -7589,12 +7834,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7799,11 +8044,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -7842,12 +8089,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7884,7 +8131,7 @@
         <v>536</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -7895,7 +8142,7 @@
         <v>537</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -7903,7 +8150,7 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>538</v>
@@ -7914,10 +8161,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>549</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -7925,10 +8172,10 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="C7" t="s">
         <v>488</v>
@@ -7936,10 +8183,10 @@
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C8" t="s">
         <v>488</v>
@@ -7947,10 +8194,10 @@
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C9" t="s">
         <v>488</v>
@@ -7958,10 +8205,10 @@
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C10" t="s">
         <v>488</v>
@@ -7969,10 +8216,10 @@
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C11" t="s">
         <v>488</v>
@@ -7986,23 +8233,25 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>720</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A9967-94EA-41CF-ACB5-C81483AD239D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8059,18 +8308,20 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8110,11 +8361,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -8204,11 +8455,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -8252,120 +8505,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8394,7 +8533,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8402,7 +8541,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8410,7 +8549,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8426,7 +8565,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8434,7 +8573,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8442,7 +8581,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8477,7 +8616,7 @@
         <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8485,7 +8624,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8534,11 +8673,127 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ED34DA-E2CB-4859-9A96-48DF7AE0B7A7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K16:K17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8592,11 +8847,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -8611,7 +8868,7 @@
         <v>238</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8635,12 +8892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8729,31 +8986,33 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>237</v>
+      <c r="B11" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>203</v>
@@ -8761,9 +9020,17 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8772,12 +9039,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8851,34 +9118,58 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>237</v>
+      <c r="A9" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>203</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8887,12 +9178,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A321CDB-4432-42F8-8542-C3389F944EAE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8915,10 +9206,10 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>488</v>
@@ -8929,7 +9220,7 @@
         <v>489</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>488</v>
@@ -8940,7 +9231,7 @@
         <v>490</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>488</v>
@@ -8951,7 +9242,7 @@
         <v>491</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>488</v>
@@ -8962,7 +9253,7 @@
         <v>492</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>488</v>
@@ -8973,7 +9264,7 @@
         <v>493</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>488</v>
@@ -8984,7 +9275,7 @@
         <v>494</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>488</v>
@@ -8992,13 +9283,29 @@
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -9185,7 +9492,7 @@
         <v>236</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9193,7 +9500,7 @@
         <v>235</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9258,10 +9565,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" t="s">
         <v>639</v>
-      </c>
-      <c r="B2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9277,7 +9584,7 @@
         <v>236</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -9287,210 +9594,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="81.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="388.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F6232-9681-4454-AEAB-44094C0C14CF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -9514,7 +9617,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -9522,7 +9625,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9533,7 +9636,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9541,7 +9644,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9549,7 +9652,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9589,7 +9692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DAF86C-B225-4BA6-A035-2334E730C14A}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -9613,7 +9716,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9621,7 +9724,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9632,7 +9735,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9640,7 +9743,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9648,7 +9751,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9686,4 +9789,120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8EC24-050E-45A2-BA78-4310BE4389C1}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B637AC-02DE-4D46-9238-D236CF824FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC25BF8-7EE3-40BE-8592-EBFA59D02E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -1609,31 +1609,16 @@
     <t xml:space="preserve">yes </t>
   </si>
   <si>
-    <t>$49,479</t>
-  </si>
-  <si>
     <t>What is the required fee for first-year or undergraduate students?</t>
   </si>
   <si>
-    <t>$1,035</t>
-  </si>
-  <si>
     <t>What is the Room and board fee for first-year or undergraduate students?</t>
   </si>
   <si>
-    <t>$15,690</t>
-  </si>
-  <si>
     <t>What is the Room fee only for first-year or undergraduate students?</t>
   </si>
   <si>
-    <t>$9,441</t>
-  </si>
-  <si>
     <t>What is the board fee only for first-year or undergraduate students?</t>
-  </si>
-  <si>
-    <t>$6,249</t>
   </si>
   <si>
     <t>Is there any other fee cost for first-year or undergraduate students?</t>
@@ -1748,9 +1733,6 @@
     <t>Other fee cost for undergraduate student includes: Freshman Laptop $2,400 (First Fall Term for freshman only)</t>
   </si>
   <si>
-    <t>What is the approximate date of the academic year tuition fee cost releasing?</t>
-  </si>
-  <si>
     <t>What is the Rose-Hulman's tuition for first-year students?</t>
   </si>
   <si>
@@ -2103,9 +2085,6 @@
     <t>The extracurricular activities or clubs Rose-Hulman offers, the different types of rotc offered at Rose-Hulman and the type of college owned/affiliated housing available at Rose-Hulman</t>
   </si>
   <si>
-    <t xml:space="preserve">$49,479 </t>
-  </si>
-  <si>
     <t>For commuters living at home, the cost for board it is estimated to be $900, and for commuters not living at home, it is estimated to be $6,249</t>
   </si>
   <si>
@@ -2152,9 +2131,6 @@
   </si>
   <si>
     <t>Tuition and fee do not change by the undergraduate instructional program.</t>
-  </si>
-  <si>
-    <t>45017</t>
   </si>
   <si>
     <t>Amount of non-need-based or need-based federal, state, or institutional scholarships or grants, awarded to students. The amount of need-based or non-need-based state or federal self-help work study awarded to students. The amount of need-based or non-need-based athletic awards, parent loan, tuition waiver awarded to students.</t>
@@ -2309,6 +2285,30 @@
   </si>
   <si>
     <t>What are Rose-Hulman's SAT and ACT test policies – Are tests recommended for some students, or if tests are not required to be submitted for some students or are they optional?</t>
+  </si>
+  <si>
+    <t>What is the approximate date that the final tuition fee cost or cost of attendance for this year will be available</t>
+  </si>
+  <si>
+    <t>The approximate date that the final cost of attendance for this year will be available is April 1st.</t>
+  </si>
+  <si>
+    <t>Rose-Hulman's tuition for first-year students is $49,479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose-Hulman's tuition for undergraduate students is $49,479 </t>
+  </si>
+  <si>
+    <t>The cost of required for for undergraduate students is $1,035</t>
+  </si>
+  <si>
+    <t>The room and board fee for first-year undergraduate students is $15,690</t>
+  </si>
+  <si>
+    <t>The board fee for first-year and undergraduate students is $6,249</t>
+  </si>
+  <si>
+    <t>The room fee for first-year and undergraduate students is $9,441</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2867,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2935,10 +2935,10 @@
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -2982,7 +2982,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -2990,7 +2990,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3169,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3177,7 +3177,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3341,7 +3341,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -3349,7 +3349,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3547,7 +3547,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3743,7 +3743,7 @@
         <v>236</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3764,7 +3764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A416E3-1A6E-44C4-BE5C-83B841156A96}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3784,42 +3784,42 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3835,7 +3835,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -3927,7 +3927,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4106,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4114,7 +4114,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4241,7 +4241,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4420,7 +4420,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -4428,7 +4428,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4496,7 +4496,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4731,7 +4731,7 @@
         <v>236</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4739,7 +4739,7 @@
         <v>235</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4847,7 +4847,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4855,7 +4855,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5189,7 +5189,7 @@
         <v>236</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5197,7 +5197,7 @@
         <v>235</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5266,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
@@ -5398,7 +5398,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5406,7 +5406,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5533,7 +5533,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -5541,7 +5541,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,7 +5606,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5665,7 +5665,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5763,7 +5763,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>130</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>132</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>133</v>
@@ -5848,10 +5848,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>266</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>136</v>
@@ -5980,7 +5980,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6156,7 +6156,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -6167,7 +6167,7 @@
         <v>146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -6178,7 +6178,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -6252,7 +6252,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6320,7 +6320,7 @@
         <v>144</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6328,7 +6328,7 @@
         <v>145</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6336,7 +6336,7 @@
         <v>148</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
@@ -6392,7 +6392,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6527,7 +6527,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6591,7 +6591,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B5" s="5">
         <v>1295</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -6682,7 +6682,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6735,8 +6735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6764,12 +6764,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>554</v>
+        <v>733</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>689</v>
+        <v>734</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>507</v>
@@ -6777,65 +6777,65 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>508</v>
+        <v>735</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>510</v>
+        <v>737</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>512</v>
+        <v>738</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>514</v>
+        <v>740</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>516</v>
+        <v>739</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>507</v>
@@ -6843,10 +6843,10 @@
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>507</v>
@@ -6865,7 +6865,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -6899,10 +6899,10 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>507</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>507</v>
@@ -6921,10 +6921,10 @@
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>507</v>
@@ -6932,10 +6932,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>507</v>
@@ -6943,10 +6943,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>507</v>
@@ -6954,10 +6954,10 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>507</v>
@@ -6965,10 +6965,10 @@
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>507</v>
@@ -6987,7 +6987,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -7020,10 +7020,10 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>507</v>
@@ -7031,10 +7031,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>507</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>507</v>
@@ -7064,7 +7064,7 @@
         <v>236</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -7275,7 +7275,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -7283,7 +7283,7 @@
         <v>235</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7473,7 +7473,7 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>349</v>
@@ -7539,7 +7539,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7794,7 +7794,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8049,7 +8049,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8117,10 +8117,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -8128,10 +8128,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -8139,10 +8139,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -8161,10 +8161,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -8172,10 +8172,10 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
         <v>488</v>
@@ -8183,10 +8183,10 @@
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
         <v>488</v>
@@ -8194,10 +8194,10 @@
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C9" t="s">
         <v>488</v>
@@ -8205,10 +8205,10 @@
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C10" t="s">
         <v>488</v>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C11" t="s">
         <v>488</v>
@@ -8238,7 +8238,7 @@
         <v>236</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8321,7 +8321,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8460,7 +8460,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -8533,7 +8533,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8624,7 +8624,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8739,7 +8739,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -8852,7 +8852,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8991,7 +8991,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8999,7 +8999,7 @@
         <v>235</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9130,7 +9130,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -9138,7 +9138,7 @@
         <v>235</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9206,10 +9206,10 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>488</v>
@@ -9220,7 +9220,7 @@
         <v>489</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>488</v>
@@ -9231,7 +9231,7 @@
         <v>490</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>488</v>
@@ -9242,7 +9242,7 @@
         <v>491</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>488</v>
@@ -9253,7 +9253,7 @@
         <v>492</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>488</v>
@@ -9264,7 +9264,7 @@
         <v>493</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>488</v>
@@ -9275,7 +9275,7 @@
         <v>494</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>488</v>
@@ -9283,10 +9283,10 @@
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>488</v>
@@ -9305,7 +9305,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -9492,7 +9492,7 @@
         <v>236</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9500,7 +9500,7 @@
         <v>235</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9565,10 +9565,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9584,7 +9584,7 @@
         <v>236</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9636,7 +9636,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9644,7 +9644,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9652,7 +9652,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9716,7 +9716,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9735,7 +9735,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9743,7 +9743,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9751,7 +9751,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9815,7 +9815,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9858,7 +9858,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9866,7 +9866,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC25BF8-7EE3-40BE-8592-EBFA59D02E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC9D89-A1D0-46EB-BD47-2E48814E96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -2263,9 +2263,6 @@
     <t>What date by which SAT or ACT scores must be received for fall term admission?</t>
   </si>
   <si>
-    <t>Does Rose-Hulman use the following tests for placement: SAT, ACT, SAT subject test, AP test, CLEP test, and institutional exam?</t>
-  </si>
-  <si>
     <t>Rose-Hulman does not use SAT or ACT test scores for academic advising.</t>
   </si>
   <si>
@@ -2309,6 +2306,9 @@
   </si>
   <si>
     <t>The room fee for first-year and undergraduate students is $9,441</t>
+  </si>
+  <si>
+    <t>Does Rose-Hulman use the following tests for placement : SAT, ACT, SAT subject test, AP test, CLEP test, and institutional exam?</t>
   </si>
 </sst>
 </file>
@@ -3764,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A416E3-1A6E-44C4-BE5C-83B841156A96}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3787,7 +3787,7 @@
         <v>722</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3795,7 +3795,7 @@
         <v>723</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -3803,23 +3803,23 @@
         <v>724</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3835,7 +3835,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -6735,8 +6735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD284E4D-E296-45CE-8E65-A3C009D67DE2}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6766,10 +6766,10 @@
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>507</v>
@@ -6780,7 +6780,7 @@
         <v>549</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>507</v>
@@ -6791,7 +6791,7 @@
         <v>550</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>507</v>
@@ -6802,7 +6802,7 @@
         <v>508</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>507</v>
@@ -6813,7 +6813,7 @@
         <v>509</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>507</v>
@@ -6824,7 +6824,7 @@
         <v>510</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>507</v>
@@ -6835,7 +6835,7 @@
         <v>511</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>507</v>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC9D89-A1D0-46EB-BD47-2E48814E96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA677A6-3874-419A-BDA3-8C965DF12A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA677A6-3874-419A-BDA3-8C965DF12A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9271012-F191-4195-95CB-94520EE491D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="38" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -1444,9 +1444,6 @@
     <t>What is the number of class sections with 100 or more students?</t>
   </si>
   <si>
-    <t>The average class size at Rose-Hulman Is 16</t>
-  </si>
-  <si>
     <t>What is the number of class subsections with 2 - 9 students?</t>
   </si>
   <si>
@@ -2251,9 +2248,6 @@
     <t>The average class size at Rose-Hulman. The number of class sections with a number of students more than or within a arbitrary number or in a arbitrary range</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of class sections with number of students (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
-  </si>
-  <si>
     <t>Does Rose-Hulman make use of ACT and SAT or ACT and SAT subject test in admission decisions for first-time first-year degree-seeking applicants? If yes, please state how the tests will be used.</t>
   </si>
   <si>
@@ -2309,6 +2303,12 @@
   </si>
   <si>
     <t>Does Rose-Hulman use the following tests for placement : SAT, ACT, SAT subject test, AP test, CLEP test, and institutional exam?</t>
+  </si>
+  <si>
+    <t>The average class size from CDS at Rose-Hulman Is 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From CDS, the number of class sections with number of students (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt;  </t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2867,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2935,10 +2935,10 @@
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>564</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -2982,7 +2982,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -2990,7 +2990,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -3169,7 +3169,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3177,7 +3177,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +3242,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -3349,7 +3349,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3547,7 +3547,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3743,7 +3743,7 @@
         <v>236</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3764,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A416E3-1A6E-44C4-BE5C-83B841156A96}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3784,42 +3784,42 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>723</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3835,7 +3835,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -3927,7 +3927,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4106,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4114,7 +4114,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4241,7 +4241,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4420,7 +4420,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -4428,7 +4428,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4439,7 +4439,7 @@
         <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4496,7 +4496,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4731,7 +4731,7 @@
         <v>236</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4739,7 +4739,7 @@
         <v>235</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4831,7 +4831,7 @@
         <v>414</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4847,7 +4847,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4855,7 +4855,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5061,7 +5061,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5189,7 +5189,7 @@
         <v>236</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5197,7 +5197,7 @@
         <v>235</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5266,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
@@ -5398,7 +5398,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5406,7 +5406,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5533,7 +5533,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -5541,7 +5541,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,7 +5606,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5665,7 +5665,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5763,7 +5763,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>130</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>132</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>133</v>
@@ -5848,10 +5848,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>266</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>136</v>
@@ -5980,7 +5980,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6156,7 +6156,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -6167,7 +6167,7 @@
         <v>146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -6178,7 +6178,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -6252,7 +6252,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6320,7 +6320,7 @@
         <v>144</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6328,7 +6328,7 @@
         <v>145</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6336,7 +6336,7 @@
         <v>148</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
@@ -6392,7 +6392,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6527,7 +6527,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6591,7 +6591,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B5" s="5">
         <v>1295</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -6682,7 +6682,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,7 +6722,7 @@
         <v>262</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -6755,101 +6755,101 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6865,7 +6865,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -6899,79 +6899,79 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6987,7 +6987,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -7020,35 +7020,35 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7064,7 +7064,7 @@
         <v>236</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>334</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>335</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>336</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>328</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>328</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>328</v>
@@ -7275,7 +7275,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -7283,7 +7283,7 @@
         <v>235</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7473,7 +7473,7 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>349</v>
@@ -7539,7 +7539,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7794,7 +7794,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8049,7 +8049,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8117,10 +8117,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -8128,10 +8128,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -8139,10 +8139,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -8161,10 +8161,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -8172,57 +8172,57 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8238,7 +8238,7 @@
         <v>236</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8321,7 +8321,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8460,7 +8460,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -8533,7 +8533,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8616,7 +8616,7 @@
         <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8624,7 +8624,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8676,8 +8676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680EF845-E97A-4774-A116-33BCEE8AAAAA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8739,7 +8739,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -8852,7 +8852,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8896,14 +8896,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -8919,7 +8919,7 @@
         <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8986,12 +8986,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8999,7 +8999,7 @@
         <v>235</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9063,7 +9063,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -9138,7 +9138,7 @@
         <v>235</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9206,90 +9206,90 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9305,7 +9305,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -9492,7 +9492,7 @@
         <v>236</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9500,7 +9500,7 @@
         <v>235</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9565,10 +9565,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2" t="s">
         <v>632</v>
-      </c>
-      <c r="B2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9584,7 +9584,7 @@
         <v>236</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9636,7 +9636,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9644,7 +9644,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9652,7 +9652,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9716,7 +9716,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9735,7 +9735,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9743,7 +9743,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9751,7 +9751,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9815,7 +9815,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9858,7 +9858,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9866,7 +9866,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9271012-F191-4195-95CB-94520EE491D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A89606-D486-4A14-9A3B-2FFDA8FCFF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="38" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="32" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Admission_Applied" sheetId="40" r:id="rId7"/>
     <sheet name="Admission_Admitted" sheetId="39" r:id="rId8"/>
     <sheet name="Admission_Enrolled" sheetId="37" r:id="rId9"/>
-    <sheet name="Admission_Condition" sheetId="38" r:id="rId10"/>
+    <sheet name="Admission_Waitlist" sheetId="38" r:id="rId10"/>
     <sheet name="Admission_High School Required" sheetId="29" r:id="rId11"/>
     <sheet name="Admission_High School Recommend" sheetId="28" r:id="rId12"/>
     <sheet name="Admission_Policies" sheetId="9" r:id="rId13"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="768">
   <si>
     <t>Answer</t>
   </si>
@@ -952,9 +952,6 @@
     <t>What is the average financial aid package for degree-seeking first-time full-time freshman students who were awarded any financial aid?</t>
   </si>
   <si>
-    <t>What is the average need-based scholarship or grant awarded to degree-seeking first-time full-time freshman students?</t>
-  </si>
-  <si>
     <t>What is the average need-based self-help awarded to degree-seeking first-time full-time freshman students ?</t>
   </si>
   <si>
@@ -1060,9 +1057,6 @@
     <t>What is the number of degree-seeking part-time undergraduate students who were awarded an institutional non-need-based athletic scholarship or grant?</t>
   </si>
   <si>
-    <t>What is the average amount of institutional non-need-based athletic scholarship and grant to degree-seeking part-time undergraduate students?</t>
-  </si>
-  <si>
     <t>$1355304</t>
   </si>
   <si>
@@ -1084,12 +1078,6 @@
     <t>$738685</t>
   </si>
   <si>
-    <t>$10691241</t>
-  </si>
-  <si>
-    <t>$979015</t>
-  </si>
-  <si>
     <t>$771042</t>
   </si>
   <si>
@@ -1105,81 +1093,15 @@
     <t>What is the amount of non-based athletic award awarded to students?</t>
   </si>
   <si>
-    <t>$4938549</t>
-  </si>
-  <si>
-    <t>$375919</t>
-  </si>
-  <si>
     <t>Rose-Hulman uses federal methology in awarding institutional aid.</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>73.5%</t>
-  </si>
-  <si>
-    <t>$39903</t>
-  </si>
-  <si>
-    <t>$38185</t>
-  </si>
-  <si>
-    <t>$3840</t>
-  </si>
-  <si>
-    <t>$3327</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>$21671</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>1394</t>
-  </si>
-  <si>
-    <t>$35451</t>
-  </si>
-  <si>
-    <t>$33608</t>
-  </si>
-  <si>
-    <t>$4679</t>
-  </si>
-  <si>
-    <t>$4351</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>$16643</t>
-  </si>
-  <si>
-    <t>64.7%</t>
-  </si>
-  <si>
-    <t>$26732</t>
-  </si>
-  <si>
-    <t>$24932</t>
-  </si>
-  <si>
-    <t>$4500</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>$14293</t>
-  </si>
-  <si>
     <t>What is Rose-Hulman's mailing address?</t>
   </si>
   <si>
@@ -1250,9 +1172,6 @@
   </si>
   <si>
     <t>What is the student to faculty ratio at Rose-Hulman?</t>
-  </si>
-  <si>
-    <t>What is the number of degree-seeking full-time full-time freshman students who applied for need-based financial aid</t>
   </si>
   <si>
     <t>What special study programs are offered at Rose-Hulman?</t>
@@ -1404,9 +1323,6 @@
   </si>
   <si>
     <t>What is the total number of part-time instructional faculty who are nonresident aliens?</t>
-  </si>
-  <si>
-    <t>The total number of [enrollment_status] instructional faculty who are (xor {member of [*minority] group} {nonresident alien})   is &lt;value&gt;</t>
   </si>
   <si>
     <t>The student to faculty ratio at Rose-Hulman is 10 to 1</t>
@@ -1736,9 +1652,6 @@
     <t>What is Rose-Hulman's tuition for undergraduate students?</t>
   </si>
   <si>
-    <t>The amount of [need_non_need_base_aid] (xor [self-help_aid] {[financial_aid_type] scholarship or grants} (xor {tuition [*waiver]} (xor [*parent] [*student]) loan)))</t>
-  </si>
-  <si>
     <t>15.7% bachelor's degrees conferred are Computer and information science</t>
   </si>
   <si>
@@ -2010,9 +1923,6 @@
     <t>How many degree-seeking undergraduate caucasian students are enrolled?</t>
   </si>
   <si>
-    <t>The number of undergraduate degree-seeking students enrolled by race and immigration status. This includes students enrolled who are either Hispanics, African American, Caucasian, or Pacific Islander, have two or more races or whose race is unknown.</t>
-  </si>
-  <si>
     <t>The (xor [*percent] number) of students {who graduated (xor {[range] [number] years and [number] years} {[range] [number] years}) in the [initial_final] [year] cohort is &lt;value&gt;</t>
   </si>
   <si>
@@ -2022,9 +1932,6 @@
     <t>The  (xor [*percent] number) of degree-seeking undergraduate students enrolled    (xor {of [^*unknown] race} (xor {who are [^race]} {nonresidence alien})) is  &lt;value&gt;</t>
   </si>
   <si>
-    <t>Enrollment by race for first-time first-year students.</t>
-  </si>
-  <si>
     <t>The cohort of students who enrolled at Rose-Hulman in 2014, and graduated within four, five, or six year and graduation rate for those years. You can also ask all of the things paired with financial aid in terms of student who received pell-grant, student who received stafford loan but not pell grant and student who received neither.</t>
   </si>
   <si>
@@ -2134,9 +2041,6 @@
   </si>
   <si>
     <t>What is the average need-based loan awarded to degree-seeking first-time full-time freshman students who were awarded any need-based self-help aid?</t>
-  </si>
-  <si>
-    <t>Various statistics on financial aid, including the number of degree-seeking, full-time freshman students who applied for need-based financial aid. The number of freshmen who were determined to have financial aid. The number of freshmen who were awarded any need-based or non-need-based scholarship or grants and need-based self-help aid. The number of freshmen whose financial need was fully met. The average amount of financial aid package, or need-based scholarships or grants, and need-based self-help, or loans, awarded to freshman students. The average amount of non-need-based institutional scholarships or grants awarded o freshman students who had no financial need. The number of freshman students who were awarded a non-needed-based institutional athletic scholarship or grant and the average amount of such aid awarded. All information is for full-time freshman students.</t>
   </si>
   <si>
     <t>Does Rose-Hulman require high school transcript to apply for transfer applicants?</t>
@@ -2309,13 +2213,190 @@
   </si>
   <si>
     <t xml:space="preserve">From CDS, the number of class sections with number of students (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt;  </t>
+  </si>
+  <si>
+    <t>The number of undergraduate degree-seeking students enrolled by race and nonresident-alien(immigration status). This includes students enrolled who are either Hispanics, African American, Caucasian, or Pacific Islander, have two or more races or whose race is unknown.</t>
+  </si>
+  <si>
+    <t>Enrollment by race and nonresident-alien(immigration status) for first-time first-year students.</t>
+  </si>
+  <si>
+    <t>The total number of [^enrollment_status] instructional faculty who are (xor {member of [*minority] group} {nonresident alien})   is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>Various statistics on financial aid, including the number of degree-seeking, full-time freshman students who applied for need-based financial aid. The number of freshmen who were determined to have financial aid. The number of freshmen who were awarded any need-based or non-need-based scholarship or grants and need-based self-help aid. The number of freshmen whose financial need was fully met. The average amount of financial aid package, need-based scholarships or grants, need-based self-help, or loans, awarded to freshman students. The average amount of non-need-based institutional scholarships or grants awarded o freshman students who had no financial need. The number of freshman students who were awarded a non-needed-based institutional athletic scholarship or grant and the average amount of such aid awarded. All information is for full-time freshman students.</t>
+  </si>
+  <si>
+    <t>The amount of need-based parent loan awarded to students is $4938549.</t>
+  </si>
+  <si>
+    <t>The amount of non-need-based parent loan awarded to students is $375919.</t>
+  </si>
+  <si>
+    <t>The amount of need-need-based student loan borrowed by undergraduate students is $1,250,122.</t>
+  </si>
+  <si>
+    <t>The amount of non-need-based student loan borrowed by undergraduate students is $10691241.</t>
+  </si>
+  <si>
+    <t>The amount of [^need_non_need_base_aid] (xor [self-help_aid] {[^financial_aid_type] scholarship or grants} {tuition [^*waiver]})  awarded to students is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>What is the number of degree-seeking first-time full-time freshman students who applied for need-based financial aid</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking full-time full-time freshman students who applied for need-based financial aid is 466</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time full-time freshman students that applied for need-based aid and were determined to have financial need is 360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The number of degree-seeking first-time full-time freshman students who were determined to have financial need and were awarded any financial aid is 360</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time full-time freshman students who were awarded any need-based scholarship or grant aid is 357</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time full-time freshman students who were awarded any need-based self-help aid is 236</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time full-time freshman students who were awarded any non-need-based scholarship or grant aid is 168</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time full-time freshman students whose financial need was fully met is 124</t>
+  </si>
+  <si>
+    <t>On average, the percentage of financial need that was met for degree-seeking first-time full-time freshman who were awarded any need-based aid is 73.5%</t>
+  </si>
+  <si>
+    <t>The average financial aid package for degree-seeking first time full-time freshman students who were awarded any financial aid is $39903</t>
+  </si>
+  <si>
+    <t>The average amount  of need-based scholarship or grant awarded to degree-seeking first-time full-time freshman is $38185</t>
+  </si>
+  <si>
+    <t>What is the average amount of need-based scholarship or grant awarded to degree-seeking first-time full-time freshman students?</t>
+  </si>
+  <si>
+    <t>The average need-based self-help awarded to degree-seeking first-time full-time freshman students is $3840</t>
+  </si>
+  <si>
+    <t>The average need-based loan awarded to degree-seeing first-time full-time freshman students who were awarded any need-based self-help aid is $3327</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking first-time full-time freshman students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid is 170</t>
+  </si>
+  <si>
+    <t>The average amount of institutional non-need-based scholarship and grant aid awarded to degree-seeking full-time freshman students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid is $21,671.</t>
+  </si>
+  <si>
+    <t>There is no available information on the number of degree-seeking first-time full-time freshman students who were awarded an institutional non-need-based athletic scholarship or grant.</t>
+  </si>
+  <si>
+    <t>There is no available information on the average amount of institutional non-need-based athletic scholarship and grant aid awarded to degree-seeking first-time full-time freshman students.</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking full-time undergraduate students who applied for need-based financial aid is 1,394.</t>
+  </si>
+  <si>
+    <t>Out of the total number of students who applied for need-based financial aid, 1,151 were determined to have financial need.</t>
+  </si>
+  <si>
+    <t>Among those who had financial need, 1,150 were awarded some form of financial aid.</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking full-time undergraduate students who were awarded any need-based scholarship or grant aid is 1,144.</t>
+  </si>
+  <si>
+    <t>A total of 829 degree-seeking full-time undergraduate students were awarded any need-based self-help aid.</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking full-time undergraduate students who were awarded any non-need-based scholarship or grant aid is 1,009.</t>
+  </si>
+  <si>
+    <t>284 degree-seeking full-time undergraduate students had their financial need fully met.</t>
+  </si>
+  <si>
+    <t>On average, the percentage of financial need that was met for degree-seeking full-time undergraduate students who were awarded any need-based aid is 65.9%.</t>
+  </si>
+  <si>
+    <t>The average financial aid package for degree-seeking full-time undergraduate students who were awarded any financial aid is $35,451.</t>
+  </si>
+  <si>
+    <t>The average need-based scholarship or grant awarded to degree-seeking full-time undergraduate students is $33,608.</t>
+  </si>
+  <si>
+    <t>Degree-seeking full-time undergraduate students who were awarded any need-based self-help aid received an average of $4,679.</t>
+  </si>
+  <si>
+    <t>Among those who were awarded any need-based self-help aid, the average need-based loan amount was $4,351.</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking full-time undergraduate students who had no financial need and were awarded institutional non-need-based scholarship or grant aid is 794.</t>
+  </si>
+  <si>
+    <t>The average amount of institutional non-need-based scholarship and grant aid awarded to degree-seeking full-time students who had no financial need and who were awarded institutional non-need-based scholarship or grant aid is $16,643.</t>
+  </si>
+  <si>
+    <t>There is no available information on the number of degree-seeking full-time undergraduate students who were awarded an institutional non-need-based athletic scholarship or grant, or the average amount of such aid.</t>
+  </si>
+  <si>
+    <t>There were 6 degree-seeking part-time undergraduate students who applied for need-based financial aid.</t>
+  </si>
+  <si>
+    <t>Out of the degree-seeking part-time undergraduate students who applied for need-based financial aid, 5 were determined to have financial need.</t>
+  </si>
+  <si>
+    <t>Among the degree-seeking part-time undergraduate students who were determined to have financial need, 5 were awarded some form of financial aid.</t>
+  </si>
+  <si>
+    <t>A total of 5 degree-seeking part-time undergraduate students were awarded need-based scholarship or grant aid.</t>
+  </si>
+  <si>
+    <t>Only 2 degree-seeking part-time undergraduate students were awarded need-based self-help aid.</t>
+  </si>
+  <si>
+    <t>The number of degree-seeking part-time undergraduate students whose financial need was fully met was 1.</t>
+  </si>
+  <si>
+    <t>On average, 64.7% of financial need was met for degree-seeking part-time undergraduate students who were awarded any need-based aid.</t>
+  </si>
+  <si>
+    <t>The average financial aid package awarded to degree-seeking part-time undergraduate students who were awarded any financial aid was $26732.</t>
+  </si>
+  <si>
+    <t>The average need-based scholarship or grant awarded to degree-seeking part-time undergraduate students was $24932.</t>
+  </si>
+  <si>
+    <t>The average need-based self-help awarded to degree-seeking part-time undergraduate students was $4500.</t>
+  </si>
+  <si>
+    <t>The average need-based loan awarded to students who were awarded any need-based self-help aid was $4500.</t>
+  </si>
+  <si>
+    <t>A total of 10 degree-seeking part-time undergraduate students who had no financial need were awarded institutional non-need-based scholarship or grant aid.</t>
+  </si>
+  <si>
+    <t>The average amount of institutional non-need-based scholarship and grant aid awarded to degree-seeking part-time students who had no financial need was $14293.</t>
+  </si>
+  <si>
+    <t>There is no information available regarding the number of degree-seeking part-time undergraduate students who were awarded an institutional non-need-based athletic scholarship or grant.</t>
+  </si>
+  <si>
+    <t>There is no information available regarding the average amount of institutional non-need-based athletic scholarship and grant awarded to degree-seeking part-time undergraduate students.</t>
+  </si>
+  <si>
+    <t>What is the average amount of institutional non-need-based athletic scholarship and grants awarded to degree-seeking part-time undergraduate students?</t>
+  </si>
+  <si>
+    <t>There is no available information on the average amount of institutional non-need-based athletic scholarships and grants awarded to degree-seeking part-time undergraduate students.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2349,6 +2430,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2371,7 +2463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2404,6 +2496,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2713,10 +2817,10 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -2724,10 +2828,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -2735,10 +2839,10 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -2746,10 +2850,10 @@
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -2757,10 +2861,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -2768,10 +2872,10 @@
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -2779,10 +2883,10 @@
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -2790,10 +2894,10 @@
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -2801,10 +2905,10 @@
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -2812,10 +2916,10 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -2823,10 +2927,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -2834,10 +2938,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -2845,10 +2949,10 @@
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -2867,7 +2971,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2912,7 +3016,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2935,10 +3039,10 @@
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -2946,10 +3050,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -2957,10 +3061,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -2968,10 +3072,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -2982,7 +3086,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -2990,7 +3094,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -3026,7 +3130,7 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -3037,7 +3141,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -3048,7 +3152,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -3059,7 +3163,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -3070,7 +3174,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -3081,7 +3185,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -3092,7 +3196,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -3103,7 +3207,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -3114,7 +3218,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -3125,7 +3229,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -3136,7 +3240,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -3147,10 +3251,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -3169,7 +3273,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3177,7 +3281,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +3346,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3250,7 +3354,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3258,7 +3362,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3266,7 +3370,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3274,7 +3378,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3282,7 +3386,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3290,7 +3394,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3298,7 +3402,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3306,7 +3410,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3314,7 +3418,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3322,7 +3426,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3341,7 +3445,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -3349,7 +3453,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3547,7 +3651,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3591,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3599,7 +3703,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3607,7 +3711,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3615,7 +3719,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3623,7 +3727,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3631,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3639,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3647,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3655,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3663,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3671,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3679,7 +3783,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3687,7 +3791,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3695,7 +3799,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3703,7 +3807,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3711,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,7 +3823,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3727,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3743,7 +3847,7 @@
         <v>236</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3751,7 +3855,7 @@
         <v>235</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3784,42 +3888,42 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3835,7 +3939,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -3927,7 +4031,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3935,7 +4039,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4210,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4114,7 +4218,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4241,7 +4345,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4249,7 +4353,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4420,7 +4524,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>658</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -4428,7 +4532,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4439,7 +4543,7 @@
         <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4496,7 +4600,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4504,7 +4608,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4512,7 +4616,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4520,7 +4624,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4528,7 +4632,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4536,7 +4640,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4544,7 +4648,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4552,7 +4656,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4560,7 +4664,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4568,7 +4672,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4576,7 +4680,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4584,7 +4688,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4731,7 +4835,7 @@
         <v>236</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4739,7 +4843,7 @@
         <v>235</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4804,7 +4908,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
@@ -4812,7 +4916,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>54</v>
@@ -4820,7 +4924,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -4828,10 +4932,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4847,7 +4951,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>659</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4855,7 +4959,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5061,7 +5165,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5189,7 +5293,7 @@
         <v>236</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5197,7 +5301,7 @@
         <v>235</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5370,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
@@ -5277,7 +5381,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>92</v>
@@ -5288,7 +5392,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>93</v>
@@ -5299,7 +5403,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>94</v>
@@ -5310,7 +5414,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>95</v>
@@ -5321,7 +5425,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>96</v>
@@ -5332,7 +5436,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>102</v>
@@ -5343,7 +5447,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>102</v>
@@ -5354,7 +5458,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>102</v>
@@ -5365,10 +5469,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -5376,10 +5480,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -5398,7 +5502,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5406,7 +5510,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5474,7 +5578,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>115</v>
@@ -5482,7 +5586,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>116</v>
@@ -5490,7 +5594,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>117</v>
@@ -5498,7 +5602,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>118</v>
@@ -5506,7 +5610,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
@@ -5514,7 +5618,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>119</v>
@@ -5533,7 +5637,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -5541,7 +5645,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,7 +5710,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5614,7 +5718,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5622,7 +5726,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5630,7 +5734,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5638,7 +5742,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5646,7 +5750,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5665,7 +5769,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5673,7 +5777,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5763,7 +5867,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>130</v>
@@ -5782,10 +5886,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -5793,10 +5897,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -5804,10 +5908,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -5815,10 +5919,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -5826,7 +5930,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>132</v>
@@ -5837,7 +5941,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>133</v>
@@ -5848,10 +5952,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -5859,7 +5963,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>266</v>
@@ -5892,7 +5996,7 @@
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>136</v>
@@ -5980,7 +6084,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6043,15 +6147,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -6059,10 +6163,10 @@
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -6081,7 +6185,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6156,7 +6260,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -6167,7 +6271,7 @@
         <v>146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -6178,7 +6282,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -6252,7 +6356,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6320,7 +6424,7 @@
         <v>144</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6328,7 +6432,7 @@
         <v>145</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6336,7 +6440,7 @@
         <v>148</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
@@ -6392,7 +6496,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6527,7 +6631,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6572,7 +6676,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6591,7 +6695,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6599,7 +6703,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6607,7 +6711,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6615,7 +6719,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="B5" s="5">
         <v>1295</v>
@@ -6623,7 +6727,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6631,7 +6735,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6639,7 +6743,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6669,12 +6773,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>641</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -6682,7 +6786,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,7 +6826,7 @@
         <v>262</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6755,101 +6859,101 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6865,7 +6969,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -6899,79 +7003,79 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6987,7 +7091,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -7020,35 +7124,35 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7064,7 +7168,7 @@
         <v>236</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -7074,195 +7178,262 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>276</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>277</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>241</v>
       </c>
@@ -7270,23 +7441,23 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>237</v>
       </c>
@@ -7294,7 +7465,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>238</v>
       </c>
@@ -7302,7 +7473,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>242</v>
       </c>
@@ -7310,7 +7481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>240</v>
       </c>
@@ -7328,8 +7499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7350,177 +7521,177 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" s="6">
-        <v>466</v>
+        <v>718</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>719</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="6">
-        <v>360</v>
+      <c r="B3" s="6" t="s">
+        <v>720</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="6">
-        <v>360</v>
+      <c r="B4" s="6" t="s">
+        <v>721</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="6">
-        <v>357</v>
+      <c r="B5" s="6" t="s">
+        <v>722</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="6">
-        <v>236</v>
+      <c r="B6" s="6" t="s">
+        <v>723</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="6">
-        <v>168</v>
+      <c r="B7" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="6">
-        <v>124</v>
+      <c r="B8" s="6" t="s">
+        <v>725</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>288</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>345</v>
+        <v>726</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>289</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>346</v>
+        <v>727</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="B12" s="6" t="s">
-        <v>348</v>
+        <v>730</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>349</v>
+        <v>731</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>352</v>
+      <c r="B17" s="14" t="s">
+        <v>735</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -7530,7 +7701,7 @@
       <c r="A18" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7539,14 +7710,14 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7554,7 +7725,7 @@
       <c r="A21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7562,7 +7733,7 @@
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7570,12 +7741,13 @@
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7583,14 +7755,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="15" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7598,173 +7770,173 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="4">
-        <v>1151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="4">
-        <v>1150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="4">
-        <v>1144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="4">
-        <v>829</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="4">
-        <v>1009</v>
-      </c>
-      <c r="C7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="4">
-        <v>284</v>
-      </c>
-      <c r="C8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>352</v>
+      <c r="B16" s="16" t="s">
+        <v>750</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -7772,10 +7944,10 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>352</v>
+        <v>310</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -7785,7 +7957,7 @@
       <c r="A18" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="17" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7793,15 +7965,15 @@
       <c r="A19" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>709</v>
+      <c r="B19" s="15" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7809,7 +7981,7 @@
       <c r="A21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7817,7 +7989,7 @@
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7825,7 +7997,7 @@
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7838,14 +8010,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7853,52 +8025,52 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="4">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>232</v>
+      <c r="B5" s="14" t="s">
+        <v>754</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -7906,131 +8078,131 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>352</v>
+      <c r="B16" s="14" t="s">
+        <v>765</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>352</v>
+        <v>766</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>767</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -8040,7 +8212,7 @@
       <c r="A18" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8049,14 +8221,14 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8064,7 +8236,7 @@
       <c r="A21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8072,7 +8244,7 @@
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8080,7 +8252,7 @@
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8093,7 +8265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8117,10 +8289,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -8128,10 +8300,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -8139,10 +8311,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -8150,10 +8322,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -8161,10 +8333,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -8172,57 +8344,57 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="C9" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="C11" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8238,7 +8410,7 @@
         <v>236</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -8270,7 +8442,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -8278,7 +8450,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -8286,7 +8458,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="B4">
         <v>137</v>
@@ -8294,7 +8466,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8313,7 +8485,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8321,7 +8493,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8385,7 +8557,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="B2">
         <v>182</v>
@@ -8393,7 +8565,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -8401,7 +8573,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8409,7 +8581,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8417,7 +8589,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -8425,7 +8597,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8433,7 +8605,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8441,7 +8613,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8460,7 +8632,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -8468,7 +8640,7 @@
         <v>235</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8512,7 +8684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED044F-2B62-42B7-A288-F87892E20B00}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -8533,7 +8705,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8541,7 +8713,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8549,7 +8721,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8557,7 +8729,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -8565,7 +8737,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8573,7 +8745,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8581,7 +8753,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8589,7 +8761,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -8597,7 +8769,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8616,7 +8788,7 @@
         <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>645</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8624,7 +8796,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8677,7 +8849,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8696,7 +8868,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -8704,7 +8876,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8712,7 +8884,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -8720,7 +8892,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8739,7 +8911,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -8747,7 +8919,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>441</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8816,10 +8988,10 @@
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -8827,10 +8999,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -8852,7 +9024,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8896,8 +9068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F6BE80-AC56-42ED-87D6-9266FD24F810}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8916,15 +9088,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -8932,7 +9104,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -8940,7 +9112,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -8948,7 +9120,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -8956,7 +9128,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8964,7 +9136,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8972,7 +9144,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8991,7 +9163,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8999,7 +9171,7 @@
         <v>235</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9043,8 +9215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74624B-4AE3-43E9-9C9C-696C43DB0CE5}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9063,7 +9235,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -9071,7 +9243,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -9079,7 +9251,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -9087,7 +9259,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -9095,7 +9267,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9103,7 +9275,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9111,7 +9283,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9130,7 +9302,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -9138,7 +9310,7 @@
         <v>235</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9206,90 +9378,90 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9305,7 +9477,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -9492,7 +9664,7 @@
         <v>236</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9500,7 +9672,7 @@
         <v>235</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9546,7 +9718,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9565,10 +9737,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="B2" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9584,7 +9756,7 @@
         <v>236</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -9617,7 +9789,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -9625,7 +9797,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9636,7 +9808,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9644,7 +9816,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9652,7 +9824,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9716,7 +9888,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9724,7 +9896,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9735,7 +9907,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9743,7 +9915,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9751,7 +9923,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9815,7 +9987,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9823,7 +9995,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -9831,7 +10003,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -9839,7 +10011,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -9850,7 +10022,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9858,7 +10030,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9866,7 +10038,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A89606-D486-4A14-9A3B-2FFDA8FCFF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE45F6C9-9486-4558-B247-69631781E44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="32" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -2793,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8010,8 +8010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8423,7 +8423,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE45F6C9-9486-4558-B247-69631781E44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1187F9-6DD9-4605-8D01-E27C53FC2B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -1189,9 +1189,6 @@
     <t>The areas in which all or most students are requried to complete some course work prior to graduation are the following: computer literacy, English(including composition), Humanities, Mathematics, Sciences(biological or physical) and Social science</t>
   </si>
   <si>
-    <t>The number of [gender] transfer applicants that are [action] is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>Rose-Hulman's mailing address is 5500 Wabash Ave, Terre Haute, IN 47803</t>
   </si>
   <si>
@@ -2390,6 +2387,9 @@
   </si>
   <si>
     <t>There is no available information on the average amount of institutional non-need-based athletic scholarships and grants awarded to degree-seeking part-time undergraduate students.</t>
+  </si>
+  <si>
+    <t>The number of [gender] transfer applicants that are [^action] is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E422E2F-D9FA-411F-968E-DE340F994DF5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2820,7 +2820,7 @@
         <v>340</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -2842,7 +2842,7 @@
         <v>342</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -2853,7 +2853,7 @@
         <v>341</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -2864,7 +2864,7 @@
         <v>343</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -2875,7 +2875,7 @@
         <v>344</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -2886,7 +2886,7 @@
         <v>345</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -2908,7 +2908,7 @@
         <v>346</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -2919,7 +2919,7 @@
         <v>347</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -2930,7 +2930,7 @@
         <v>348</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -2941,7 +2941,7 @@
         <v>349</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -2952,7 +2952,7 @@
         <v>350</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -2971,7 +2971,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3039,10 +3039,10 @@
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -3086,7 +3086,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -3273,7 +3273,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3281,7 +3281,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3346,7 +3346,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -3453,7 +3453,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3651,7 +3651,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3695,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3703,7 +3703,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3711,7 +3711,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,7 +3719,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3727,7 +3727,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3743,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3751,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3759,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3767,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3775,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3791,7 +3791,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3799,7 +3799,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3807,7 +3807,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3815,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3823,7 +3823,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3831,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3847,7 +3847,7 @@
         <v>236</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3855,7 +3855,7 @@
         <v>235</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3888,42 +3888,42 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3939,7 +3939,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4031,7 +4031,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -4039,7 +4039,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4210,7 +4210,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4218,7 +4218,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4345,7 +4345,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4353,7 +4353,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4524,7 +4524,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -4532,7 +4532,7 @@
         <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4543,7 +4543,7 @@
         <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4835,7 +4835,7 @@
         <v>236</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4843,7 +4843,7 @@
         <v>235</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4908,7 +4908,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>54</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4951,7 +4951,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4959,7 +4959,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5165,7 +5165,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5293,7 +5293,7 @@
         <v>236</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
         <v>235</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>92</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>93</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>94</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>95</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>96</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>102</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>102</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>102</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -5480,10 +5480,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -5502,7 +5502,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5578,7 +5578,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>115</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>116</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>117</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>118</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>102</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>119</v>
@@ -5637,7 +5637,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -5645,7 +5645,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5689,8 +5689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5769,7 +5769,7 @@
         <v>236</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5777,7 +5777,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>369</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>130</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>132</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>133</v>
@@ -5952,10 +5952,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>266</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>136</v>
@@ -6084,7 +6084,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6185,7 +6185,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6260,7 +6260,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -6271,7 +6271,7 @@
         <v>146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -6282,7 +6282,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -6356,7 +6356,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6424,7 +6424,7 @@
         <v>144</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6432,7 +6432,7 @@
         <v>145</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6440,7 +6440,7 @@
         <v>148</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
@@ -6496,7 +6496,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
         <v>236</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6695,7 +6695,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B5" s="5">
         <v>1295</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -6786,7 +6786,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
         <v>262</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6859,101 +6859,101 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>699</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6969,7 +6969,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -7003,79 +7003,79 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7091,7 +7091,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -7124,35 +7124,35 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7168,7 +7168,7 @@
         <v>236</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -7303,10 +7303,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -7314,10 +7314,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>332</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>326</v>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>326</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="16" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>326</v>
@@ -7372,7 +7372,7 @@
         <v>280</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -7383,7 +7383,7 @@
         <v>281</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C18" t="s">
         <v>165</v>
@@ -7446,7 +7446,7 @@
         <v>236</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -7454,7 +7454,7 @@
         <v>235</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7523,10 +7523,10 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>718</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>719</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -7537,7 +7537,7 @@
         <v>282</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -7548,7 +7548,7 @@
         <v>283</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -7559,7 +7559,7 @@
         <v>284</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -7570,7 +7570,7 @@
         <v>285</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -7581,7 +7581,7 @@
         <v>286</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -7592,7 +7592,7 @@
         <v>287</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -7603,7 +7603,7 @@
         <v>288</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -7614,7 +7614,7 @@
         <v>289</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -7622,10 +7622,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -7636,7 +7636,7 @@
         <v>290</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -7644,10 +7644,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -7658,7 +7658,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -7669,7 +7669,7 @@
         <v>295</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -7680,7 +7680,7 @@
         <v>293</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -7691,7 +7691,7 @@
         <v>294</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -7710,7 +7710,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7782,7 +7782,7 @@
         <v>296</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -7793,7 +7793,7 @@
         <v>297</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -7804,7 +7804,7 @@
         <v>298</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -7815,7 +7815,7 @@
         <v>299</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -7826,7 +7826,7 @@
         <v>300</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -7837,7 +7837,7 @@
         <v>301</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -7848,7 +7848,7 @@
         <v>302</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -7859,7 +7859,7 @@
         <v>303</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -7870,7 +7870,7 @@
         <v>304</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -7881,7 +7881,7 @@
         <v>305</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -7892,7 +7892,7 @@
         <v>306</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -7900,10 +7900,10 @@
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -7914,7 +7914,7 @@
         <v>307</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -7925,7 +7925,7 @@
         <v>308</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -7936,7 +7936,7 @@
         <v>309</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -7966,7 +7966,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
         <v>311</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -8048,7 +8048,7 @@
         <v>312</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -8059,7 +8059,7 @@
         <v>313</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -8070,7 +8070,7 @@
         <v>314</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -8081,7 +8081,7 @@
         <v>315</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -8092,7 +8092,7 @@
         <v>316</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -8103,7 +8103,7 @@
         <v>317</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -8114,7 +8114,7 @@
         <v>318</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -8125,7 +8125,7 @@
         <v>319</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -8136,7 +8136,7 @@
         <v>320</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -8147,7 +8147,7 @@
         <v>321</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -8158,7 +8158,7 @@
         <v>291</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -8169,7 +8169,7 @@
         <v>322</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -8180,7 +8180,7 @@
         <v>323</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -8191,7 +8191,7 @@
         <v>324</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -8199,10 +8199,10 @@
     </row>
     <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>766</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>767</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -8221,7 +8221,7 @@
         <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8289,10 +8289,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -8300,10 +8300,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -8311,10 +8311,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -8322,10 +8322,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -8333,10 +8333,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -8344,57 +8344,57 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8410,7 +8410,7 @@
         <v>236</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -8485,7 +8485,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8493,7 +8493,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8632,7 +8632,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -8640,7 +8640,7 @@
         <v>235</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8705,7 +8705,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8788,7 +8788,7 @@
         <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8796,7 +8796,7 @@
         <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8868,7 +8868,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -8919,7 +8919,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8988,10 +8988,10 @@
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -9002,7 +9002,7 @@
         <v>363</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -9024,7 +9024,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9088,15 +9088,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9171,7 +9171,7 @@
         <v>235</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9235,7 +9235,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -9267,7 +9267,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>236</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -9310,7 +9310,7 @@
         <v>235</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9378,90 +9378,90 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9477,7 +9477,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9664,7 +9664,7 @@
         <v>236</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9672,7 +9672,7 @@
         <v>235</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9737,10 +9737,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" t="s">
         <v>602</v>
-      </c>
-      <c r="B2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9756,7 +9756,7 @@
         <v>236</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9808,7 +9808,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9816,7 +9816,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9824,7 +9824,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9888,7 +9888,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9907,7 +9907,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9915,7 +9915,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9923,7 +9923,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9987,7 +9987,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -10030,7 +10030,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -10038,7 +10038,7 @@
         <v>235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1187F9-6DD9-4605-8D01-E27C53FC2B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FF5995-ED23-42E0-AEFB-930DFB549D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="34" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -4889,7 +4889,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5004,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5689,8 +5689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E4568-D908-477D-923D-F4116B90EDC7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8010,8 +8010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8265,8 +8265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FF5995-ED23-42E0-AEFB-930DFB549D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735CC98C-18E1-4245-A727-11DDD86C3C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="34" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="769">
   <si>
     <t>Answer</t>
   </si>
@@ -142,102 +142,6 @@
   </si>
   <si>
     <t>What is the importance of the level of applicant’s interest in admission decisions?</t>
-  </si>
-  <si>
-    <t>What is the 25th percentile score for ACT composite</t>
-  </si>
-  <si>
-    <t>What is the 25th percentile score for ACT writing</t>
-  </si>
-  <si>
-    <t>What is the 25th percentile score for ACT english</t>
-  </si>
-  <si>
-    <t>What is the 25th percentile score for ACT math</t>
-  </si>
-  <si>
-    <t>What is the 25th percentile score for SAT composite</t>
-  </si>
-  <si>
-    <t>What is the 25th percentile score for SAT essay</t>
-  </si>
-  <si>
-    <t>What is the 25th percentile score for SAT evidence-based reading and writing</t>
-  </si>
-  <si>
-    <t>What is the 25th percentile score for SAT math</t>
-  </si>
-  <si>
-    <t>What is the 50th percentile score for ACT composite</t>
-  </si>
-  <si>
-    <t>What is the 50th percentile score for ACT writing</t>
-  </si>
-  <si>
-    <t>What is the 50th percentile score for ACT english</t>
-  </si>
-  <si>
-    <t>What is the 50th percentile score for ACT math</t>
-  </si>
-  <si>
-    <t>What is the 50th percentile score for SAT composite</t>
-  </si>
-  <si>
-    <t>What is the 50th percentile score for SAT essay</t>
-  </si>
-  <si>
-    <t>What is the 50th percentile score for SAT evidence-based reading and writing</t>
-  </si>
-  <si>
-    <t>What is the 50th percentile score for SAT math</t>
-  </si>
-  <si>
-    <t>What is the 75th percentile score for ACT composite</t>
-  </si>
-  <si>
-    <t>What is the 75th percentile score for ACT english</t>
-  </si>
-  <si>
-    <t>What is the 75th percentile score for ACT writing</t>
-  </si>
-  <si>
-    <t>What is the 75th percentile score for SAT composite</t>
-  </si>
-  <si>
-    <t>What is the 75th percentile score for SAT essay</t>
-  </si>
-  <si>
-    <t>What is the 75th percentile score for  SAT evidence-based reading and writing</t>
-  </si>
-  <si>
-    <t>What is the 75th percentile score for SAT math</t>
-  </si>
-  <si>
-    <t>What is the 75th percentile score for ACT math</t>
-  </si>
-  <si>
-    <t>What is the mean score for SAT composite</t>
-  </si>
-  <si>
-    <t>What is the mean score for SAT evidence-based reading and writing</t>
-  </si>
-  <si>
-    <t>What is the mean score for SAT math</t>
-  </si>
-  <si>
-    <t>What is the mean score for ACT composite</t>
-  </si>
-  <si>
-    <t>What is the mean score for ACT math</t>
-  </si>
-  <si>
-    <t>What is the mean score for ACT english</t>
-  </si>
-  <si>
-    <t>What is the mean score for SAT essay</t>
-  </si>
-  <si>
-    <t>What is the mean score for ACT writing</t>
   </si>
   <si>
     <t>65.9%</t>
@@ -1619,9 +1523,6 @@
     <t>The financial aid forms domestic first-year (freshman) financial aid applicants must submit is FAFSA</t>
   </si>
   <si>
-    <t>what if the Priority date for filling out required financial-aid forms for first-year students?</t>
-  </si>
-  <si>
     <t>Is there any deadline for first year students filing out required financial-aid forms</t>
   </si>
   <si>
@@ -2390,6 +2291,108 @@
   </si>
   <si>
     <t>The number of [gender] transfer applicants that are [^action] is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>what is the priority date for filling out required financial-aid forms for first-year students?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n/a</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for SAT composite for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for SAT evidence-based reading and writing for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for SAT math for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for SAT essay for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for SAT composite for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for SAT evidence-based reading and writing for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for SAT math for incoming freshman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the 50th percentile score for SAT essay for incoming freshman </t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for SAT composite for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for  SAT evidence-based reading and writing for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for SAT math for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for SAT essay for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the mean score for SAT composite for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the mean score for SAT evidence-based reading and writing for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the mean score for SAT math for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the mean score for SAT essay for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for ACT composite for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for ACT math for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for ACT english for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 25th percentile score for ACT writing for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for ACT composite for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for ACT math for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for ACT english for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 50th percentile score for ACT writing for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for ACT composite for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for ACT math for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for ACT english for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the 75th percentile score for ACT writing for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the mean score for ACT composite for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the mean score for ACT english for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the mean score for ACT math for incoming freshman</t>
+  </si>
+  <si>
+    <t>What is the mean score for ACT writing for incoming freshman</t>
   </si>
 </sst>
 </file>
@@ -2812,198 +2815,198 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>373</v>
-      </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3034,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -3125,195 +3128,195 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3349,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3354,7 +3357,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3362,7 +3365,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3370,7 +3373,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3378,7 +3381,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3386,7 +3389,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3402,7 +3405,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3410,7 +3413,7 @@
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3418,7 +3421,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3426,7 +3429,7 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3434,58 +3437,58 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3514,144 +3517,144 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3695,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3703,7 +3706,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3711,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3727,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3735,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3743,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3751,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3759,7 +3762,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3767,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3775,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3783,7 +3786,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3791,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3799,7 +3802,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3807,7 +3810,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3815,7 +3818,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3823,7 +3826,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3831,31 +3834,31 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3888,58 +3891,58 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +3956,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,106 +3975,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4087,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4103,154 +4106,154 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4286,106 +4289,106 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4398,7 +4401,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4417,157 +4420,157 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +4603,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4608,7 +4611,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4616,7 +4619,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4624,7 +4627,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4632,7 +4635,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4640,7 +4643,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4648,7 +4651,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4656,7 +4659,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4664,7 +4667,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4672,7 +4675,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4680,7 +4683,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4688,7 +4691,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4696,7 +4699,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -4704,7 +4707,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -4712,7 +4715,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -4720,7 +4723,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -4728,7 +4731,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
@@ -4736,7 +4739,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -4744,7 +4747,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -4752,7 +4755,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -4760,7 +4763,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B22" s="5">
         <v>6</v>
@@ -4768,7 +4771,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -4776,7 +4779,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
@@ -4784,7 +4787,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -4792,7 +4795,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -4800,7 +4803,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -4808,7 +4811,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
@@ -4824,58 +4827,58 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4889,7 +4892,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4908,23 +4911,23 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -4932,66 +4935,66 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5004,8 +5007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5026,15 +5029,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>737</v>
       </c>
       <c r="B2" s="6">
         <v>1270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>738</v>
       </c>
       <c r="B3" s="6">
         <v>610</v>
@@ -5042,7 +5045,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>739</v>
       </c>
       <c r="B4" s="6">
         <v>650</v>
@@ -5050,23 +5053,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>740</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>741</v>
       </c>
       <c r="B6" s="6">
         <v>1355</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>742</v>
       </c>
       <c r="B7" s="6">
         <v>650</v>
@@ -5074,7 +5077,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>743</v>
       </c>
       <c r="B8" s="6">
         <v>700</v>
@@ -5082,23 +5085,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>744</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>40</v>
+        <v>745</v>
       </c>
       <c r="B10" s="6">
         <v>1440</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>42</v>
+        <v>746</v>
       </c>
       <c r="B11" s="6">
         <v>700</v>
@@ -5106,7 +5109,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>747</v>
       </c>
       <c r="B12" s="6">
         <v>760</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>748</v>
       </c>
       <c r="B13" s="6">
         <v>1352</v>
@@ -5122,15 +5125,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>45</v>
+        <v>749</v>
       </c>
       <c r="B14" s="6">
         <v>1352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>46</v>
+        <v>750</v>
       </c>
       <c r="B15" s="6">
         <v>652</v>
@@ -5138,7 +5141,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>751</v>
       </c>
       <c r="B16" s="6">
         <v>700</v>
@@ -5146,15 +5149,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>51</v>
+        <v>752</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>753</v>
       </c>
       <c r="B18" s="6">
         <v>27</v>
@@ -5162,15 +5165,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>24</v>
+        <v>754</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>23</v>
+        <v>755</v>
       </c>
       <c r="B20" s="6">
         <v>26</v>
@@ -5178,15 +5181,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>756</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>264</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>29</v>
+        <v>757</v>
       </c>
       <c r="B22" s="6">
         <v>31</v>
@@ -5194,7 +5197,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>32</v>
+        <v>758</v>
       </c>
       <c r="B23" s="6">
         <v>31</v>
@@ -5202,7 +5205,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>31</v>
+        <v>759</v>
       </c>
       <c r="B24" s="6">
         <v>31.5</v>
@@ -5210,15 +5213,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>30</v>
+        <v>760</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>761</v>
       </c>
       <c r="B26" s="6">
         <v>33</v>
@@ -5226,7 +5229,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>44</v>
+        <v>762</v>
       </c>
       <c r="B27" s="6">
         <v>34</v>
@@ -5234,7 +5237,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>38</v>
+        <v>763</v>
       </c>
       <c r="B28" s="6">
         <v>35</v>
@@ -5242,15 +5245,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>39</v>
+        <v>764</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>48</v>
+        <v>765</v>
       </c>
       <c r="B30" s="6">
         <v>30</v>
@@ -5258,7 +5261,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>50</v>
+        <v>766</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>49</v>
+        <v>767</v>
       </c>
       <c r="B32" s="6">
         <v>30</v>
@@ -5274,66 +5277,66 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>768</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5365,184 +5368,184 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5578,106 +5581,106 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5710,7 +5713,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5718,7 +5721,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5726,7 +5729,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5734,7 +5737,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5742,7 +5745,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5758,58 +5761,58 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5840,283 +5843,283 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6147,77 +6150,77 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6252,143 +6255,143 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6421,114 +6424,114 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6560,110 +6563,110 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6695,7 +6698,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6703,7 +6706,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6711,7 +6714,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6719,7 +6722,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="B5" s="5">
         <v>1295</v>
@@ -6727,7 +6730,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6735,7 +6738,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6743,7 +6746,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6751,7 +6754,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="B9" s="5">
         <v>99</v>
@@ -6759,7 +6762,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B10" s="5">
         <v>22</v>
@@ -6767,66 +6770,66 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -6859,117 +6862,117 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -7003,95 +7006,95 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -7124,51 +7127,51 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -7199,294 +7202,294 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>712</v>
+        <v>679</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7518,231 +7521,231 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>723</v>
+        <v>690</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7774,231 +7777,231 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>743</v>
+        <v>710</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8029,231 +8032,231 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>764</v>
+        <v>731</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>765</v>
+        <v>732</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8265,8 +8268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8284,137 +8287,138 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>511</v>
+        <v>735</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="C8" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8442,7 +8446,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -8450,7 +8454,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -8458,7 +8462,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="B4">
         <v>137</v>
@@ -8466,7 +8470,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8474,58 +8478,58 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8537,7 +8541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2758D6-F888-4498-88A0-7DFBF7091CA2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -8557,7 +8561,7 @@
     </row>
     <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B2">
         <v>182</v>
@@ -8565,7 +8569,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -8573,7 +8577,7 @@
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8581,7 +8585,7 @@
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8589,7 +8593,7 @@
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -8597,7 +8601,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8605,7 +8609,7 @@
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8613,7 +8617,7 @@
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8621,58 +8625,58 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8705,7 +8709,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8713,7 +8717,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8721,7 +8725,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8729,7 +8733,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -8737,7 +8741,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8745,7 +8749,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8753,7 +8757,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8761,7 +8765,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -8769,7 +8773,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8777,66 +8781,66 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -8868,7 +8872,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -8876,7 +8880,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8884,7 +8888,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -8892,7 +8896,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8900,58 +8904,58 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8983,80 +8987,80 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9088,15 +9092,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="B3">
         <v>76</v>
@@ -9104,7 +9108,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="B4">
         <v>216</v>
@@ -9112,7 +9116,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -9120,7 +9124,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -9128,7 +9132,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9136,7 +9140,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9144,7 +9148,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9152,58 +9156,58 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9235,7 +9239,7 @@
     </row>
     <row r="2" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -9243,7 +9247,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -9251,7 +9255,7 @@
     </row>
     <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -9259,7 +9263,7 @@
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -9267,7 +9271,7 @@
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9275,7 +9279,7 @@
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9283,7 +9287,7 @@
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9291,58 +9295,58 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9373,111 +9377,111 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -9509,202 +9513,202 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -9737,26 +9741,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="B2" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -9789,7 +9793,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -9797,7 +9801,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9805,58 +9809,58 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9888,7 +9892,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9896,7 +9900,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9904,58 +9908,58 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9987,7 +9991,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9995,7 +9999,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -10003,7 +10007,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -10011,7 +10015,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -10019,58 +10023,58 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735CC98C-18E1-4245-A727-11DDD86C3C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02E57B1-5D28-47BA-AB7F-629E044DFF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="30" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -45,11 +45,11 @@
     <sheet name="Annual Expense_General" sheetId="35" r:id="rId30"/>
     <sheet name="Annual Expense_CommuterResident" sheetId="43" r:id="rId31"/>
     <sheet name="Annual Expense_Policy" sheetId="42" r:id="rId32"/>
-    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId33"/>
-    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId34"/>
-    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId35"/>
-    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId36"/>
-    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId37"/>
+    <sheet name="Financial Aid_Type" sheetId="36" r:id="rId33"/>
+    <sheet name="Financial Aid_Awarded" sheetId="19" r:id="rId34"/>
+    <sheet name="Financial Aid_Awarded Freshman" sheetId="20" r:id="rId35"/>
+    <sheet name="Financial Aid_Awarded Undergrad" sheetId="21" r:id="rId36"/>
+    <sheet name="Financial Aid_Awarded Part-Time" sheetId="22" r:id="rId37"/>
     <sheet name="Faculty And Class Size_Gender" sheetId="24" r:id="rId38"/>
     <sheet name="Faculty And Class Size_Degree" sheetId="25" r:id="rId39"/>
     <sheet name="Faculty And Class Size_Ra" sheetId="30" r:id="rId40"/>
@@ -1465,9 +1465,6 @@
     <t xml:space="preserve">The percentage of freshman students with act (xor [test_component] [subject]) score (xor {between [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt; </t>
   </si>
   <si>
-    <t>The (xor [^aggregation] [^percentile]) score [standarized_test] [subject] for freshmen is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>The percentage of freshman students with gpa (xor {[^range] [^number] and [^number]} {[^range] [^number]}) is &lt;value&gt;</t>
   </si>
   <si>
@@ -1493,12 +1490,6 @@
     <t>Institutional non-need-based scholarship or grant aid is available. There are 220 undergraduate degree-seeking nonresident took aid. Average dollar amount is 7,453 dollars, the amount is  1,647,183 dollars</t>
   </si>
   <si>
-    <t>What forms nonresident alien first-year financial aid applicants must submit for financial aid?</t>
-  </si>
-  <si>
-    <t>What forms domestic first-year financial aid applicants must submit for financial aid?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Priority date for filing required financial aid forms: March 10. </t>
   </si>
   <si>
@@ -1521,9 +1512,6 @@
   </si>
   <si>
     <t>The financial aid forms domestic first-year (freshman) financial aid applicants must submit is FAFSA</t>
-  </si>
-  <si>
-    <t>Is there any deadline for first year students filing out required financial-aid forms</t>
   </si>
   <si>
     <t>There is no deadline for filing the required financial-aid form for first-year students. (Applications are processed on a rolling basis)</t>
@@ -2293,9 +2281,6 @@
     <t>The number of [gender] transfer applicants that are [^action] is &lt;value&gt;</t>
   </si>
   <si>
-    <t>what is the priority date for filling out required financial-aid forms for first-year students?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> n/a</t>
   </si>
   <si>
@@ -2393,6 +2378,21 @@
   </si>
   <si>
     <t>What is the mean score for ACT writing for incoming freshman</t>
+  </si>
+  <si>
+    <t>What forms domestic first-year financial aid applicants must fill out and submit for financial aid?</t>
+  </si>
+  <si>
+    <t>What forms nonresident alien first-year financial aid applicants must fill out and submit for financial aid?</t>
+  </si>
+  <si>
+    <t>what is the priority date for filling out and submitting required financial-aid forms for first-year students?</t>
+  </si>
+  <si>
+    <t>Is there any deadline for first year students filing out and submitting required financial-aid forms</t>
+  </si>
+  <si>
+    <t>The (xor [^aggregation] [^percentile])  [^standarized_test] [^test_component] score for incoming freshmen is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2974,7 +2974,7 @@
         <v>204</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3019,7 +3019,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -3053,10 +3053,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -3089,7 +3089,7 @@
         <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3097,7 +3097,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="74" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" zoomScale="74" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3276,7 +3276,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3284,7 +3284,7 @@
         <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3329,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3448,7 +3448,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -3456,7 +3456,7 @@
         <v>203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3501,7 +3501,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3654,7 +3654,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -3668,7 +3668,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3698,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3706,7 +3706,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3722,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3730,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3738,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3746,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3762,7 +3762,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3770,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3778,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3786,7 +3786,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3794,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3802,7 +3802,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3810,7 +3810,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3818,7 +3818,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3826,7 +3826,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3834,7 +3834,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3850,7 +3850,7 @@
         <v>204</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3891,42 +3891,42 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3942,7 +3942,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -3956,7 +3956,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4034,7 +4034,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -4042,7 +4042,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4087,7 +4087,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4213,7 +4213,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4221,7 +4221,7 @@
         <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4348,7 +4348,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4356,7 +4356,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4527,7 +4527,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -4603,7 +4603,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4838,7 +4838,7 @@
         <v>204</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
         <v>203</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4954,7 +4954,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5007,8 +5007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3892E9F-E7EA-42B9-AE4C-1275BBD6A387}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A12" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B2" s="6">
         <v>1270</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B3" s="6">
         <v>610</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B4" s="6">
         <v>650</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>232</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B6" s="6">
         <v>1355</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B7" s="6">
         <v>650</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B8" s="6">
         <v>700</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>23</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B10" s="6">
         <v>1440</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B11" s="6">
         <v>700</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B12" s="6">
         <v>760</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B13" s="6">
         <v>1352</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B14" s="6">
         <v>1352</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B15" s="6">
         <v>652</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B16" s="6">
         <v>700</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>306</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B18" s="6">
         <v>27</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>442</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B20" s="6">
         <v>26</v>
@@ -5181,15 +5181,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B22" s="6">
         <v>31</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B23" s="6">
         <v>31</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B24" s="6">
         <v>31.5</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>306</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B26" s="6">
         <v>33</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B27" s="6">
         <v>34</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B28" s="6">
         <v>35</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>306</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B30" s="6">
         <v>30</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B32" s="6">
         <v>30</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>306</v>
@@ -5296,15 +5296,15 @@
         <v>204</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>203</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>460</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5350,7 +5350,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>59</v>
@@ -5505,7 +5505,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5513,7 +5513,7 @@
         <v>203</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5562,7 +5562,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5640,7 +5640,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -5648,7 +5648,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5693,7 +5693,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5772,7 +5772,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5780,7 +5780,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5824,7 +5824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD6236-1D5E-43C4-8447-268AAEF1A0C5}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>98</v>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -5900,10 +5900,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>100</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>101</v>
@@ -5955,10 +5955,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>234</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>104</v>
@@ -6087,7 +6087,7 @@
         <v>204</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6132,7 +6132,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6188,7 +6188,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6263,7 +6263,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -6274,7 +6274,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -6285,7 +6285,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -6359,7 +6359,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6427,7 +6427,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6435,7 +6435,7 @@
         <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6443,7 +6443,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
@@ -6499,7 +6499,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6634,7 +6634,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B5" s="5">
         <v>1295</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -6789,7 +6789,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6873,10 +6873,10 @@
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>445</v>
@@ -6884,10 +6884,10 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>445</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>445</v>
@@ -6909,7 +6909,7 @@
         <v>446</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>445</v>
@@ -6920,7 +6920,7 @@
         <v>447</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>445</v>
@@ -6931,7 +6931,7 @@
         <v>448</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>445</v>
@@ -6942,7 +6942,7 @@
         <v>449</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>445</v>
@@ -6953,7 +6953,7 @@
         <v>450</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>445</v>
@@ -6972,7 +6972,7 @@
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -7006,10 +7006,10 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>445</v>
@@ -7020,7 +7020,7 @@
         <v>454</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>445</v>
@@ -7031,7 +7031,7 @@
         <v>455</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>445</v>
@@ -7042,7 +7042,7 @@
         <v>456</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>445</v>
@@ -7050,10 +7050,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>445</v>
@@ -7061,10 +7061,10 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>445</v>
@@ -7075,7 +7075,7 @@
         <v>457</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>445</v>
@@ -7094,7 +7094,7 @@
         <v>204</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -7130,7 +7130,7 @@
         <v>451</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>445</v>
@@ -7141,7 +7141,7 @@
         <v>452</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>445</v>
@@ -7152,7 +7152,7 @@
         <v>453</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>445</v>
@@ -7171,7 +7171,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -7180,11 +7180,169 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7309,7 +7467,7 @@
         <v>399</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -7320,7 +7478,7 @@
         <v>400</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -7375,7 +7533,7 @@
         <v>248</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -7386,7 +7544,7 @@
         <v>249</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C18" t="s">
         <v>133</v>
@@ -7449,7 +7607,7 @@
         <v>204</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -7457,7 +7615,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7498,11 +7656,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD85EB1-BDB8-4AEB-99D1-57DF875DFEB5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -7526,10 +7684,10 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -7540,7 +7698,7 @@
         <v>250</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -7551,7 +7709,7 @@
         <v>251</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -7562,7 +7720,7 @@
         <v>252</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -7573,7 +7731,7 @@
         <v>253</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -7584,7 +7742,7 @@
         <v>254</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -7595,7 +7753,7 @@
         <v>255</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -7606,7 +7764,7 @@
         <v>256</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -7617,7 +7775,7 @@
         <v>257</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
@@ -7625,10 +7783,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -7639,7 +7797,7 @@
         <v>258</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -7647,10 +7805,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -7661,7 +7819,7 @@
         <v>260</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -7672,7 +7830,7 @@
         <v>263</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -7683,7 +7841,7 @@
         <v>261</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -7694,7 +7852,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -7713,7 +7871,7 @@
         <v>204</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7754,7 +7912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE4F375-28FB-4634-A90F-E29F4CD5ADA1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -7785,7 +7943,7 @@
         <v>264</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -7796,7 +7954,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -7807,7 +7965,7 @@
         <v>266</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -7818,7 +7976,7 @@
         <v>267</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -7829,7 +7987,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -7840,7 +7998,7 @@
         <v>269</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -7851,7 +8009,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -7862,7 +8020,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -7873,7 +8031,7 @@
         <v>272</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
@@ -7884,7 +8042,7 @@
         <v>273</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -7895,7 +8053,7 @@
         <v>274</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -7906,7 +8064,7 @@
         <v>375</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -7917,7 +8075,7 @@
         <v>275</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -7928,7 +8086,7 @@
         <v>276</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -7939,7 +8097,7 @@
         <v>277</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -7969,7 +8127,7 @@
         <v>204</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8009,7 +8167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA6128-27F4-4911-A1F0-865B26420EEF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -8040,7 +8198,7 @@
         <v>279</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -8051,7 +8209,7 @@
         <v>280</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -8062,7 +8220,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -8073,7 +8231,7 @@
         <v>282</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -8084,7 +8242,7 @@
         <v>283</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -8095,7 +8253,7 @@
         <v>284</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -8106,7 +8264,7 @@
         <v>285</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -8117,7 +8275,7 @@
         <v>286</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -8128,7 +8286,7 @@
         <v>287</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
@@ -8139,7 +8297,7 @@
         <v>288</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -8150,7 +8308,7 @@
         <v>289</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -8161,7 +8319,7 @@
         <v>259</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -8172,7 +8330,7 @@
         <v>290</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -8183,7 +8341,7 @@
         <v>291</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -8194,7 +8352,7 @@
         <v>292</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -8202,10 +8360,10 @@
     </row>
     <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -8224,7 +8382,7 @@
         <v>204</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8261,164 +8419,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8489,7 +8489,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8497,7 +8497,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8636,7 +8636,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -8689,7 +8689,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8800,7 +8800,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8915,7 +8915,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -8923,7 +8923,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9028,7 +9028,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9095,7 +9095,7 @@
         <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9167,7 +9167,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9175,7 +9175,7 @@
         <v>203</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9306,7 +9306,7 @@
         <v>204</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -9314,7 +9314,7 @@
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9382,10 +9382,10 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>426</v>
@@ -9396,7 +9396,7 @@
         <v>427</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>426</v>
@@ -9407,7 +9407,7 @@
         <v>428</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>426</v>
@@ -9418,7 +9418,7 @@
         <v>429</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>426</v>
@@ -9429,7 +9429,7 @@
         <v>430</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>426</v>
@@ -9440,7 +9440,7 @@
         <v>431</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>426</v>
@@ -9451,7 +9451,7 @@
         <v>432</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>426</v>
@@ -9459,10 +9459,10 @@
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>426</v>
@@ -9481,7 +9481,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -9668,7 +9668,7 @@
         <v>204</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9676,7 +9676,7 @@
         <v>203</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9741,10 +9741,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9760,7 +9760,7 @@
         <v>204</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -9774,7 +9774,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9812,7 +9812,7 @@
         <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9820,7 +9820,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9828,7 +9828,7 @@
         <v>203</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9873,7 +9873,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9911,7 +9911,7 @@
         <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9919,7 +9919,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9927,7 +9927,7 @@
         <v>203</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9991,7 +9991,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -10026,7 +10026,7 @@
         <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -10034,7 +10034,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -10042,7 +10042,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02E57B1-5D28-47BA-AB7F-629E044DFF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47913BAB-6FA2-423F-83ED-AB11A756DBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="30" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="769">
   <si>
     <t>Answer</t>
   </si>
@@ -1318,9 +1318,6 @@
     <t>How many visual/performing art units are required for admission?</t>
   </si>
   <si>
-    <t>What other units are required for admission?</t>
-  </si>
-  <si>
     <t>How many English units are required for admission?</t>
   </si>
   <si>
@@ -1358,9 +1355,6 @@
   </si>
   <si>
     <t>How many visual/performing art units are recommended for admission?</t>
-  </si>
-  <si>
-    <t>What other units are recommended for admission?</t>
   </si>
   <si>
     <t>yes</t>
@@ -2393,6 +2387,12 @@
   </si>
   <si>
     <t>The (xor [^aggregation] [^percentile])  [^standarized_test] [^test_component] score for incoming freshmen is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>No other additional units are recommended for admission</t>
+  </si>
+  <si>
+    <t>What other units are recommended for admission? (please specify)</t>
   </si>
 </sst>
 </file>
@@ -2974,7 +2974,7 @@
         <v>204</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3042,10 +3042,10 @@
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -3053,10 +3053,10 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -3089,7 +3089,7 @@
         <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3097,7 +3097,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -3107,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC138E-AAA1-4452-BC05-6992F74BED09}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="74" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3133,46 +3133,46 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -3238,58 +3238,55 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
+        <v>432</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>434</v>
+        <v>209</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>204</v>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>505</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>171</v>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>171</v>
@@ -3305,17 +3302,9 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3327,115 +3316,152 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>209</v>
       </c>
@@ -3443,23 +3469,23 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>205</v>
       </c>
@@ -3654,7 +3680,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3698,7 +3724,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3706,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3714,7 +3740,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3722,7 +3748,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3730,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3738,7 +3764,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3746,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3754,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3762,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3770,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3778,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3786,7 +3812,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3794,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3802,7 +3828,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3810,7 +3836,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3818,7 +3844,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3826,7 +3852,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3834,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3850,7 +3876,7 @@
         <v>204</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3872,7 +3898,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3891,42 +3917,42 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3942,7 +3968,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4060,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -4042,7 +4068,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4213,7 +4239,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4221,7 +4247,7 @@
         <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4270,7 +4296,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4348,7 +4374,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -4356,7 +4382,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4527,7 +4553,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -4535,7 +4561,7 @@
         <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4546,7 +4572,7 @@
         <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4603,7 +4629,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4611,7 +4637,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4619,7 +4645,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4627,7 +4653,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4635,7 +4661,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4643,7 +4669,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4651,7 +4677,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4659,7 +4685,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4667,7 +4693,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4675,7 +4701,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4683,7 +4709,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4691,7 +4717,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4838,7 +4864,7 @@
         <v>204</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4846,7 +4872,7 @@
         <v>203</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4938,7 +4964,7 @@
         <v>354</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4954,7 +4980,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -4962,7 +4988,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5008,7 +5034,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5029,7 +5055,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B2" s="6">
         <v>1270</v>
@@ -5037,7 +5063,7 @@
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B3" s="6">
         <v>610</v>
@@ -5045,7 +5071,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B4" s="6">
         <v>650</v>
@@ -5053,7 +5079,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>232</v>
@@ -5061,7 +5087,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B6" s="6">
         <v>1355</v>
@@ -5069,7 +5095,7 @@
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B7" s="6">
         <v>650</v>
@@ -5077,7 +5103,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B8" s="6">
         <v>700</v>
@@ -5085,7 +5111,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>23</v>
@@ -5093,7 +5119,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B10" s="6">
         <v>1440</v>
@@ -5101,7 +5127,7 @@
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B11" s="6">
         <v>700</v>
@@ -5109,7 +5135,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B12" s="6">
         <v>760</v>
@@ -5117,7 +5143,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B13" s="6">
         <v>1352</v>
@@ -5125,7 +5151,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B14" s="6">
         <v>1352</v>
@@ -5133,7 +5159,7 @@
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B15" s="6">
         <v>652</v>
@@ -5141,7 +5167,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B16" s="6">
         <v>700</v>
@@ -5149,7 +5175,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>306</v>
@@ -5157,7 +5183,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B18" s="6">
         <v>27</v>
@@ -5165,15 +5191,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B20" s="6">
         <v>26</v>
@@ -5181,15 +5207,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B22" s="6">
         <v>31</v>
@@ -5197,7 +5223,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B23" s="6">
         <v>31</v>
@@ -5205,7 +5231,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B24" s="6">
         <v>31.5</v>
@@ -5213,7 +5239,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>306</v>
@@ -5221,7 +5247,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B26" s="6">
         <v>33</v>
@@ -5229,7 +5255,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B27" s="6">
         <v>34</v>
@@ -5237,7 +5263,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B28" s="6">
         <v>35</v>
@@ -5245,7 +5271,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>306</v>
@@ -5253,7 +5279,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B30" s="6">
         <v>30</v>
@@ -5261,7 +5287,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -5269,7 +5295,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B32" s="6">
         <v>30</v>
@@ -5277,7 +5303,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>306</v>
@@ -5296,7 +5322,7 @@
         <v>204</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5304,7 +5330,7 @@
         <v>203</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5373,7 +5399,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>59</v>
@@ -5505,7 +5531,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5513,7 +5539,7 @@
         <v>203</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5640,7 +5666,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -5648,7 +5674,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5713,7 +5739,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B2" s="6">
         <v>59</v>
@@ -5721,7 +5747,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -5729,7 +5755,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B4" s="6">
         <v>9</v>
@@ -5737,7 +5763,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B5" s="6">
         <v>23</v>
@@ -5745,7 +5771,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -5753,7 +5779,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5772,7 +5798,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5780,7 +5806,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5870,7 +5896,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>98</v>
@@ -5889,10 +5915,10 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -5900,10 +5926,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -5911,10 +5937,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -5922,10 +5948,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -5933,7 +5959,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>100</v>
@@ -5944,7 +5970,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>101</v>
@@ -5955,10 +5981,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -5966,7 +5992,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>234</v>
@@ -5999,7 +6025,7 @@
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>104</v>
@@ -6087,7 +6113,7 @@
         <v>204</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6188,7 +6214,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6263,7 +6289,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -6274,7 +6300,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -6285,7 +6311,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -6359,7 +6385,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6403,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1BC2B9-A383-49AB-870B-3568000F0DBB}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6427,7 +6453,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6435,7 +6461,7 @@
         <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -6443,7 +6469,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
@@ -6499,7 +6525,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6634,7 +6660,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6698,7 +6724,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B2" s="5">
         <v>226</v>
@@ -6706,7 +6732,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B3" s="5">
         <v>104</v>
@@ -6714,7 +6740,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B4" s="5">
         <v>93</v>
@@ -6722,7 +6748,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B5" s="5">
         <v>1295</v>
@@ -6730,7 +6756,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -6738,7 +6764,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B7" s="5">
         <v>127</v>
@@ -6746,7 +6772,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -6781,7 +6807,7 @@
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -6789,7 +6815,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6829,7 +6855,7 @@
         <v>230</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -6862,101 +6888,101 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6972,7 +6998,7 @@
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -7006,79 +7032,79 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7094,7 +7120,7 @@
         <v>204</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -7127,35 +7153,35 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7171,7 +7197,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -7183,8 +7209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B311E26-48F5-445F-A976-490D3902A0D5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7207,10 +7233,10 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -7218,10 +7244,10 @@
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -7229,10 +7255,10 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -7240,10 +7266,10 @@
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -7251,10 +7277,10 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -7262,57 +7288,57 @@
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7328,7 +7354,7 @@
         <v>204</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -7341,8 +7367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00C0EE-B5EA-4C5D-A3F6-0409760A68CF}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7467,7 +7493,7 @@
         <v>399</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -7478,7 +7504,7 @@
         <v>400</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -7533,7 +7559,7 @@
         <v>248</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -7544,7 +7570,7 @@
         <v>249</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C18" t="s">
         <v>133</v>
@@ -7607,7 +7633,7 @@
         <v>204</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -7615,7 +7641,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7661,7 +7687,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7684,10 +7710,10 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -7698,7 +7724,7 @@
         <v>250</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -7709,7 +7735,7 @@
         <v>251</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -7720,7 +7746,7 @@
         <v>252</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -7731,7 +7757,7 @@
         <v>253</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -7742,7 +7768,7 @@
         <v>254</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -7753,7 +7779,7 @@
         <v>255</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -7764,7 +7790,7 @@
         <v>256</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -7775,7 +7801,7 @@
         <v>257</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
@@ -7783,10 +7809,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -7797,7 +7823,7 @@
         <v>258</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -7805,10 +7831,10 @@
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -7819,7 +7845,7 @@
         <v>260</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -7830,7 +7856,7 @@
         <v>263</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -7841,7 +7867,7 @@
         <v>261</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -7852,7 +7878,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -7871,7 +7897,7 @@
         <v>204</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7943,7 +7969,7 @@
         <v>264</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -7954,7 +7980,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -7965,7 +7991,7 @@
         <v>266</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -7976,7 +8002,7 @@
         <v>267</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -7987,7 +8013,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -7998,7 +8024,7 @@
         <v>269</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -8009,7 +8035,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -8020,7 +8046,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -8031,7 +8057,7 @@
         <v>272</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
@@ -8042,7 +8068,7 @@
         <v>273</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -8053,7 +8079,7 @@
         <v>274</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -8064,7 +8090,7 @@
         <v>375</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -8075,7 +8101,7 @@
         <v>275</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -8086,7 +8112,7 @@
         <v>276</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -8097,7 +8123,7 @@
         <v>277</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -8127,7 +8153,7 @@
         <v>204</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8198,7 +8224,7 @@
         <v>279</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -8209,7 +8235,7 @@
         <v>280</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -8220,7 +8246,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -8231,7 +8257,7 @@
         <v>282</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -8242,7 +8268,7 @@
         <v>283</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -8253,7 +8279,7 @@
         <v>284</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -8264,7 +8290,7 @@
         <v>285</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -8275,7 +8301,7 @@
         <v>286</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -8286,7 +8312,7 @@
         <v>287</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
@@ -8297,7 +8323,7 @@
         <v>288</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -8308,7 +8334,7 @@
         <v>289</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -8319,7 +8345,7 @@
         <v>259</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
@@ -8330,7 +8356,7 @@
         <v>290</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -8341,7 +8367,7 @@
         <v>291</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -8352,7 +8378,7 @@
         <v>292</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -8360,10 +8386,10 @@
     </row>
     <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -8382,7 +8408,7 @@
         <v>204</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8489,7 +8515,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8497,7 +8523,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8636,7 +8662,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -8709,7 +8735,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -8717,7 +8743,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -8725,7 +8751,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -8733,7 +8759,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B5">
         <v>356</v>
@@ -8741,7 +8767,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8749,7 +8775,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -8757,7 +8783,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8765,7 +8791,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -8773,7 +8799,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8792,7 +8818,7 @@
         <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -8800,7 +8826,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8915,7 +8941,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -8923,7 +8949,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9028,7 +9054,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9095,7 +9121,7 @@
         <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9167,7 +9193,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9175,7 +9201,7 @@
         <v>203</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9306,7 +9332,7 @@
         <v>204</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -9314,7 +9340,7 @@
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9382,90 +9408,90 @@
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9481,7 +9507,7 @@
         <v>204</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -9668,7 +9694,7 @@
         <v>204</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9676,7 +9702,7 @@
         <v>203</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9741,10 +9767,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9760,7 +9786,7 @@
         <v>204</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -9793,7 +9819,7 @@
     </row>
     <row r="2" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B2" s="5">
         <v>3338</v>
@@ -9801,7 +9827,7 @@
     </row>
     <row r="3" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B3" s="13">
         <v>1038</v>
@@ -9812,7 +9838,7 @@
         <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9820,7 +9846,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -9828,7 +9854,7 @@
         <v>203</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9892,7 +9918,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B2" s="13">
         <v>2502</v>
@@ -9900,7 +9926,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B3" s="5">
         <v>851</v>
@@ -9911,7 +9937,7 @@
         <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9919,7 +9945,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -9927,7 +9953,7 @@
         <v>203</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9991,7 +10017,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B2" s="5">
         <v>401</v>
@@ -9999,7 +10025,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -10007,7 +10033,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B4" s="5">
         <v>145</v>
@@ -10015,7 +10041,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -10026,7 +10052,7 @@
         <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -10034,7 +10060,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -10042,7 +10068,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/NewCDSDataFromClient/CDS_2020_2021.xlsx
+++ b/NewCDSDataFromClient/CDS_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47913BAB-6FA2-423F-83ED-AB11A756DBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDD5914-CD32-4ED2-AF7D-E2A1D8EEA053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="922" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="23" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="769">
   <si>
     <t>Answer</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>What is the percentage of freshman students with act score in the range 6-11 for act math</t>
-  </si>
-  <si>
-    <t>What is the percentage of freshman students with act score in the range below 6 for act composite</t>
   </si>
   <si>
     <t>What is the percentage of freshman students with act score in the range below 6 for act english</t>
@@ -1803,9 +1800,6 @@
     <t>How many degree-seeking undergraduate caucasian students are enrolled?</t>
   </si>
   <si>
-    <t>The (xor [*percent] number) of students {who graduated (xor {[range] [number] years and [number] years} {[range] [number] years}) in the [initial_final] [year] cohort is &lt;value&gt;</t>
-  </si>
-  <si>
     <t>The (xor [*percent] number) of degree-seeking first-time first-year students enrolled (xor {of [^*unknown] race} (xor {who are [^race]} {nonresidence alien})) is &lt;value&gt;</t>
   </si>
   <si>
@@ -2393,6 +2387,12 @@
   </si>
   <si>
     <t>What other units are recommended for admission? (please specify)</t>
+  </si>
+  <si>
+    <t>What is the percentage of freshman students with act composite score below 6</t>
+  </si>
+  <si>
+    <t>The (xor [*percent] number) of students {who graduated (xor {[^range] [^number] years and [^number] years} {[^range] [^number] years})} in the [^initial_final] 2014 cohort is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2815,198 +2815,198 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3037,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3128,184 +3128,184 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3318,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A1A77-FCFF-4BA2-80DC-49E66C3D11B3}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3337,184 +3337,184 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3543,144 +3543,144 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3724,7 +3724,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3732,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3740,7 +3740,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3748,7 +3748,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3756,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3764,7 +3764,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3772,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3788,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3796,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3804,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3812,7 +3812,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3820,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3844,7 +3844,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3852,7 +3852,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
@@ -3860,31 +3860,31 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3917,58 +3917,58 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +4004,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4012,7 +4012,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4020,7 +4020,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4028,7 +4028,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4036,7 +4036,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4044,63 +4044,63 @@
         <v>41</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4135,7 +4135,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4143,7 +4143,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4151,7 +4151,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4167,7 +4167,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4175,7 +4175,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4183,7 +4183,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4191,7 +4191,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4199,7 +4199,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4207,7 +4207,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4215,7 +4215,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4223,63 +4223,63 @@
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4296,13 +4296,13 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4318,7 +4318,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -4334,7 +4334,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
@@ -4350,71 +4350,71 @@
         <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>767</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4457,7 +4457,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4465,7 +4465,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4473,7 +4473,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4481,7 +4481,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4489,7 +4489,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4497,15 +4497,15 @@
         <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4513,7 +4513,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4521,82 +4521,82 @@
         <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2" s="5">
         <v>387</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3" s="5">
         <v>143</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B10" s="5">
         <v>1082</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B11" s="5">
         <v>329</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="17" 